--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76319EBC-EDAB-47B7-8517-FA7AB626D98D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9200A6-BCF4-4B1F-AD67-DDC16F72BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
-    <sheet name="C_11" sheetId="1" r:id="rId1"/>
+    <sheet name="C_13" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_11!$B$5:$G$5</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">C_13!$B$5:$G$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -79,7 +79,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -238,12 +238,12 @@
     <xf numFmtId="17" fontId="3" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E9200A6-BCF4-4B1F-AD67-DDC16F72BCEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C3AE07-CBBF-4281-A76F-D86599426E40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Ultima actualización: mayo 2024</t>
   </si>
@@ -72,6 +72,12 @@
   </si>
   <si>
     <t>Vehículos registrados en las casetas de CAPUFE 2023</t>
+  </si>
+  <si>
+    <t>Propia2</t>
+  </si>
+  <si>
+    <t>FNI3</t>
   </si>
 </sst>
 </file>
@@ -143,7 +149,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -215,12 +221,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -245,17 +321,118 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Montserrat Medium"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="22" formatCode="mmm\-yy"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -266,6 +443,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:F82" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:F82" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+    <filterColumn colId="0">
+      <filters>
+        <dateGroupItem year="2024" dateTimeGrouping="year"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{B3DA6240-3291-4ED8-B51E-C49015703C05}" name="Fecha" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B7CC1BE0-09C8-463A-ADE0-C608BEC46AE1}" name="Propia" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{E2CAADEC-9788-4D26-9B47-373FC754BDD9}" name="FNI" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6BE068E8-4988-45C7-9691-45B377E7AB3F}" name="Propia2" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{B183C5DD-0737-4FC4-9B81-C29D00187743}" name="FNI3" dataDxfId="1"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -516,47 +713,47 @@
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="B4" s="16"/>
       <c r="C4" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="14"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="13"/>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="4">
+      <c r="B6" s="22">
         <v>45413</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="23">
         <v>361.20299999999997</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="23">
         <v>32201.866999999998</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="23">
         <v>4561.924</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="24">
         <v>271.21600000000001</v>
       </c>
     </row>
@@ -564,13 +761,13 @@
       <c r="B7" s="5">
         <v>45383</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="21">
         <v>376.52499999999998</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="21">
         <v>31813.453000000001</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E7" s="21">
         <v>4480.4570000000003</v>
       </c>
       <c r="F7" s="10">
@@ -598,13 +795,13 @@
       <c r="B9" s="5">
         <v>45323</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="21">
         <v>409.07499999999999</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="21">
         <v>29854.501</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="21">
         <v>4217.625</v>
       </c>
       <c r="F9" s="10">
@@ -612,40 +809,40 @@
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4">
+      <c r="B10" s="6">
         <v>45292</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>442.11200000000002</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>32141.64</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>4509.4449999999997</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="12">
         <v>280.512</v>
       </c>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="5">
+    <row r="11" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="25">
         <v>45261</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="26">
         <v>488.09300000000002</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="26">
         <v>35320</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="26">
         <v>4725.9070000000002</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="27">
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B12" s="4">
         <v>45231</v>
       </c>
@@ -662,24 +859,24 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B13" s="5">
         <v>45200</v>
       </c>
-      <c r="C13" s="9">
+      <c r="C13" s="21">
         <v>368.065</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="21">
         <v>32478</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="21">
         <v>4341.9660000000003</v>
       </c>
       <c r="F13" s="10">
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B14" s="4">
         <v>45170</v>
       </c>
@@ -696,24 +893,24 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B15" s="5">
         <v>45139</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="21">
         <v>456.01799999999997</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="21">
         <v>33367</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="21">
         <v>4656.7849999999999</v>
       </c>
       <c r="F15" s="10">
         <v>170</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B16" s="4">
         <v>45108</v>
       </c>
@@ -730,24 +927,24 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B17" s="5">
         <v>45078</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="21">
         <v>475.21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="21">
         <v>31519</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="21">
         <v>4350.6379999999999</v>
       </c>
       <c r="F17" s="10">
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B18" s="4">
         <v>45047</v>
       </c>
@@ -764,24 +961,24 @@
         <v>149</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B19" s="5">
         <v>45017</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="21">
         <v>539.61699999999996</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="21">
         <v>35421</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="21">
         <v>4746.9679999999998</v>
       </c>
       <c r="F19" s="10">
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
         <v>44986</v>
       </c>
@@ -798,58 +995,58 @@
         <v>149</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B21" s="5">
         <v>44958</v>
       </c>
-      <c r="C21" s="9">
+      <c r="C21" s="21">
         <v>401.17399999999998</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="21">
         <v>31209</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="21">
         <v>4142.9189999999999</v>
       </c>
       <c r="F21" s="10">
         <v>129</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="4">
+    <row r="22" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="6">
         <v>44927</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="11">
         <v>441.50799999999998</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="11">
         <v>34870</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E22" s="11">
         <v>4496.6840000000002</v>
       </c>
-      <c r="F22" s="8">
+      <c r="F22" s="12">
         <v>152</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="5">
+    <row r="23" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="25">
         <v>44896</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="26">
         <v>512.87099999999998</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D23" s="26">
         <v>38351.464999999997</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="26">
         <v>4917.5870000000004</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="27">
         <v>320.745</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B24" s="4">
         <v>44866</v>
       </c>
@@ -866,24 +1063,24 @@
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B25" s="5">
         <v>44835</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="21">
         <v>439.971</v>
       </c>
-      <c r="D25" s="9">
+      <c r="D25" s="21">
         <v>34325.794000000002</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="21">
         <v>4358.91</v>
       </c>
       <c r="F25" s="10">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B26" s="4">
         <v>44805</v>
       </c>
@@ -900,24 +1097,24 @@
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B27" s="5">
         <v>44774</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="21">
         <v>525.33500000000004</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="21">
         <v>35685.642999999996</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="21">
         <v>4537.701</v>
       </c>
       <c r="F27" s="10">
         <v>341.35</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B28" s="4">
         <v>44743</v>
       </c>
@@ -934,24 +1131,24 @@
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B29" s="5">
         <v>44713</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="21">
         <v>463.73399999999998</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="21">
         <v>32657.494999999999</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="21">
         <v>4181.1189999999997</v>
       </c>
       <c r="F29" s="10">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B30" s="4">
         <v>44682</v>
       </c>
@@ -968,24 +1165,24 @@
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B31" s="5">
         <v>44652</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="21">
         <v>521.03399999999999</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="21">
         <v>35875.334999999999</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="21">
         <v>4510.0479999999998</v>
       </c>
       <c r="F31" s="10">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B32" s="4">
         <v>44621</v>
       </c>
@@ -1002,58 +1199,58 @@
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B33" s="5">
         <v>44593</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="21">
         <v>381.66</v>
       </c>
-      <c r="D33" s="9">
+      <c r="D33" s="21">
         <v>29512.892</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="21">
         <v>3839.4189999999999</v>
       </c>
       <c r="F33" s="10">
         <v>275.096</v>
       </c>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="4">
+    <row r="34" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B34" s="6">
         <v>44562</v>
       </c>
-      <c r="C34" s="7">
+      <c r="C34" s="11">
         <v>426.37700000000001</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D34" s="11">
         <v>31522.11</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E34" s="11">
         <v>4230.6859999999997</v>
       </c>
-      <c r="F34" s="8">
+      <c r="F34" s="12">
         <v>308.267</v>
       </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="5">
+    <row r="35" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B35" s="25">
         <v>44531</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="26">
         <v>514.03599999999994</v>
       </c>
-      <c r="D35" s="9">
+      <c r="D35" s="26">
         <v>37048.326999999997</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="26">
         <v>4893.741</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="27">
         <v>371.387</v>
       </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B36" s="4">
         <v>44501</v>
       </c>
@@ -1070,24 +1267,24 @@
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B37" s="5">
         <v>44470</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="21">
         <v>455.21</v>
       </c>
-      <c r="D37" s="9">
+      <c r="D37" s="21">
         <v>31973.407999999999</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="21">
         <v>4045.069</v>
       </c>
       <c r="F37" s="10">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B38" s="4">
         <v>44440</v>
       </c>
@@ -1104,24 +1301,24 @@
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B39" s="5">
         <v>44409</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="21">
         <v>477.47300000000001</v>
       </c>
-      <c r="D39" s="9">
+      <c r="D39" s="21">
         <v>30320.998</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="21">
         <v>3987.26</v>
       </c>
       <c r="F39" s="10">
         <v>298.02</v>
       </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B40" s="4">
         <v>44378</v>
       </c>
@@ -1138,24 +1335,24 @@
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B41" s="5">
         <v>44348</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="21">
         <v>472.178</v>
       </c>
-      <c r="D41" s="9">
+      <c r="D41" s="21">
         <v>29495.615000000002</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="21">
         <v>3900.038</v>
       </c>
       <c r="F41" s="10">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B42" s="4">
         <v>44317</v>
       </c>
@@ -1172,24 +1369,24 @@
         <v>308.423</v>
       </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B43" s="5">
         <v>44287</v>
       </c>
-      <c r="C43" s="9">
+      <c r="C43" s="21">
         <v>363.12299999999999</v>
       </c>
-      <c r="D43" s="9">
+      <c r="D43" s="21">
         <v>29683.991000000002</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="21">
         <v>3660.5219999999999</v>
       </c>
       <c r="F43" s="10">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B44" s="4">
         <v>44256</v>
       </c>
@@ -1206,58 +1403,58 @@
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B45" s="5">
         <v>44228</v>
       </c>
-      <c r="C45" s="9">
+      <c r="C45" s="21">
         <v>271.08999999999997</v>
       </c>
-      <c r="D45" s="9">
+      <c r="D45" s="21">
         <v>24616.317999999999</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="21">
         <v>2978.413</v>
       </c>
       <c r="F45" s="10">
         <v>246.815</v>
       </c>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="4">
+    <row r="46" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B46" s="6">
         <v>44197</v>
       </c>
-      <c r="C46" s="7">
+      <c r="C46" s="11">
         <v>474.084</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D46" s="11">
         <v>26810.924999999999</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E46" s="11">
         <v>3970.2449999999999</v>
       </c>
-      <c r="F46" s="8">
+      <c r="F46" s="12">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="5">
+    <row r="47" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B47" s="25">
         <v>44166</v>
       </c>
-      <c r="C47" s="9">
+      <c r="C47" s="26">
         <v>453.53300000000002</v>
       </c>
-      <c r="D47" s="9">
+      <c r="D47" s="26">
         <v>30609.962</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="26">
         <v>3963.3319999999999</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="27">
         <v>174.196</v>
       </c>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B48" s="4">
         <v>44136</v>
       </c>
@@ -1274,24 +1471,24 @@
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B49" s="5">
         <v>44105</v>
       </c>
-      <c r="C49" s="9">
+      <c r="C49" s="21">
         <v>442.13299999999998</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="21">
         <v>25870.184000000001</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="21">
         <v>3021.357</v>
       </c>
       <c r="F49" s="10">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B50" s="4">
         <v>44075</v>
       </c>
@@ -1308,24 +1505,24 @@
         <v>147.232</v>
       </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B51" s="5">
         <v>44044</v>
       </c>
-      <c r="C51" s="9">
+      <c r="C51" s="21">
         <v>283.22199999999998</v>
       </c>
-      <c r="D51" s="9">
+      <c r="D51" s="21">
         <v>25979.219000000001</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="21">
         <v>2808.5569999999998</v>
       </c>
       <c r="F51" s="10">
         <v>150.471</v>
       </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B52" s="4">
         <v>44013</v>
       </c>
@@ -1342,24 +1539,24 @@
         <v>246.255</v>
       </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B53" s="5">
         <v>43983</v>
       </c>
-      <c r="C53" s="9">
+      <c r="C53" s="21">
         <v>223.602</v>
       </c>
-      <c r="D53" s="9">
+      <c r="D53" s="21">
         <v>21647.363000000001</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="21">
         <v>2554.5659999999998</v>
       </c>
       <c r="F53" s="10">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B54" s="4">
         <v>43952</v>
       </c>
@@ -1376,24 +1573,24 @@
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B55" s="5">
         <v>43922</v>
       </c>
-      <c r="C55" s="9">
+      <c r="C55" s="21">
         <v>200.2</v>
       </c>
-      <c r="D55" s="9">
+      <c r="D55" s="21">
         <v>18182.099999999999</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="21">
         <v>2092.1</v>
       </c>
       <c r="F55" s="10">
         <v>216.5</v>
       </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B56" s="4">
         <v>43891</v>
       </c>
@@ -1410,58 +1607,58 @@
         <v>353.5</v>
       </c>
     </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B57" s="5">
         <v>43862</v>
       </c>
-      <c r="C57" s="9">
+      <c r="C57" s="21">
         <v>373.7</v>
       </c>
-      <c r="D57" s="9">
+      <c r="D57" s="21">
         <v>29173.4</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="21">
         <v>3658</v>
       </c>
       <c r="F57" s="10">
         <v>373.1</v>
       </c>
     </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="4">
+    <row r="58" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B58" s="6">
         <v>43831</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C58" s="11">
         <v>433.4</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D58" s="11">
         <v>31957</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E58" s="11">
         <v>4056.2</v>
       </c>
-      <c r="F58" s="8">
+      <c r="F58" s="12">
         <v>401.6</v>
       </c>
     </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="5">
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B59" s="25">
         <v>43800</v>
       </c>
-      <c r="C59" s="9">
+      <c r="C59" s="26">
         <v>455.09300000000002</v>
       </c>
-      <c r="D59" s="9">
+      <c r="D59" s="26">
         <v>35082.798999999999</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="26">
         <v>4535.5079999999998</v>
       </c>
-      <c r="F59" s="10">
+      <c r="F59" s="27">
         <v>418.029</v>
       </c>
     </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B60" s="4">
         <v>43770</v>
       </c>
@@ -1478,24 +1675,24 @@
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B61" s="5">
         <v>43739</v>
       </c>
-      <c r="C61" s="9">
+      <c r="C61" s="21">
         <v>422.5</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="21">
         <v>30483.200000000001</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="21">
         <v>4041.7</v>
       </c>
       <c r="F61" s="10">
         <v>372.6</v>
       </c>
     </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B62" s="4">
         <v>43709</v>
       </c>
@@ -1512,24 +1709,24 @@
         <v>350.9</v>
       </c>
     </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B63" s="5">
         <v>43678</v>
       </c>
-      <c r="C63" s="9">
+      <c r="C63" s="21">
         <v>501.78800000000001</v>
       </c>
-      <c r="D63" s="9">
+      <c r="D63" s="21">
         <v>32359.448</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="21">
         <v>4102.3819999999996</v>
       </c>
       <c r="F63" s="10">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B64" s="4">
         <v>43647</v>
       </c>
@@ -1546,24 +1743,24 @@
         <v>387.9</v>
       </c>
     </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B65" s="5">
         <v>43617</v>
       </c>
-      <c r="C65" s="9">
+      <c r="C65" s="21">
         <v>448.2</v>
       </c>
-      <c r="D65" s="9">
+      <c r="D65" s="21">
         <v>27655.7</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="21">
         <v>3945.6</v>
       </c>
       <c r="F65" s="10">
         <v>399.8</v>
       </c>
     </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B66" s="4">
         <v>43586</v>
       </c>
@@ -1580,24 +1777,24 @@
         <v>400</v>
       </c>
     </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B67" s="5">
         <v>43556</v>
       </c>
-      <c r="C67" s="9">
+      <c r="C67" s="21">
         <v>522.9</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="21">
         <v>30692.5</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="21">
         <v>4139.6000000000004</v>
       </c>
       <c r="F67" s="10">
         <v>395.1</v>
       </c>
     </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B68" s="4">
         <v>43525</v>
       </c>
@@ -1614,42 +1811,42 @@
         <v>444.1</v>
       </c>
     </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
       <c r="B69" s="5">
         <v>43497</v>
       </c>
-      <c r="C69" s="9">
+      <c r="C69" s="21">
         <v>366.4</v>
       </c>
-      <c r="D69" s="9">
+      <c r="D69" s="21">
         <v>26751.4</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="21">
         <v>3694.2</v>
       </c>
       <c r="F69" s="10">
         <v>414.7</v>
       </c>
     </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="4">
+    <row r="70" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B70" s="6">
         <v>43466</v>
       </c>
-      <c r="C70" s="7">
+      <c r="C70" s="11">
         <v>426</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D70" s="11">
         <v>29892.9</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E70" s="11">
         <v>4137.5</v>
       </c>
-      <c r="F70" s="8">
+      <c r="F70" s="12">
         <v>462.1</v>
       </c>
     </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="5">
+    <row r="71" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B71" s="19">
         <v>43435</v>
       </c>
       <c r="C71" s="9">
@@ -1661,12 +1858,12 @@
       <c r="E71" s="9">
         <v>4452.2</v>
       </c>
-      <c r="F71" s="10">
+      <c r="F71" s="21">
         <v>482.7</v>
       </c>
     </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="4">
+    <row r="72" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B72" s="18">
         <v>43405</v>
       </c>
       <c r="C72" s="7">
@@ -1678,12 +1875,12 @@
       <c r="E72" s="7">
         <v>3933.1</v>
       </c>
-      <c r="F72" s="8">
+      <c r="F72" s="7">
         <v>445.1</v>
       </c>
     </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="5">
+    <row r="73" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B73" s="19">
         <v>43374</v>
       </c>
       <c r="C73" s="9">
@@ -1695,12 +1892,12 @@
       <c r="E73" s="9">
         <v>3950.4</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="21">
         <v>443.4</v>
       </c>
     </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="4">
+    <row r="74" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B74" s="18">
         <v>43344</v>
       </c>
       <c r="C74" s="7">
@@ -1712,12 +1909,12 @@
       <c r="E74" s="7">
         <v>3773.4</v>
       </c>
-      <c r="F74" s="8">
+      <c r="F74" s="7">
         <v>417.7</v>
       </c>
     </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="5">
+    <row r="75" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B75" s="19">
         <v>43313</v>
       </c>
       <c r="C75" s="9">
@@ -1729,12 +1926,12 @@
       <c r="E75" s="9">
         <v>4208</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="21">
         <v>467.8</v>
       </c>
     </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="4">
+    <row r="76" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B76" s="18">
         <v>43282</v>
       </c>
       <c r="C76" s="7">
@@ -1746,12 +1943,12 @@
       <c r="E76" s="7">
         <v>4331</v>
       </c>
-      <c r="F76" s="8">
+      <c r="F76" s="7">
         <v>474.3</v>
       </c>
     </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="5">
+    <row r="77" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B77" s="19">
         <v>43252</v>
       </c>
       <c r="C77" s="9">
@@ -1763,12 +1960,12 @@
       <c r="E77" s="9">
         <v>4039.2</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F77" s="21">
         <v>416.5</v>
       </c>
     </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="4">
+    <row r="78" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B78" s="18">
         <v>43221</v>
       </c>
       <c r="C78" s="7">
@@ -1780,12 +1977,12 @@
       <c r="E78" s="7">
         <v>4224</v>
       </c>
-      <c r="F78" s="8">
+      <c r="F78" s="7">
         <v>445.4</v>
       </c>
     </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B79" s="5">
+    <row r="79" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B79" s="19">
         <v>43191</v>
       </c>
       <c r="C79" s="9">
@@ -1797,12 +1994,12 @@
       <c r="E79" s="9">
         <v>4185.6000000000004</v>
       </c>
-      <c r="F79" s="10">
+      <c r="F79" s="21">
         <v>438.9</v>
       </c>
     </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B80" s="4">
+    <row r="80" spans="2:6" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B80" s="18">
         <v>43160</v>
       </c>
       <c r="C80" s="7">
@@ -1814,12 +2011,12 @@
       <c r="E80" s="7">
         <v>4359.2</v>
       </c>
-      <c r="F80" s="8">
+      <c r="F80" s="7">
         <v>444.7</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B81" s="5">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="19">
         <v>43132</v>
       </c>
       <c r="C81" s="9">
@@ -1831,24 +2028,24 @@
       <c r="E81" s="9">
         <v>3745.4</v>
       </c>
-      <c r="F81" s="10">
+      <c r="F81" s="21">
         <v>386.7</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B82" s="6">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
+      <c r="B82" s="18">
         <v>43101</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C82" s="7">
         <v>425.1</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D82" s="7">
         <v>37208</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E82" s="7">
         <v>4173.7</v>
       </c>
-      <c r="F82" s="12">
+      <c r="F82" s="7">
         <v>418.2</v>
       </c>
     </row>
@@ -1877,12 +2074,14 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B4:B5"/>
+  <mergeCells count="2">
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:F4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2BFEC54-5D46-4EC3-8531-76BCED8566DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A2C7B-08F3-4221-8588-DE9ADB742D42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -65,12 +65,6 @@
     <t>Vehículos registrados en las casetas de CAPUFE 2023</t>
   </si>
   <si>
-    <t>Propia2</t>
-  </si>
-  <si>
-    <t>FNI3</t>
-  </si>
-  <si>
     <t>Mes</t>
   </si>
   <si>
@@ -78,6 +72,48 @@
   </si>
   <si>
     <t>Actualización: agosto 2024.</t>
+  </si>
+  <si>
+    <t>Jul.</t>
+  </si>
+  <si>
+    <t>Jun.</t>
+  </si>
+  <si>
+    <t>May.</t>
+  </si>
+  <si>
+    <t>Abr.</t>
+  </si>
+  <si>
+    <t>Mar.</t>
+  </si>
+  <si>
+    <t>Feb.</t>
+  </si>
+  <si>
+    <t>Ene.</t>
+  </si>
+  <si>
+    <t>Dic.</t>
+  </si>
+  <si>
+    <t>Nov.</t>
+  </si>
+  <si>
+    <t>Oct.</t>
+  </si>
+  <si>
+    <t>Sep.</t>
+  </si>
+  <si>
+    <t>Ago.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNI </t>
   </si>
 </sst>
 </file>
@@ -301,26 +337,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -330,12 +348,38 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -349,15 +393,13 @@
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -365,12 +407,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -425,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G84" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G84" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6">
   <autoFilter ref="B5:G84" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
@@ -435,12 +471,12 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B3DA6240-3291-4ED8-B51E-C49015703C05}" name="Año" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{E851305E-F6F9-4D70-81FF-5BB25CCB812F}" name="Mes" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{B7CC1BE0-09C8-463A-ADE0-C608BEC46AE1}" name="Propia" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{E2CAADEC-9788-4D26-9B47-373FC754BDD9}" name="FNI" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{6BE068E8-4988-45C7-9691-45B377E7AB3F}" name="Propia2" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{B183C5DD-0737-4FC4-9B81-C29D00187743}" name="FNI3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{B3DA6240-3291-4ED8-B51E-C49015703C05}" name="Año" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E851305E-F6F9-4D70-81FF-5BB25CCB812F}" name="Mes" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{B7CC1BE0-09C8-463A-ADE0-C608BEC46AE1}" name="Propia" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E2CAADEC-9788-4D26-9B47-373FC754BDD9}" name="FNI" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{6BE068E8-4988-45C7-9691-45B377E7AB3F}" name="Propia " dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B183C5DD-0737-4FC4-9B81-C29D00187743}" name="FNI " dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -697,22 +733,22 @@
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B4" s="9"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="21" t="s">
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="22"/>
+      <c r="G4" s="16"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B5" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>2</v>
@@ -721,18 +757,18 @@
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+      <c r="B6" s="20">
         <v>2024</v>
       </c>
-      <c r="C6" s="16">
-        <v>7</v>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D6" s="6">
         <v>391.33499999999998</v>
@@ -748,11 +784,11 @@
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="13">
+      <c r="B7" s="21">
         <v>2024</v>
       </c>
-      <c r="C7" s="14">
-        <v>6</v>
+      <c r="C7" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>359.08600000000001</v>
@@ -768,11 +804,11 @@
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+      <c r="B8" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="16">
-        <v>5</v>
+      <c r="C8" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="6">
         <v>361.20299999999997</v>
@@ -788,11 +824,11 @@
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="13">
+      <c r="B9" s="21">
         <v>2024</v>
       </c>
-      <c r="C9" s="14">
-        <v>4</v>
+      <c r="C9" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D9" s="4">
         <v>376.52499999999998</v>
@@ -808,11 +844,11 @@
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
+      <c r="B10" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="16">
-        <v>3</v>
+      <c r="C10" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D10" s="6">
         <v>467.80599999999998</v>
@@ -828,11 +864,11 @@
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="13">
+      <c r="B11" s="21">
         <v>2024</v>
       </c>
-      <c r="C11" s="14">
-        <v>2</v>
+      <c r="C11" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D11" s="4">
         <v>409.07499999999999</v>
@@ -848,31 +884,31 @@
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="17">
+      <c r="B12" s="22">
         <v>2024</v>
       </c>
-      <c r="C12" s="18">
-        <v>1</v>
-      </c>
-      <c r="D12" s="19">
+      <c r="C12" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="13">
         <v>442.11200000000002</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="13">
         <v>32269.039000000001</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="13">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="14">
         <v>153.113</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="13">
+      <c r="B13" s="21">
         <v>2023</v>
       </c>
-      <c r="C13" s="14">
-        <v>12</v>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="4">
         <v>488.09300000000002</v>
@@ -888,11 +924,11 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="12">
+      <c r="B14" s="20">
         <v>2023</v>
       </c>
-      <c r="C14" s="16">
-        <v>11</v>
+      <c r="C14" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D14" s="6">
         <v>394.346</v>
@@ -908,11 +944,11 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="13">
+      <c r="B15" s="21">
         <v>2023</v>
       </c>
-      <c r="C15" s="14">
-        <v>10</v>
+      <c r="C15" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D15" s="4">
         <v>368.065</v>
@@ -928,11 +964,11 @@
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="12">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C16" s="16">
-        <v>9</v>
+      <c r="C16" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D16" s="6">
         <v>370.30599999999998</v>
@@ -948,11 +984,11 @@
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="13">
+      <c r="B17" s="21">
         <v>2023</v>
       </c>
-      <c r="C17" s="14">
-        <v>8</v>
+      <c r="C17" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D17" s="4">
         <v>456.01799999999997</v>
@@ -968,11 +1004,11 @@
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="12">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C18" s="16">
-        <v>7</v>
+      <c r="C18" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D18" s="6">
         <v>531.83299999999997</v>
@@ -988,11 +1024,11 @@
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="13">
+      <c r="B19" s="21">
         <v>2023</v>
       </c>
-      <c r="C19" s="14">
-        <v>6</v>
+      <c r="C19" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D19" s="4">
         <v>475.21</v>
@@ -1008,11 +1044,11 @@
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="12">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C20" s="16">
-        <v>5</v>
+      <c r="C20" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="6">
         <v>497.62700000000001</v>
@@ -1028,11 +1064,11 @@
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="13">
+      <c r="B21" s="21">
         <v>2023</v>
       </c>
-      <c r="C21" s="14">
-        <v>4</v>
+      <c r="C21" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D21" s="4">
         <v>539.61699999999996</v>
@@ -1048,11 +1084,11 @@
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="12">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C22" s="16">
-        <v>3</v>
+      <c r="C22" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D22" s="6">
         <v>464.71800000000002</v>
@@ -1068,11 +1104,11 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="13">
+      <c r="B23" s="21">
         <v>2023</v>
       </c>
-      <c r="C23" s="14">
-        <v>2</v>
+      <c r="C23" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D23" s="4">
         <v>401.17399999999998</v>
@@ -1088,31 +1124,31 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="17">
+      <c r="B24" s="22">
         <v>2023</v>
       </c>
-      <c r="C24" s="18">
-        <v>1</v>
-      </c>
-      <c r="D24" s="19">
+      <c r="C24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="13">
         <v>441.50799999999998</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="13">
         <v>34870</v>
       </c>
-      <c r="F24" s="19">
+      <c r="F24" s="13">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G24" s="20">
+      <c r="G24" s="14">
         <v>152</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="13">
+      <c r="B25" s="21">
         <v>2022</v>
       </c>
-      <c r="C25" s="14">
-        <v>12</v>
+      <c r="C25" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D25" s="4">
         <v>512.87099999999998</v>
@@ -1128,11 +1164,11 @@
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="12">
+      <c r="B26" s="20">
         <v>2022</v>
       </c>
-      <c r="C26" s="16">
-        <v>11</v>
+      <c r="C26" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D26" s="6">
         <v>451.02</v>
@@ -1148,11 +1184,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="13">
+      <c r="B27" s="21">
         <v>2022</v>
       </c>
-      <c r="C27" s="14">
-        <v>10</v>
+      <c r="C27" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D27" s="4">
         <v>439.971</v>
@@ -1168,11 +1204,11 @@
       </c>
     </row>
     <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="12">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C28" s="16">
-        <v>9</v>
+      <c r="C28" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D28" s="6">
         <v>424.685</v>
@@ -1188,11 +1224,11 @@
       </c>
     </row>
     <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="13">
+      <c r="B29" s="21">
         <v>2022</v>
       </c>
-      <c r="C29" s="14">
-        <v>8</v>
+      <c r="C29" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="4">
         <v>525.33500000000004</v>
@@ -1208,11 +1244,11 @@
       </c>
     </row>
     <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="12">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C30" s="16">
-        <v>7</v>
+      <c r="C30" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D30" s="6">
         <v>523.85500000000002</v>
@@ -1228,11 +1264,11 @@
       </c>
     </row>
     <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="13">
+      <c r="B31" s="21">
         <v>2022</v>
       </c>
-      <c r="C31" s="14">
-        <v>6</v>
+      <c r="C31" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D31" s="4">
         <v>463.73399999999998</v>
@@ -1248,11 +1284,11 @@
       </c>
     </row>
     <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="12">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C32" s="16">
-        <v>5</v>
+      <c r="C32" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D32" s="6">
         <v>483.18400000000003</v>
@@ -1268,11 +1304,11 @@
       </c>
     </row>
     <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="13">
+      <c r="B33" s="21">
         <v>2022</v>
       </c>
-      <c r="C33" s="14">
-        <v>4</v>
+      <c r="C33" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D33" s="4">
         <v>521.03399999999999</v>
@@ -1288,11 +1324,11 @@
       </c>
     </row>
     <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="12">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C34" s="16">
-        <v>3</v>
+      <c r="C34" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D34" s="6">
         <v>456.17099999999999</v>
@@ -1308,11 +1344,11 @@
       </c>
     </row>
     <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="13">
+      <c r="B35" s="21">
         <v>2022</v>
       </c>
-      <c r="C35" s="14">
-        <v>2</v>
+      <c r="C35" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D35" s="4">
         <v>381.66</v>
@@ -1328,31 +1364,31 @@
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="17">
+      <c r="B36" s="22">
         <v>2022</v>
       </c>
-      <c r="C36" s="18">
-        <v>1</v>
-      </c>
-      <c r="D36" s="19">
+      <c r="C36" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="13">
         <v>426.37700000000001</v>
       </c>
-      <c r="E36" s="19">
+      <c r="E36" s="13">
         <v>31522.11</v>
       </c>
-      <c r="F36" s="19">
+      <c r="F36" s="13">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G36" s="20">
+      <c r="G36" s="14">
         <v>308.267</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="13">
+      <c r="B37" s="21">
         <v>2021</v>
       </c>
-      <c r="C37" s="14">
-        <v>12</v>
+      <c r="C37" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D37" s="4">
         <v>514.03599999999994</v>
@@ -1368,11 +1404,11 @@
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="12">
+      <c r="B38" s="20">
         <v>2021</v>
       </c>
-      <c r="C38" s="16">
-        <v>11</v>
+      <c r="C38" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D38" s="6">
         <v>461.517</v>
@@ -1388,11 +1424,11 @@
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="13">
+      <c r="B39" s="21">
         <v>2021</v>
       </c>
-      <c r="C39" s="14">
-        <v>10</v>
+      <c r="C39" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D39" s="4">
         <v>455.21</v>
@@ -1408,11 +1444,11 @@
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="12">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C40" s="16">
-        <v>9</v>
+      <c r="C40" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D40" s="6">
         <v>417.20100000000002</v>
@@ -1428,11 +1464,11 @@
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="13">
+      <c r="B41" s="21">
         <v>2021</v>
       </c>
-      <c r="C41" s="14">
-        <v>8</v>
+      <c r="C41" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="4">
         <v>477.47300000000001</v>
@@ -1448,11 +1484,11 @@
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="12">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C42" s="16">
-        <v>7</v>
+      <c r="C42" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D42" s="6">
         <v>534.01</v>
@@ -1468,11 +1504,11 @@
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="13">
+      <c r="B43" s="21">
         <v>2021</v>
       </c>
-      <c r="C43" s="14">
-        <v>6</v>
+      <c r="C43" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D43" s="4">
         <v>472.178</v>
@@ -1488,11 +1524,11 @@
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="12">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C44" s="16">
-        <v>5</v>
+      <c r="C44" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D44" s="6">
         <v>497.61500000000001</v>
@@ -1508,11 +1544,11 @@
       </c>
     </row>
     <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="13">
+      <c r="B45" s="21">
         <v>2021</v>
       </c>
-      <c r="C45" s="14">
-        <v>4</v>
+      <c r="C45" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D45" s="4">
         <v>363.12299999999999</v>
@@ -1528,11 +1564,11 @@
       </c>
     </row>
     <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="12">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C46" s="16">
-        <v>3</v>
+      <c r="C46" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D46" s="6">
         <v>353.36700000000002</v>
@@ -1548,11 +1584,11 @@
       </c>
     </row>
     <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="13">
+      <c r="B47" s="21">
         <v>2021</v>
       </c>
-      <c r="C47" s="14">
-        <v>2</v>
+      <c r="C47" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D47" s="4">
         <v>271.08999999999997</v>
@@ -1568,31 +1604,31 @@
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="17">
+      <c r="B48" s="22">
         <v>2021</v>
       </c>
-      <c r="C48" s="18">
-        <v>1</v>
-      </c>
-      <c r="D48" s="19">
+      <c r="C48" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="13">
         <v>474.084</v>
       </c>
-      <c r="E48" s="19">
+      <c r="E48" s="13">
         <v>26810.924999999999</v>
       </c>
-      <c r="F48" s="19">
+      <c r="F48" s="13">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G48" s="20">
+      <c r="G48" s="14">
         <v>279.76900000000001</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="13">
+      <c r="B49" s="21">
         <v>2020</v>
       </c>
-      <c r="C49" s="14">
-        <v>12</v>
+      <c r="C49" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D49" s="4">
         <v>453.53300000000002</v>
@@ -1608,11 +1644,11 @@
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="12">
+      <c r="B50" s="20">
         <v>2020</v>
       </c>
-      <c r="C50" s="16">
-        <v>11</v>
+      <c r="C50" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D50" s="6">
         <v>436.66899999999998</v>
@@ -1628,11 +1664,11 @@
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="13">
+      <c r="B51" s="21">
         <v>2020</v>
       </c>
-      <c r="C51" s="14">
-        <v>10</v>
+      <c r="C51" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D51" s="4">
         <v>442.13299999999998</v>
@@ -1648,11 +1684,11 @@
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="12">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C52" s="16">
-        <v>9</v>
+      <c r="C52" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D52" s="6">
         <v>280.45699999999999</v>
@@ -1668,11 +1704,11 @@
       </c>
     </row>
     <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="13">
+      <c r="B53" s="21">
         <v>2020</v>
       </c>
-      <c r="C53" s="14">
-        <v>8</v>
+      <c r="C53" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D53" s="4">
         <v>283.22199999999998</v>
@@ -1688,11 +1724,11 @@
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="12">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C54" s="16">
-        <v>7</v>
+      <c r="C54" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D54" s="6">
         <v>269.73899999999998</v>
@@ -1708,11 +1744,11 @@
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="13">
+      <c r="B55" s="21">
         <v>2020</v>
       </c>
-      <c r="C55" s="14">
-        <v>6</v>
+      <c r="C55" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D55" s="4">
         <v>223.602</v>
@@ -1728,11 +1764,11 @@
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="12">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C56" s="16">
-        <v>5</v>
+      <c r="C56" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D56" s="6">
         <v>219.328</v>
@@ -1748,11 +1784,11 @@
       </c>
     </row>
     <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="13">
+      <c r="B57" s="21">
         <v>2020</v>
       </c>
-      <c r="C57" s="14">
-        <v>4</v>
+      <c r="C57" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D57" s="4">
         <v>200.2</v>
@@ -1768,11 +1804,11 @@
       </c>
     </row>
     <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="12">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C58" s="16">
-        <v>3</v>
+      <c r="C58" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D58" s="6">
         <v>369.5</v>
@@ -1788,11 +1824,11 @@
       </c>
     </row>
     <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="13">
+      <c r="B59" s="21">
         <v>2020</v>
       </c>
-      <c r="C59" s="14">
-        <v>2</v>
+      <c r="C59" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D59" s="4">
         <v>373.7</v>
@@ -1808,31 +1844,31 @@
       </c>
     </row>
     <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="17">
+      <c r="B60" s="22">
         <v>2020</v>
       </c>
-      <c r="C60" s="18">
-        <v>1</v>
-      </c>
-      <c r="D60" s="19">
+      <c r="C60" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="13">
         <v>433.4</v>
       </c>
-      <c r="E60" s="19">
+      <c r="E60" s="13">
         <v>31957</v>
       </c>
-      <c r="F60" s="19">
+      <c r="F60" s="13">
         <v>4056.2</v>
       </c>
-      <c r="G60" s="20">
+      <c r="G60" s="14">
         <v>401.6</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="13">
+      <c r="B61" s="21">
         <v>2019</v>
       </c>
-      <c r="C61" s="14">
-        <v>12</v>
+      <c r="C61" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D61" s="4">
         <v>455.09300000000002</v>
@@ -1848,11 +1884,11 @@
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="12">
+      <c r="B62" s="20">
         <v>2019</v>
       </c>
-      <c r="C62" s="16">
-        <v>11</v>
+      <c r="C62" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D62" s="6">
         <v>420.3</v>
@@ -1868,11 +1904,11 @@
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="13">
+      <c r="B63" s="21">
         <v>2019</v>
       </c>
-      <c r="C63" s="14">
-        <v>10</v>
+      <c r="C63" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D63" s="4">
         <v>422.5</v>
@@ -1888,11 +1924,11 @@
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="12">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C64" s="16">
-        <v>9</v>
+      <c r="C64" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D64" s="6">
         <v>417.5</v>
@@ -1908,11 +1944,11 @@
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="13">
+      <c r="B65" s="21">
         <v>2019</v>
       </c>
-      <c r="C65" s="14">
-        <v>8</v>
+      <c r="C65" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D65" s="4">
         <v>501.78800000000001</v>
@@ -1928,11 +1964,11 @@
       </c>
     </row>
     <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="12">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C66" s="16">
-        <v>7</v>
+      <c r="C66" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D66" s="6">
         <v>550.20000000000005</v>
@@ -1948,11 +1984,11 @@
       </c>
     </row>
     <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="13">
+      <c r="B67" s="21">
         <v>2019</v>
       </c>
-      <c r="C67" s="14">
-        <v>6</v>
+      <c r="C67" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D67" s="4">
         <v>448.2</v>
@@ -1968,11 +2004,11 @@
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="12">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C68" s="16">
-        <v>5</v>
+      <c r="C68" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D68" s="6">
         <v>465.8</v>
@@ -1988,11 +2024,11 @@
       </c>
     </row>
     <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="13">
+      <c r="B69" s="21">
         <v>2019</v>
       </c>
-      <c r="C69" s="14">
-        <v>4</v>
+      <c r="C69" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D69" s="4">
         <v>522.9</v>
@@ -2008,11 +2044,11 @@
       </c>
     </row>
     <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="12">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C70" s="16">
-        <v>3</v>
+      <c r="C70" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D70" s="6">
         <v>434.2</v>
@@ -2028,11 +2064,11 @@
       </c>
     </row>
     <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="13">
+      <c r="B71" s="21">
         <v>2019</v>
       </c>
-      <c r="C71" s="14">
-        <v>2</v>
+      <c r="C71" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D71" s="4">
         <v>366.4</v>
@@ -2048,31 +2084,31 @@
       </c>
     </row>
     <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="17">
+      <c r="B72" s="22">
         <v>2019</v>
       </c>
-      <c r="C72" s="18">
-        <v>1</v>
-      </c>
-      <c r="D72" s="19">
+      <c r="C72" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="13">
         <v>426</v>
       </c>
-      <c r="E72" s="19">
+      <c r="E72" s="13">
         <v>29892.9</v>
       </c>
-      <c r="F72" s="19">
+      <c r="F72" s="13">
         <v>4137.5</v>
       </c>
-      <c r="G72" s="20">
+      <c r="G72" s="14">
         <v>462.1</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="13">
+      <c r="B73" s="21">
         <v>2018</v>
       </c>
-      <c r="C73" s="14">
-        <v>12</v>
+      <c r="C73" s="18" t="s">
+        <v>18</v>
       </c>
       <c r="D73" s="4">
         <v>509.3</v>
@@ -2088,11 +2124,11 @@
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="12">
+      <c r="B74" s="20">
         <v>2018</v>
       </c>
-      <c r="C74" s="16">
-        <v>11</v>
+      <c r="C74" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D74" s="6">
         <v>435.2</v>
@@ -2108,11 +2144,11 @@
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="13">
+      <c r="B75" s="21">
         <v>2018</v>
       </c>
-      <c r="C75" s="14">
-        <v>10</v>
+      <c r="C75" s="18" t="s">
+        <v>20</v>
       </c>
       <c r="D75" s="4">
         <v>415.6</v>
@@ -2128,11 +2164,11 @@
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="12">
+      <c r="B76" s="20">
         <v>2018</v>
       </c>
-      <c r="C76" s="16">
-        <v>9</v>
+      <c r="C76" s="17" t="s">
+        <v>21</v>
       </c>
       <c r="D76" s="6">
         <v>395.9</v>
@@ -2148,11 +2184,11 @@
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="13">
+      <c r="B77" s="21">
         <v>2018</v>
       </c>
-      <c r="C77" s="14">
-        <v>8</v>
+      <c r="C77" s="18" t="s">
+        <v>22</v>
       </c>
       <c r="D77" s="4">
         <v>491.1</v>
@@ -2168,11 +2204,11 @@
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="12">
+      <c r="B78" s="20">
         <v>2018</v>
       </c>
-      <c r="C78" s="16">
-        <v>7</v>
+      <c r="C78" s="17" t="s">
+        <v>11</v>
       </c>
       <c r="D78" s="6">
         <v>547.9</v>
@@ -2188,11 +2224,11 @@
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="13">
+      <c r="B79" s="21">
         <v>2018</v>
       </c>
-      <c r="C79" s="14">
-        <v>6</v>
+      <c r="C79" s="18" t="s">
+        <v>12</v>
       </c>
       <c r="D79" s="4">
         <v>432.7</v>
@@ -2208,11 +2244,11 @@
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="12">
+      <c r="B80" s="20">
         <v>2018</v>
       </c>
-      <c r="C80" s="16">
-        <v>5</v>
+      <c r="C80" s="17" t="s">
+        <v>13</v>
       </c>
       <c r="D80" s="6">
         <v>436.5</v>
@@ -2228,11 +2264,11 @@
       </c>
     </row>
     <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="13">
+      <c r="B81" s="21">
         <v>2018</v>
       </c>
-      <c r="C81" s="14">
-        <v>4</v>
+      <c r="C81" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="D81" s="4">
         <v>477.7</v>
@@ -2248,11 +2284,11 @@
       </c>
     </row>
     <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="12">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C82" s="16">
-        <v>3</v>
+      <c r="C82" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D82" s="6">
         <v>466.7</v>
@@ -2268,11 +2304,11 @@
       </c>
     </row>
     <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="13">
+      <c r="B83" s="21">
         <v>2018</v>
       </c>
-      <c r="C83" s="14">
-        <v>2</v>
+      <c r="C83" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="D83" s="4">
         <v>366.2</v>
@@ -2288,11 +2324,11 @@
       </c>
     </row>
     <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="12">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C84" s="16">
-        <v>1</v>
+      <c r="C84" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="D84" s="6">
         <v>425.1</v>
@@ -2310,7 +2346,7 @@
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B85" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.35">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B3DC57-CA6C-458C-95C1-C979A466055F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0C1B5-5B9B-4380-960B-3E541C0FD6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Octubre 2024.</t>
+    <t>Actualización: Noviembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,23 +148,31 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Geomanist"/>
-      <family val="3"/>
-      <scheme val="minor"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -314,7 +322,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -323,6 +331,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -336,6 +350,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -344,14 +366,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -363,12 +377,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -383,8 +392,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -396,8 +407,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -409,8 +422,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -422,8 +437,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="#,##0.0"/>
     </dxf>
@@ -435,8 +452,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -449,8 +468,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -483,8 +504,10 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
     </dxf>
     <dxf>
@@ -500,8 +523,10 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Geomanist"/>
-        <scheme val="minor"/>
+        <name val="Noto Sans"/>
+        <family val="2"/>
+        <charset val="1"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -535,11 +560,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G87" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G87" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G88" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
-        <filter val="2023"/>
         <filter val="2024"/>
       </filters>
     </filterColumn>
@@ -779,1727 +803,1749 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H91"/>
+  <dimension ref="B2:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="5.625" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7" style="2" customWidth="1"/>
-    <col min="2" max="2" width="6.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.5" style="2" customWidth="1"/>
-    <col min="4" max="7" width="9.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.875" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="11" style="2"/>
+    <col min="1" max="1" width="5.625" style="2"/>
+    <col min="2" max="2" width="6.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="5.625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
+      <c r="B2" s="24" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="22" t="s">
+      <c r="D4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="23"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B6" s="15">
         <v>2024</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="17">
+        <v>364.15199999999999</v>
+      </c>
+      <c r="E6" s="17">
+        <v>31391.064999999999</v>
+      </c>
+      <c r="F6" s="17">
+        <v>4263.375</v>
+      </c>
+      <c r="G6" s="18">
+        <v>109.999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="11">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="13">
         <v>355.78699999999998</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="13">
         <v>30993.098000000002</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F7" s="13">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G7" s="14">
         <v>120.792</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="9">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="17">
         <v>351.78899999999999</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="17">
         <v>30506.695</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="17">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="18">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="11">
         <v>2024</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="13">
         <v>389.89299999999997</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="13">
         <v>32522.752</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="13">
         <v>4592.29</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="14">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="9">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="17">
         <v>391.33499999999998</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="17">
         <v>33157.347000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="17">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="18">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="13">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="11">
         <v>2024</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="13">
         <v>359.08600000000001</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E11" s="13">
         <v>30980.621999999999</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F11" s="13">
         <v>4255.26</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G11" s="14">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="9">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="17">
         <v>361.20299999999997</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="17">
         <v>32325.853999999999</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="17">
         <v>4561.924</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="18">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="13">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="11">
         <v>2024</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="13">
         <v>376.52499999999998</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="13">
         <v>31932.16</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="13">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="14">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="9">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="17">
         <v>467.80599999999998</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="17">
         <v>33742.417000000001</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="17">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="18">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="13">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="11">
         <v>2024</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="13">
         <v>409.07499999999999</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="13">
         <v>29964.609</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="13">
         <v>4217.625</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G15" s="14">
         <v>139.161</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="17">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="19">
         <v>2024</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D16" s="21">
         <v>442.11200000000002</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E16" s="21">
         <v>32269.039000000001</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F16" s="21">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G15" s="20">
+      <c r="G16" s="22">
         <v>153.113</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="13">
+    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="11">
         <v>2023</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D17" s="13">
         <v>488.09300000000002</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E17" s="13">
         <v>35319.991999999998</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F17" s="13">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G17" s="14">
         <v>164.172</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="17">
         <v>394.346</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="17">
         <v>32003.993999999999</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="17">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="18">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="13">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="11">
         <v>2023</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="13">
         <v>368.065</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E19" s="13">
         <v>32478.357</v>
       </c>
-      <c r="F18" s="15">
+      <c r="F19" s="13">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G19" s="14">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="17">
         <v>370.30599999999998</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="17">
         <v>30477.884999999998</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="17">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="18">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="13">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="11">
         <v>2023</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="13">
         <v>456.01799999999997</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="13">
         <v>33366.624000000003</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="13">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="14">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="17">
         <v>531.83299999999997</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="17">
         <v>33987.230000000003</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="17">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="18">
         <v>172.745</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B22" s="13">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="11">
         <v>2023</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="13">
         <v>475.21</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E23" s="13">
         <v>31519.437999999998</v>
       </c>
-      <c r="F22" s="15">
+      <c r="F23" s="13">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G23" s="14">
         <v>145.583</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="17">
         <v>497.62700000000001</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="17">
         <v>32910.921000000002</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="17">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="18">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="13">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="11">
         <v>2023</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="13">
         <v>539.61699999999996</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="13">
         <v>35421.288999999997</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="13">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="14">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="17">
         <v>464.71800000000002</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="17">
         <v>35141.546999999999</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="17">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="18">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="13">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="11">
         <v>2023</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="13">
         <v>401.17399999999998</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E27" s="13">
         <v>31209.23</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F27" s="13">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G27" s="14">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="17">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="19">
         <v>2023</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C28" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D27" s="19">
+      <c r="D28" s="21">
         <v>441.50799999999998</v>
       </c>
-      <c r="E27" s="19">
+      <c r="E28" s="21">
         <v>34870</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F28" s="21">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G27" s="20">
+      <c r="G28" s="22">
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="13">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="11">
         <v>2022</v>
       </c>
-      <c r="C28" s="14" t="s">
+      <c r="C29" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D28" s="15">
+      <c r="D29" s="13">
         <v>512.87099999999998</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E29" s="13">
         <v>38351.464999999997</v>
       </c>
-      <c r="F28" s="15">
+      <c r="F29" s="13">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G29" s="14">
         <v>320.745</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="17">
         <v>451.02</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="17">
         <v>34030.885999999999</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="17">
         <v>4283.8869999999997</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="18">
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="13">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="11">
         <v>2022</v>
       </c>
-      <c r="C30" s="14" t="s">
+      <c r="C31" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D30" s="15">
+      <c r="D31" s="13">
         <v>439.971</v>
       </c>
-      <c r="E30" s="15">
+      <c r="E31" s="13">
         <v>34325.794000000002</v>
       </c>
-      <c r="F30" s="15">
+      <c r="F31" s="13">
         <v>4358.91</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G31" s="14">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="17">
         <v>424.685</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="17">
         <v>32483.731</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="17">
         <v>4153.6689999999999</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="18">
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="13">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="11">
         <v>2022</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="13">
         <v>525.33500000000004</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="13">
         <v>35685.642999999996</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="13">
         <v>4537.701</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="14">
         <v>341.35</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="17">
         <v>523.85500000000002</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="17">
         <v>35237.499000000003</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="17">
         <v>4449.53</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="18">
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="13">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="11">
         <v>2022</v>
       </c>
-      <c r="C34" s="14" t="s">
+      <c r="C35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D35" s="13">
         <v>463.73399999999998</v>
       </c>
-      <c r="E34" s="15">
+      <c r="E35" s="13">
         <v>32657.494999999999</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F35" s="13">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G35" s="14">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="17">
         <v>483.18400000000003</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="17">
         <v>34826.652000000002</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="17">
         <v>4477.1049999999996</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="18">
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="13">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="11">
         <v>2022</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="13">
         <v>521.03399999999999</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="13">
         <v>35875.334999999999</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="13">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="14">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="17">
         <v>456.17099999999999</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="17">
         <v>34229.036</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="17">
         <v>4359.9489999999996</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="18">
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="13">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="11">
         <v>2022</v>
       </c>
-      <c r="C38" s="14" t="s">
+      <c r="C39" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="13">
         <v>381.66</v>
       </c>
-      <c r="E38" s="15">
+      <c r="E39" s="13">
         <v>29512.892</v>
       </c>
-      <c r="F38" s="15">
+      <c r="F39" s="13">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G38" s="16">
+      <c r="G39" s="14">
         <v>275.096</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="17">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="19">
         <v>2022</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D39" s="19">
+      <c r="D40" s="21">
         <v>426.37700000000001</v>
       </c>
-      <c r="E39" s="19">
+      <c r="E40" s="21">
         <v>31522.11</v>
       </c>
-      <c r="F39" s="19">
+      <c r="F40" s="21">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G39" s="20">
+      <c r="G40" s="22">
         <v>308.267</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="13">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="11">
         <v>2021</v>
       </c>
-      <c r="C40" s="14" t="s">
+      <c r="C41" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D40" s="15">
+      <c r="D41" s="13">
         <v>514.03599999999994</v>
       </c>
-      <c r="E40" s="15">
+      <c r="E41" s="13">
         <v>37048.326999999997</v>
       </c>
-      <c r="F40" s="15">
+      <c r="F41" s="13">
         <v>4893.741</v>
       </c>
-      <c r="G40" s="16">
+      <c r="G41" s="14">
         <v>371.387</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="17">
         <v>461.517</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="17">
         <v>32424.513999999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="17">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="18">
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="13">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="11">
         <v>2021</v>
       </c>
-      <c r="C42" s="14" t="s">
+      <c r="C43" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="15">
+      <c r="D43" s="13">
         <v>455.21</v>
       </c>
-      <c r="E42" s="15">
+      <c r="E43" s="13">
         <v>31973.407999999999</v>
       </c>
-      <c r="F42" s="15">
+      <c r="F43" s="13">
         <v>4045.069</v>
       </c>
-      <c r="G42" s="16">
+      <c r="G43" s="14">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="17">
         <v>417.20100000000002</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="17">
         <v>28575.538</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="17">
         <v>3843.163</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="18">
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="13">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="11">
         <v>2021</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="13">
         <v>477.47300000000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="13">
         <v>30320.998</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="13">
         <v>3987.26</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="14">
         <v>298.02</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="17">
         <v>534.01</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="17">
         <v>32045.192999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="17">
         <v>3737.0219999999999</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="18">
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="13">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="11">
         <v>2021</v>
       </c>
-      <c r="C46" s="14" t="s">
+      <c r="C47" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="15">
+      <c r="D47" s="13">
         <v>472.178</v>
       </c>
-      <c r="E46" s="15">
+      <c r="E47" s="13">
         <v>29495.615000000002</v>
       </c>
-      <c r="F46" s="15">
+      <c r="F47" s="13">
         <v>3900.038</v>
       </c>
-      <c r="G46" s="16">
+      <c r="G47" s="14">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="17">
         <v>497.61500000000001</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="17">
         <v>30860.518</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="17">
         <v>4184.6679999999997</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="18">
         <v>308.423</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="13">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="11">
         <v>2021</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="13">
         <v>363.12299999999999</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="13">
         <v>29683.991000000002</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="13">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="14">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="17">
         <v>353.36700000000002</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="17">
         <v>29988.731</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="17">
         <v>3623.5439999999999</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="18">
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="13">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="11">
         <v>2021</v>
       </c>
-      <c r="C50" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="13">
         <v>271.08999999999997</v>
       </c>
-      <c r="E50" s="15">
+      <c r="E51" s="13">
         <v>24616.317999999999</v>
       </c>
-      <c r="F50" s="15">
+      <c r="F51" s="13">
         <v>2978.413</v>
       </c>
-      <c r="G50" s="16">
+      <c r="G51" s="14">
         <v>246.815</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="17">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="19">
         <v>2021</v>
       </c>
-      <c r="C51" s="18" t="s">
+      <c r="C52" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="19">
+      <c r="D52" s="21">
         <v>474.084</v>
       </c>
-      <c r="E51" s="19">
+      <c r="E52" s="21">
         <v>26810.924999999999</v>
       </c>
-      <c r="F51" s="19">
+      <c r="F52" s="21">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G51" s="20">
+      <c r="G52" s="22">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="13">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="11">
         <v>2020</v>
       </c>
-      <c r="C52" s="14" t="s">
+      <c r="C53" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D52" s="15">
+      <c r="D53" s="13">
         <v>453.53300000000002</v>
       </c>
-      <c r="E52" s="15">
+      <c r="E53" s="13">
         <v>30609.962</v>
       </c>
-      <c r="F52" s="15">
+      <c r="F53" s="13">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G52" s="16">
+      <c r="G53" s="14">
         <v>174.196</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="17">
         <v>436.66899999999998</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="17">
         <v>27289.054</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="17">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="18">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B54" s="13">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="11">
         <v>2020</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C55" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D54" s="15">
+      <c r="D55" s="13">
         <v>442.13299999999998</v>
       </c>
-      <c r="E54" s="15">
+      <c r="E55" s="13">
         <v>25870.184000000001</v>
       </c>
-      <c r="F54" s="15">
+      <c r="F55" s="13">
         <v>3021.357</v>
       </c>
-      <c r="G54" s="16">
+      <c r="G55" s="14">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="17">
         <v>280.45699999999999</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="17">
         <v>24713.252</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="17">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="18">
         <v>147.232</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B56" s="13">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="11">
         <v>2020</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="13">
         <v>283.22199999999998</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="13">
         <v>25979.219000000001</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="13">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="14">
         <v>150.471</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="17">
         <v>269.73899999999998</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="17">
         <v>25407.806</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="17">
         <v>2717.212</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="18">
         <v>246.255</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B58" s="13">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="11">
         <v>2020</v>
       </c>
-      <c r="C58" s="14" t="s">
+      <c r="C59" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="15">
+      <c r="D59" s="13">
         <v>223.602</v>
       </c>
-      <c r="E58" s="15">
+      <c r="E59" s="13">
         <v>21647.363000000001</v>
       </c>
-      <c r="F58" s="15">
+      <c r="F59" s="13">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G58" s="16">
+      <c r="G59" s="14">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="17">
         <v>219.328</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="17">
         <v>18766.822</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="17">
         <v>2359.1</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="18">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="13">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="11">
         <v>2020</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="13">
         <v>200.2</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="13">
         <v>18182.099999999999</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="13">
         <v>2092.1</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="14">
         <v>216.5</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="17">
         <v>369.5</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="17">
         <v>27845.9</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="17">
         <v>3344</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="18">
         <v>353.5</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B62" s="13">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="11">
         <v>2020</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="13">
         <v>373.7</v>
       </c>
-      <c r="E62" s="15">
+      <c r="E63" s="13">
         <v>29173.4</v>
       </c>
-      <c r="F62" s="15">
+      <c r="F63" s="13">
         <v>3658</v>
       </c>
-      <c r="G62" s="16">
+      <c r="G63" s="14">
         <v>373.1</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="17">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="19">
         <v>2020</v>
       </c>
-      <c r="C63" s="18" t="s">
+      <c r="C64" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D63" s="19">
+      <c r="D64" s="21">
         <v>433.4</v>
       </c>
-      <c r="E63" s="19">
+      <c r="E64" s="21">
         <v>31957</v>
       </c>
-      <c r="F63" s="19">
+      <c r="F64" s="21">
         <v>4056.2</v>
       </c>
-      <c r="G63" s="20">
+      <c r="G64" s="22">
         <v>401.6</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B64" s="13">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="11">
         <v>2019</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D64" s="15">
+      <c r="D65" s="13">
         <v>455.09300000000002</v>
       </c>
-      <c r="E64" s="15">
+      <c r="E65" s="13">
         <v>35082.798999999999</v>
       </c>
-      <c r="F64" s="15">
+      <c r="F65" s="13">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G64" s="16">
+      <c r="G65" s="14">
         <v>418.029</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="17">
         <v>420.3</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="17">
         <v>31255.3</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="17">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="18">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B66" s="13">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="11">
         <v>2019</v>
       </c>
-      <c r="C66" s="14" t="s">
+      <c r="C67" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D67" s="13">
         <v>422.5</v>
       </c>
-      <c r="E66" s="15">
+      <c r="E67" s="13">
         <v>30483.200000000001</v>
       </c>
-      <c r="F66" s="15">
+      <c r="F67" s="13">
         <v>4041.7</v>
       </c>
-      <c r="G66" s="16">
+      <c r="G67" s="14">
         <v>372.6</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="17">
         <v>417.5</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="17">
         <v>29611.8</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="17">
         <v>3780.9</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="18">
         <v>350.9</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B68" s="13">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="11">
         <v>2019</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="13">
         <v>501.78800000000001</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="13">
         <v>32359.448</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="13">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="14">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="17">
         <v>550.20000000000005</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="17">
         <v>31445</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="17">
         <v>4176.5</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="18">
         <v>387.9</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B70" s="13">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="11">
         <v>2019</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D70" s="15">
+      <c r="D71" s="13">
         <v>448.2</v>
       </c>
-      <c r="E70" s="15">
+      <c r="E71" s="13">
         <v>27655.7</v>
       </c>
-      <c r="F70" s="15">
+      <c r="F71" s="13">
         <v>3945.6</v>
       </c>
-      <c r="G70" s="16">
+      <c r="G71" s="14">
         <v>399.8</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="17">
         <v>465.8</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="17">
         <v>29408.7</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="17">
         <v>4092.5</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="18">
         <v>400</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B72" s="13">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="11">
         <v>2019</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="13">
         <v>522.9</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="13">
         <v>30692.5</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="13">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="14">
         <v>395.1</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="17">
         <v>434.2</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="17">
         <v>30420.3</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="17">
         <v>4089</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="18">
         <v>444.1</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="13">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="11">
         <v>2019</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="13">
         <v>366.4</v>
       </c>
-      <c r="E74" s="15">
+      <c r="E75" s="13">
         <v>26751.4</v>
       </c>
-      <c r="F74" s="15">
+      <c r="F75" s="13">
         <v>3694.2</v>
       </c>
-      <c r="G74" s="16">
+      <c r="G75" s="14">
         <v>414.7</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="17">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="19">
         <v>2019</v>
       </c>
-      <c r="C75" s="18" t="s">
+      <c r="C76" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D75" s="19">
+      <c r="D76" s="21">
         <v>426</v>
       </c>
-      <c r="E75" s="19">
+      <c r="E76" s="21">
         <v>29892.9</v>
       </c>
-      <c r="F75" s="19">
+      <c r="F76" s="21">
         <v>4137.5</v>
       </c>
-      <c r="G75" s="20">
+      <c r="G76" s="22">
         <v>462.1</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="13">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="11">
         <v>2018</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C77" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D76" s="15">
+      <c r="D77" s="13">
         <v>509.3</v>
       </c>
-      <c r="E76" s="15">
+      <c r="E77" s="13">
         <v>34085.699999999997</v>
       </c>
-      <c r="F76" s="15">
+      <c r="F77" s="13">
         <v>4452.2</v>
       </c>
-      <c r="G76" s="16">
+      <c r="G77" s="14">
         <v>482.7</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="17">
         <v>435.2</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="17">
         <v>30873.7</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="17">
         <v>3933.1</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="18">
         <v>445.1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="13">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="11">
         <v>2018</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D78" s="15">
+      <c r="D79" s="13">
         <v>415.6</v>
       </c>
-      <c r="E78" s="15">
+      <c r="E79" s="13">
         <v>30548.6</v>
       </c>
-      <c r="F78" s="15">
+      <c r="F79" s="13">
         <v>3950.4</v>
       </c>
-      <c r="G78" s="16">
+      <c r="G79" s="14">
         <v>443.4</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="17">
         <v>395.9</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="17">
         <v>29707.4</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="17">
         <v>3773.4</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="18">
         <v>417.7</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="13">
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="11">
         <v>2018</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="13">
         <v>491.1</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="13">
         <v>32843.800000000003</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="13">
         <v>4208</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="14">
         <v>467.8</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B81" s="9">
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="17">
         <v>547.9</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="17">
         <v>34437.199999999997</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="17">
         <v>4331</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="18">
         <v>474.3</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B82" s="13">
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="11">
         <v>2018</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C83" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D82" s="15">
+      <c r="D83" s="13">
         <v>432.7</v>
       </c>
-      <c r="E82" s="15">
+      <c r="E83" s="13">
         <v>30803.9</v>
       </c>
-      <c r="F82" s="15">
+      <c r="F83" s="13">
         <v>4039.2</v>
       </c>
-      <c r="G82" s="16">
+      <c r="G83" s="14">
         <v>416.5</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="9">
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="17">
         <v>436.5</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="17">
         <v>32434.6</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="17">
         <v>4224</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="18">
         <v>445.4</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="13">
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="11">
         <v>2018</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="13">
         <v>477.7</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="13">
         <v>32564.6</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="13">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="14">
         <v>438.9</v>
       </c>
-      <c r="H84" s="1"/>
-    </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="9">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="17">
         <v>466.7</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="17">
         <v>34233.9</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="17">
         <v>4359.2</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="18">
         <v>444.7</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="13">
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="11">
         <v>2018</v>
       </c>
-      <c r="C86" s="14" t="s">
+      <c r="C87" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D86" s="15">
+      <c r="D87" s="13">
         <v>366.2</v>
       </c>
-      <c r="E86" s="15">
+      <c r="E87" s="13">
         <v>28790.1</v>
       </c>
-      <c r="F86" s="15">
+      <c r="F87" s="13">
         <v>3745.4</v>
       </c>
-      <c r="G86" s="16">
+      <c r="G87" s="14">
         <v>386.7</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="9">
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="17">
         <v>425.1</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="17">
         <v>37208</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="17">
         <v>4173.7</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="18">
         <v>418.2</v>
       </c>
     </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B88" s="2" t="s">
+    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B89" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B89" s="2" t="s">
+    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B90" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="1"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="1"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B90" s="2" t="s">
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+      <c r="G90" s="1"/>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B91" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G90" s="21"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="21"/>
+      <c r="G91" s="23"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G92" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0C1B5-5B9B-4380-960B-3E541C0FD6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F015955-689E-4B23-9C45-681AE135B21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -332,12 +332,6 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -378,6 +372,12 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -560,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G88" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G89" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -803,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H92"/>
+  <dimension ref="B2:H93"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -822,7 +822,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
@@ -835,1717 +835,1737 @@
     <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="11">
+        <v>402.19099999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>34249.404000000002</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4694.4560000000001</v>
+      </c>
+      <c r="G6" s="12">
+        <v>134.702</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D7" s="15">
         <v>364.15199999999999</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="15">
         <v>31391.064999999999</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="15">
         <v>4263.375</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G7" s="16">
         <v>109.999</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="11">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="9">
         <v>2024</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="11">
         <v>355.78699999999998</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="11">
         <v>30993.098000000002</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="11">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="12">
         <v>120.792</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="13">
         <v>2024</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D9" s="15">
         <v>351.78899999999999</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="15">
         <v>30506.695</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="15">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G9" s="16">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="11">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="11">
         <v>389.89299999999997</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="11">
         <v>32522.752</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="11">
         <v>4592.29</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="12">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="13">
         <v>2024</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C11" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D11" s="15">
         <v>391.33499999999998</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="15">
         <v>33157.347000000002</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="15">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G11" s="16">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="11">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="11">
         <v>359.08600000000001</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="11">
         <v>30980.621999999999</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="11">
         <v>4255.26</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="12">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="13">
         <v>2024</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="C13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D13" s="15">
         <v>361.20299999999997</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="15">
         <v>32325.853999999999</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="15">
         <v>4561.924</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G13" s="16">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="11">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D14" s="11">
         <v>376.52499999999998</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="11">
         <v>31932.16</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="11">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="12">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="13">
         <v>2024</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C15" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D15" s="15">
         <v>467.80599999999998</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E15" s="15">
         <v>33742.417000000001</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F15" s="15">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G15" s="16">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="11">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D16" s="11">
         <v>409.07499999999999</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E16" s="11">
         <v>29964.609</v>
       </c>
-      <c r="F15" s="13">
+      <c r="F16" s="11">
         <v>4217.625</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G16" s="12">
         <v>139.161</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="19">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="17">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="19">
         <v>442.11200000000002</v>
       </c>
-      <c r="E16" s="21">
+      <c r="E17" s="19">
         <v>32269.039000000001</v>
       </c>
-      <c r="F16" s="21">
+      <c r="F17" s="19">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G16" s="22">
+      <c r="G17" s="20">
         <v>153.113</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="11">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="9">
         <v>2023</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C18" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D18" s="11">
         <v>488.09300000000002</v>
       </c>
-      <c r="E17" s="13">
+      <c r="E18" s="11">
         <v>35319.991999999998</v>
       </c>
-      <c r="F17" s="13">
+      <c r="F18" s="11">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G18" s="12">
         <v>164.172</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="13">
         <v>2023</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="17">
+      <c r="D19" s="15">
         <v>394.346</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="15">
         <v>32003.993999999999</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="15">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G18" s="18">
+      <c r="G19" s="16">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="11">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="9">
         <v>2023</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C20" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D20" s="11">
         <v>368.065</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="11">
         <v>32478.357</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="11">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="12">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="13">
         <v>2023</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C21" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="17">
+      <c r="D21" s="15">
         <v>370.30599999999998</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="15">
         <v>30477.884999999998</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="15">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G21" s="16">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="11">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C22" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D22" s="11">
         <v>456.01799999999997</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="11">
         <v>33366.624000000003</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="11">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="12">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="13">
         <v>2023</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D23" s="15">
         <v>531.83299999999997</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="15">
         <v>33987.230000000003</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="15">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G23" s="16">
         <v>172.745</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="11">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C24" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D24" s="11">
         <v>475.21</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="11">
         <v>31519.437999999998</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="11">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="12">
         <v>145.583</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="13">
         <v>2023</v>
       </c>
-      <c r="C24" s="16" t="s">
+      <c r="C25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D25" s="15">
         <v>497.62700000000001</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="15">
         <v>32910.921000000002</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="15">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G24" s="18">
+      <c r="G25" s="16">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="11">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D26" s="11">
         <v>539.61699999999996</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="11">
         <v>35421.288999999997</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="11">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="12">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="13">
         <v>2023</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D27" s="15">
         <v>464.71800000000002</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="15">
         <v>35141.546999999999</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="15">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G26" s="18">
+      <c r="G27" s="16">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="11">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C28" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D28" s="11">
         <v>401.17399999999998</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="11">
         <v>31209.23</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="11">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="12">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="17">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="19">
         <v>441.50799999999998</v>
       </c>
-      <c r="E28" s="21">
+      <c r="E29" s="19">
         <v>34870</v>
       </c>
-      <c r="F28" s="21">
+      <c r="F29" s="19">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G28" s="22">
+      <c r="G29" s="20">
         <v>152</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="11">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="9">
         <v>2022</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C30" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D30" s="11">
         <v>512.87099999999998</v>
       </c>
-      <c r="E29" s="13">
+      <c r="E30" s="11">
         <v>38351.464999999997</v>
       </c>
-      <c r="F29" s="13">
+      <c r="F30" s="11">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G30" s="12">
         <v>320.745</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="13">
         <v>2022</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C31" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D31" s="15">
         <v>451.02</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="15">
         <v>34030.885999999999</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="15">
         <v>4283.8869999999997</v>
       </c>
-      <c r="G30" s="18">
+      <c r="G31" s="16">
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="11">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="9">
         <v>2022</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C32" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D32" s="11">
         <v>439.971</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="11">
         <v>34325.794000000002</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="11">
         <v>4358.91</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="12">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="13">
         <v>2022</v>
       </c>
-      <c r="C32" s="16" t="s">
+      <c r="C33" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="17">
+      <c r="D33" s="15">
         <v>424.685</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="15">
         <v>32483.731</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="15">
         <v>4153.6689999999999</v>
       </c>
-      <c r="G32" s="18">
+      <c r="G33" s="16">
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="11">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D34" s="11">
         <v>525.33500000000004</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="11">
         <v>35685.642999999996</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="11">
         <v>4537.701</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="12">
         <v>341.35</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="13">
         <v>2022</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C35" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D34" s="17">
+      <c r="D35" s="15">
         <v>523.85500000000002</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="15">
         <v>35237.499000000003</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="15">
         <v>4449.53</v>
       </c>
-      <c r="G34" s="18">
+      <c r="G35" s="16">
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="11">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C36" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D36" s="11">
         <v>463.73399999999998</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="11">
         <v>32657.494999999999</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="11">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="12">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="13">
         <v>2022</v>
       </c>
-      <c r="C36" s="16" t="s">
+      <c r="C37" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D36" s="17">
+      <c r="D37" s="15">
         <v>483.18400000000003</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="15">
         <v>34826.652000000002</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="15">
         <v>4477.1049999999996</v>
       </c>
-      <c r="G36" s="18">
+      <c r="G37" s="16">
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="11">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D38" s="11">
         <v>521.03399999999999</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="11">
         <v>35875.334999999999</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="11">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="12">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="13">
         <v>2022</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C39" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D38" s="17">
+      <c r="D39" s="15">
         <v>456.17099999999999</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="15">
         <v>34229.036</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="15">
         <v>4359.9489999999996</v>
       </c>
-      <c r="G38" s="18">
+      <c r="G39" s="16">
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="11">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D39" s="13">
+      <c r="D40" s="11">
         <v>381.66</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="11">
         <v>29512.892</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="11">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="12">
         <v>275.096</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="17">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="19">
         <v>426.37700000000001</v>
       </c>
-      <c r="E40" s="21">
+      <c r="E41" s="19">
         <v>31522.11</v>
       </c>
-      <c r="F40" s="21">
+      <c r="F41" s="19">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G41" s="20">
         <v>308.267</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="11">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="9">
         <v>2021</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D42" s="11">
         <v>514.03599999999994</v>
       </c>
-      <c r="E41" s="13">
+      <c r="E42" s="11">
         <v>37048.326999999997</v>
       </c>
-      <c r="F41" s="13">
+      <c r="F42" s="11">
         <v>4893.741</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G42" s="12">
         <v>371.387</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="13">
         <v>2021</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C43" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D42" s="17">
+      <c r="D43" s="15">
         <v>461.517</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="15">
         <v>32424.513999999999</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="15">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G42" s="18">
+      <c r="G43" s="16">
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="11">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="9">
         <v>2021</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D44" s="11">
         <v>455.21</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="11">
         <v>31973.407999999999</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="11">
         <v>4045.069</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="12">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="13">
         <v>2021</v>
       </c>
-      <c r="C44" s="16" t="s">
+      <c r="C45" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D44" s="17">
+      <c r="D45" s="15">
         <v>417.20100000000002</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="15">
         <v>28575.538</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="15">
         <v>3843.163</v>
       </c>
-      <c r="G44" s="18">
+      <c r="G45" s="16">
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="11">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C46" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D45" s="13">
+      <c r="D46" s="11">
         <v>477.47300000000001</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="11">
         <v>30320.998</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="11">
         <v>3987.26</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="12">
         <v>298.02</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="13">
         <v>2021</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C47" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D46" s="17">
+      <c r="D47" s="15">
         <v>534.01</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="15">
         <v>32045.192999999999</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="15">
         <v>3737.0219999999999</v>
       </c>
-      <c r="G46" s="18">
+      <c r="G47" s="16">
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="11">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D47" s="13">
+      <c r="D48" s="11">
         <v>472.178</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="11">
         <v>29495.615000000002</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="11">
         <v>3900.038</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="12">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="13">
         <v>2021</v>
       </c>
-      <c r="C48" s="16" t="s">
+      <c r="C49" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D48" s="17">
+      <c r="D49" s="15">
         <v>497.61500000000001</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="15">
         <v>30860.518</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="15">
         <v>4184.6679999999997</v>
       </c>
-      <c r="G48" s="18">
+      <c r="G49" s="16">
         <v>308.423</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="11">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D49" s="13">
+      <c r="D50" s="11">
         <v>363.12299999999999</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="11">
         <v>29683.991000000002</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="11">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="12">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="13">
         <v>2021</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C51" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="17">
+      <c r="D51" s="15">
         <v>353.36700000000002</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="15">
         <v>29988.731</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="15">
         <v>3623.5439999999999</v>
       </c>
-      <c r="G50" s="18">
+      <c r="G51" s="16">
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="11">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C52" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D51" s="13">
+      <c r="D52" s="11">
         <v>271.08999999999997</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="11">
         <v>24616.317999999999</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="11">
         <v>2978.413</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="12">
         <v>246.815</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="19">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="17">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="19">
         <v>474.084</v>
       </c>
-      <c r="E52" s="21">
+      <c r="E53" s="19">
         <v>26810.924999999999</v>
       </c>
-      <c r="F52" s="21">
+      <c r="F53" s="19">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G52" s="22">
+      <c r="G53" s="20">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="11">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="9">
         <v>2020</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C54" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D53" s="13">
+      <c r="D54" s="11">
         <v>453.53300000000002</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E54" s="11">
         <v>30609.962</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F54" s="11">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G54" s="12">
         <v>174.196</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="13">
         <v>2020</v>
       </c>
-      <c r="C54" s="16" t="s">
+      <c r="C55" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D54" s="17">
+      <c r="D55" s="15">
         <v>436.66899999999998</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="15">
         <v>27289.054</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="15">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G54" s="18">
+      <c r="G55" s="16">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="11">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="9">
         <v>2020</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C56" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D55" s="13">
+      <c r="D56" s="11">
         <v>442.13299999999998</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="11">
         <v>25870.184000000001</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="11">
         <v>3021.357</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="12">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="13">
         <v>2020</v>
       </c>
-      <c r="C56" s="16" t="s">
+      <c r="C57" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D57" s="15">
         <v>280.45699999999999</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="15">
         <v>24713.252</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="15">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G56" s="18">
+      <c r="G57" s="16">
         <v>147.232</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="11">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C58" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D57" s="13">
+      <c r="D58" s="11">
         <v>283.22199999999998</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="11">
         <v>25979.219000000001</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="11">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="12">
         <v>150.471</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="13">
         <v>2020</v>
       </c>
-      <c r="C58" s="16" t="s">
+      <c r="C59" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D58" s="17">
+      <c r="D59" s="15">
         <v>269.73899999999998</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="15">
         <v>25407.806</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="15">
         <v>2717.212</v>
       </c>
-      <c r="G58" s="18">
+      <c r="G59" s="16">
         <v>246.255</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="11">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C60" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D60" s="11">
         <v>223.602</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="11">
         <v>21647.363000000001</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="11">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="12">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="13">
         <v>2020</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C61" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D60" s="17">
+      <c r="D61" s="15">
         <v>219.328</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="15">
         <v>18766.822</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="15">
         <v>2359.1</v>
       </c>
-      <c r="G60" s="18">
+      <c r="G61" s="16">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="11">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D61" s="13">
+      <c r="D62" s="11">
         <v>200.2</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="11">
         <v>18182.099999999999</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="11">
         <v>2092.1</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="12">
         <v>216.5</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="13">
         <v>2020</v>
       </c>
-      <c r="C62" s="16" t="s">
+      <c r="C63" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D62" s="17">
+      <c r="D63" s="15">
         <v>369.5</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="15">
         <v>27845.9</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="15">
         <v>3344</v>
       </c>
-      <c r="G62" s="18">
+      <c r="G63" s="16">
         <v>353.5</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="11">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D64" s="11">
         <v>373.7</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="11">
         <v>29173.4</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="11">
         <v>3658</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="12">
         <v>373.1</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="17">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="19">
         <v>433.4</v>
       </c>
-      <c r="E64" s="21">
+      <c r="E65" s="19">
         <v>31957</v>
       </c>
-      <c r="F64" s="21">
+      <c r="F65" s="19">
         <v>4056.2</v>
       </c>
-      <c r="G64" s="22">
+      <c r="G65" s="20">
         <v>401.6</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="11">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="9">
         <v>2019</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C66" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D66" s="11">
         <v>455.09300000000002</v>
       </c>
-      <c r="E65" s="13">
+      <c r="E66" s="11">
         <v>35082.798999999999</v>
       </c>
-      <c r="F65" s="13">
+      <c r="F66" s="11">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G66" s="12">
         <v>418.029</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="13">
         <v>2019</v>
       </c>
-      <c r="C66" s="16" t="s">
+      <c r="C67" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="17">
+      <c r="D67" s="15">
         <v>420.3</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="15">
         <v>31255.3</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="15">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G66" s="18">
+      <c r="G67" s="16">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="11">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="9">
         <v>2019</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C68" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D68" s="11">
         <v>422.5</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="11">
         <v>30483.200000000001</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="11">
         <v>4041.7</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="12">
         <v>372.6</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="13">
         <v>2019</v>
       </c>
-      <c r="C68" s="16" t="s">
+      <c r="C69" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D68" s="17">
+      <c r="D69" s="15">
         <v>417.5</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="15">
         <v>29611.8</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="15">
         <v>3780.9</v>
       </c>
-      <c r="G68" s="18">
+      <c r="G69" s="16">
         <v>350.9</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="11">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C70" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D70" s="11">
         <v>501.78800000000001</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="11">
         <v>32359.448</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="11">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="12">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="13">
         <v>2019</v>
       </c>
-      <c r="C70" s="16" t="s">
+      <c r="C71" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D70" s="17">
+      <c r="D71" s="15">
         <v>550.20000000000005</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="15">
         <v>31445</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="15">
         <v>4176.5</v>
       </c>
-      <c r="G70" s="18">
+      <c r="G71" s="16">
         <v>387.9</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="11">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C72" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D72" s="11">
         <v>448.2</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="11">
         <v>27655.7</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="11">
         <v>3945.6</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="12">
         <v>399.8</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="13">
         <v>2019</v>
       </c>
-      <c r="C72" s="16" t="s">
+      <c r="C73" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D72" s="17">
+      <c r="D73" s="15">
         <v>465.8</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="15">
         <v>29408.7</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="15">
         <v>4092.5</v>
       </c>
-      <c r="G72" s="18">
+      <c r="G73" s="16">
         <v>400</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="11">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D73" s="13">
+      <c r="D74" s="11">
         <v>522.9</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="11">
         <v>30692.5</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="11">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="12">
         <v>395.1</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="13">
         <v>2019</v>
       </c>
-      <c r="C74" s="16" t="s">
+      <c r="C75" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D74" s="17">
+      <c r="D75" s="15">
         <v>434.2</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="15">
         <v>30420.3</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="15">
         <v>4089</v>
       </c>
-      <c r="G74" s="18">
+      <c r="G75" s="16">
         <v>444.1</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="11">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="12" t="s">
+      <c r="C76" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D75" s="13">
+      <c r="D76" s="11">
         <v>366.4</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="11">
         <v>26751.4</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="11">
         <v>3694.2</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="12">
         <v>414.7</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="19">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="17">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="19">
         <v>426</v>
       </c>
-      <c r="E76" s="21">
+      <c r="E77" s="19">
         <v>29892.9</v>
       </c>
-      <c r="F76" s="21">
+      <c r="F77" s="19">
         <v>4137.5</v>
       </c>
-      <c r="G76" s="22">
+      <c r="G77" s="20">
         <v>462.1</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="11">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="9">
         <v>2018</v>
       </c>
-      <c r="C77" s="12" t="s">
+      <c r="C78" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D77" s="13">
+      <c r="D78" s="11">
         <v>509.3</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E78" s="11">
         <v>34085.699999999997</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F78" s="11">
         <v>4452.2</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G78" s="12">
         <v>482.7</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="13">
         <v>2018</v>
       </c>
-      <c r="C78" s="16" t="s">
+      <c r="C79" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D78" s="17">
+      <c r="D79" s="15">
         <v>435.2</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="15">
         <v>30873.7</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="15">
         <v>3933.1</v>
       </c>
-      <c r="G78" s="18">
+      <c r="G79" s="16">
         <v>445.1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="11">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="9">
         <v>2018</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C80" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D79" s="13">
+      <c r="D80" s="11">
         <v>415.6</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="11">
         <v>30548.6</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="11">
         <v>3950.4</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="12">
         <v>443.4</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="13">
         <v>2018</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="C81" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D80" s="17">
+      <c r="D81" s="15">
         <v>395.9</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="15">
         <v>29707.4</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="15">
         <v>3773.4</v>
       </c>
-      <c r="G80" s="18">
+      <c r="G81" s="16">
         <v>417.7</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="11">
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="12" t="s">
+      <c r="C82" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D81" s="13">
+      <c r="D82" s="11">
         <v>491.1</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="11">
         <v>32843.800000000003</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="11">
         <v>4208</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="12">
         <v>467.8</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="13">
         <v>2018</v>
       </c>
-      <c r="C82" s="16" t="s">
+      <c r="C83" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D82" s="17">
+      <c r="D83" s="15">
         <v>547.9</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="15">
         <v>34437.199999999997</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="15">
         <v>4331</v>
       </c>
-      <c r="G82" s="18">
+      <c r="G83" s="16">
         <v>474.3</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="11">
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D83" s="13">
+      <c r="D84" s="11">
         <v>432.7</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="11">
         <v>30803.9</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="11">
         <v>4039.2</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="12">
         <v>416.5</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="13">
         <v>2018</v>
       </c>
-      <c r="C84" s="16" t="s">
+      <c r="C85" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D84" s="17">
+      <c r="D85" s="15">
         <v>436.5</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="15">
         <v>32434.6</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="15">
         <v>4224</v>
       </c>
-      <c r="G84" s="18">
+      <c r="G85" s="16">
         <v>445.4</v>
       </c>
-    </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="11">
+      <c r="H85" s="1"/>
+    </row>
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C86" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D85" s="13">
+      <c r="D86" s="11">
         <v>477.7</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="11">
         <v>32564.6</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="11">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="12">
         <v>438.9</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    </row>
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="13">
         <v>2018</v>
       </c>
-      <c r="C86" s="16" t="s">
+      <c r="C87" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D86" s="17">
+      <c r="D87" s="15">
         <v>466.7</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="15">
         <v>34233.9</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="15">
         <v>4359.2</v>
       </c>
-      <c r="G86" s="18">
+      <c r="G87" s="16">
         <v>444.7</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="11">
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C88" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D87" s="13">
+      <c r="D88" s="11">
         <v>366.2</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="11">
         <v>28790.1</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="11">
         <v>3745.4</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="12">
         <v>386.7</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="13">
         <v>2018</v>
       </c>
-      <c r="C88" s="16" t="s">
+      <c r="C89" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D88" s="17">
+      <c r="D89" s="15">
         <v>425.1</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="15">
         <v>37208</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="15">
         <v>4173.7</v>
       </c>
-      <c r="G88" s="18">
+      <c r="G89" s="16">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B89" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B90" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E90" s="1"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B92" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G91" s="23"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G92" s="23"/>
+      <c r="G92" s="21"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G93" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\2-Infraestructura Carretera\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F015955-689E-4B23-9C45-681AE135B21F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E4974-0D6F-4571-B430-EBC156C47ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -317,12 +317,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -378,6 +389,14 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -560,8 +579,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G89" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G90" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -803,22 +822,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H93"/>
+  <dimension ref="B2:H94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="5.625" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="2"/>
+    <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="6.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.25" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="5.625" style="2"/>
+    <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
@@ -865,1707 +884,1727 @@
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+      <c r="B6" s="25">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="27">
+        <v>360.34199999999998</v>
+      </c>
+      <c r="E6" s="27">
+        <v>32087.850999999999</v>
+      </c>
+      <c r="F6" s="27">
+        <v>4304.1899999999996</v>
+      </c>
+      <c r="G6" s="28">
+        <v>128.77099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B7" s="9">
         <v>2024</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>402.19099999999997</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>34249.404000000002</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>134.702</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="13">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B8" s="13">
         <v>2024</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>364.15199999999999</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>31391.064999999999</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>4263.375</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="16">
         <v>109.999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B9" s="9">
         <v>2024</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>355.78699999999998</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>30993.098000000002</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>120.792</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B9" s="13">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B10" s="13">
         <v>2024</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D10" s="15">
         <v>351.78899999999999</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E10" s="15">
         <v>30506.695</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F10" s="15">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G10" s="16">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>389.89299999999997</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>32522.752</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>4592.29</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B11" s="13">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B12" s="13">
         <v>2024</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <v>391.33499999999998</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>33157.347000000002</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="16">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>359.08600000000001</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>30980.621999999999</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>4255.26</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B13" s="13">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B14" s="13">
         <v>2024</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C14" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D14" s="15">
         <v>361.20299999999997</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E14" s="15">
         <v>32325.853999999999</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F14" s="15">
         <v>4561.924</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G14" s="16">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>376.52499999999998</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>31932.16</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B15" s="13">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B16" s="13">
         <v>2024</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D16" s="15">
         <v>467.80599999999998</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E16" s="15">
         <v>33742.417000000001</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F16" s="15">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G15" s="16">
+      <c r="G16" s="16">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>409.07499999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>29964.609</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>4217.625</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>139.161</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="17">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="17">
         <v>2024</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C18" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D18" s="19">
         <v>442.11200000000002</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E18" s="19">
         <v>32269.039000000001</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F18" s="19">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G17" s="20">
+      <c r="G18" s="20">
         <v>153.113</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="9">
         <v>2023</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>488.09300000000002</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>35319.991999999998</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>164.172</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="13">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="13">
         <v>2023</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <v>394.346</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>32003.993999999999</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="9">
         <v>2023</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>368.065</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>32478.357</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="13">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="13">
         <v>2023</v>
       </c>
-      <c r="C21" s="14" t="s">
+      <c r="C22" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <v>370.30599999999998</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E22" s="15">
         <v>30477.884999999998</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F22" s="15">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G22" s="16">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>456.01799999999997</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>33366.624000000003</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="13">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="13">
         <v>2023</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <v>531.83299999999997</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>33987.230000000003</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="16">
         <v>172.745</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>475.21</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>31519.437999999998</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>145.583</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="13">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="13">
         <v>2023</v>
       </c>
-      <c r="C25" s="14" t="s">
+      <c r="C26" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="15">
+      <c r="D26" s="15">
         <v>497.62700000000001</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E26" s="15">
         <v>32910.921000000002</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F26" s="15">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G25" s="16">
+      <c r="G26" s="16">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>539.61699999999996</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>35421.288999999997</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="13">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="13">
         <v>2023</v>
       </c>
-      <c r="C27" s="14" t="s">
+      <c r="C28" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="15">
+      <c r="D28" s="15">
         <v>464.71800000000002</v>
       </c>
-      <c r="E27" s="15">
+      <c r="E28" s="15">
         <v>35141.546999999999</v>
       </c>
-      <c r="F27" s="15">
+      <c r="F28" s="15">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G28" s="16">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>401.17399999999998</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>31209.23</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="17">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="17">
         <v>2023</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C30" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D30" s="19">
         <v>441.50799999999998</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E30" s="19">
         <v>34870</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F30" s="19">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G29" s="20">
+      <c r="G30" s="20">
         <v>152</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="9">
         <v>2022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>512.87099999999998</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>38351.464999999997</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>320.745</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="13">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="13">
         <v>2022</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <v>451.02</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>34030.885999999999</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>4283.8869999999997</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="9">
         <v>2022</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>439.971</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>34325.794000000002</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>4358.91</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="13">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="13">
         <v>2022</v>
       </c>
-      <c r="C33" s="14" t="s">
+      <c r="C34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D33" s="15">
+      <c r="D34" s="15">
         <v>424.685</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E34" s="15">
         <v>32483.731</v>
       </c>
-      <c r="F33" s="15">
+      <c r="F34" s="15">
         <v>4153.6689999999999</v>
       </c>
-      <c r="G33" s="16">
+      <c r="G34" s="16">
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>525.33500000000004</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>35685.642999999996</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>4537.701</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>341.35</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="13">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="13">
         <v>2022</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>523.85500000000002</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>35237.499000000003</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>4449.53</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="16">
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>463.73399999999998</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>32657.494999999999</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="13">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="13">
         <v>2022</v>
       </c>
-      <c r="C37" s="14" t="s">
+      <c r="C38" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="15">
+      <c r="D38" s="15">
         <v>483.18400000000003</v>
       </c>
-      <c r="E37" s="15">
+      <c r="E38" s="15">
         <v>34826.652000000002</v>
       </c>
-      <c r="F37" s="15">
+      <c r="F38" s="15">
         <v>4477.1049999999996</v>
       </c>
-      <c r="G37" s="16">
+      <c r="G38" s="16">
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>521.03399999999999</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>35875.334999999999</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="13">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="13">
         <v>2022</v>
       </c>
-      <c r="C39" s="14" t="s">
+      <c r="C40" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="15">
+      <c r="D40" s="15">
         <v>456.17099999999999</v>
       </c>
-      <c r="E39" s="15">
+      <c r="E40" s="15">
         <v>34229.036</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F40" s="15">
         <v>4359.9489999999996</v>
       </c>
-      <c r="G39" s="16">
+      <c r="G40" s="16">
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>381.66</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>29512.892</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>275.096</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="17">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="17">
         <v>2022</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C42" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="19">
+      <c r="D42" s="19">
         <v>426.37700000000001</v>
       </c>
-      <c r="E41" s="19">
+      <c r="E42" s="19">
         <v>31522.11</v>
       </c>
-      <c r="F41" s="19">
+      <c r="F42" s="19">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G41" s="20">
+      <c r="G42" s="20">
         <v>308.267</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="9">
         <v>2021</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>514.03599999999994</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>37048.326999999997</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>4893.741</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>371.387</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="13">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="13">
         <v>2021</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>461.517</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>32424.513999999999</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="9">
         <v>2021</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>455.21</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>31973.407999999999</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>4045.069</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="13">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="13">
         <v>2021</v>
       </c>
-      <c r="C45" s="14" t="s">
+      <c r="C46" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="15">
+      <c r="D46" s="15">
         <v>417.20100000000002</v>
       </c>
-      <c r="E45" s="15">
+      <c r="E46" s="15">
         <v>28575.538</v>
       </c>
-      <c r="F45" s="15">
+      <c r="F46" s="15">
         <v>3843.163</v>
       </c>
-      <c r="G45" s="16">
+      <c r="G46" s="16">
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>477.47300000000001</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>30320.998</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>3987.26</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>298.02</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="13">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="13">
         <v>2021</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <v>534.01</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>32045.192999999999</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>3737.0219999999999</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>472.178</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>29495.615000000002</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>3900.038</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="13">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="13">
         <v>2021</v>
       </c>
-      <c r="C49" s="14" t="s">
+      <c r="C50" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="15">
+      <c r="D50" s="15">
         <v>497.61500000000001</v>
       </c>
-      <c r="E49" s="15">
+      <c r="E50" s="15">
         <v>30860.518</v>
       </c>
-      <c r="F49" s="15">
+      <c r="F50" s="15">
         <v>4184.6679999999997</v>
       </c>
-      <c r="G49" s="16">
+      <c r="G50" s="16">
         <v>308.423</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>363.12299999999999</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>29683.991000000002</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="13">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="13">
         <v>2021</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C52" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="15">
+      <c r="D52" s="15">
         <v>353.36700000000002</v>
       </c>
-      <c r="E51" s="15">
+      <c r="E52" s="15">
         <v>29988.731</v>
       </c>
-      <c r="F51" s="15">
+      <c r="F52" s="15">
         <v>3623.5439999999999</v>
       </c>
-      <c r="G51" s="16">
+      <c r="G52" s="16">
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>271.08999999999997</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>24616.317999999999</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>2978.413</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>246.815</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="17">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="17">
         <v>2021</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C54" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="19">
+      <c r="D54" s="19">
         <v>474.084</v>
       </c>
-      <c r="E53" s="19">
+      <c r="E54" s="19">
         <v>26810.924999999999</v>
       </c>
-      <c r="F53" s="19">
+      <c r="F54" s="19">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G53" s="20">
+      <c r="G54" s="20">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="9">
         <v>2020</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>453.53300000000002</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>30609.962</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>174.196</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="13">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="13">
         <v>2020</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>436.66899999999998</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>27289.054</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="9">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="9">
         <v>2020</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>442.13299999999998</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>25870.184000000001</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>3021.357</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="13">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="13">
         <v>2020</v>
       </c>
-      <c r="C57" s="14" t="s">
+      <c r="C58" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="15">
+      <c r="D58" s="15">
         <v>280.45699999999999</v>
       </c>
-      <c r="E57" s="15">
+      <c r="E58" s="15">
         <v>24713.252</v>
       </c>
-      <c r="F57" s="15">
+      <c r="F58" s="15">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G57" s="16">
+      <c r="G58" s="16">
         <v>147.232</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>283.22199999999998</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>25979.219000000001</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>150.471</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="13">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="13">
         <v>2020</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>269.73899999999998</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>25407.806</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>2717.212</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="16">
         <v>246.255</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="9">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>223.602</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>21647.363000000001</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="13">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="13">
         <v>2020</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C62" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="15">
+      <c r="D62" s="15">
         <v>219.328</v>
       </c>
-      <c r="E61" s="15">
+      <c r="E62" s="15">
         <v>18766.822</v>
       </c>
-      <c r="F61" s="15">
+      <c r="F62" s="15">
         <v>2359.1</v>
       </c>
-      <c r="G61" s="16">
+      <c r="G62" s="16">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>200.2</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>18182.099999999999</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>2092.1</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>216.5</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="13">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="13">
         <v>2020</v>
       </c>
-      <c r="C63" s="14" t="s">
+      <c r="C64" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="15">
+      <c r="D64" s="15">
         <v>369.5</v>
       </c>
-      <c r="E63" s="15">
+      <c r="E64" s="15">
         <v>27845.9</v>
       </c>
-      <c r="F63" s="15">
+      <c r="F64" s="15">
         <v>3344</v>
       </c>
-      <c r="G63" s="16">
+      <c r="G64" s="16">
         <v>353.5</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>373.7</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>29173.4</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>3658</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>373.1</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="17">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="17">
         <v>2020</v>
       </c>
-      <c r="C65" s="18" t="s">
+      <c r="C66" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="19">
+      <c r="D66" s="19">
         <v>433.4</v>
       </c>
-      <c r="E65" s="19">
+      <c r="E66" s="19">
         <v>31957</v>
       </c>
-      <c r="F65" s="19">
+      <c r="F66" s="19">
         <v>4056.2</v>
       </c>
-      <c r="G65" s="20">
+      <c r="G66" s="20">
         <v>401.6</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="9">
         <v>2019</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>455.09300000000002</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>35082.798999999999</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>418.029</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="13">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="13">
         <v>2019</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <v>420.3</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>31255.3</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="9">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="9">
         <v>2019</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>422.5</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>30483.200000000001</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>4041.7</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>372.6</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="13">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="13">
         <v>2019</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C70" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D69" s="15">
+      <c r="D70" s="15">
         <v>417.5</v>
       </c>
-      <c r="E69" s="15">
+      <c r="E70" s="15">
         <v>29611.8</v>
       </c>
-      <c r="F69" s="15">
+      <c r="F70" s="15">
         <v>3780.9</v>
       </c>
-      <c r="G69" s="16">
+      <c r="G70" s="16">
         <v>350.9</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>501.78800000000001</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>32359.448</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="13">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="13">
         <v>2019</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <v>550.20000000000005</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>31445</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>4176.5</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <v>387.9</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="9">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>448.2</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>27655.7</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>3945.6</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>399.8</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="13">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="13">
         <v>2019</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C74" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="15">
+      <c r="D74" s="15">
         <v>465.8</v>
       </c>
-      <c r="E73" s="15">
+      <c r="E74" s="15">
         <v>29408.7</v>
       </c>
-      <c r="F73" s="15">
+      <c r="F74" s="15">
         <v>4092.5</v>
       </c>
-      <c r="G73" s="16">
+      <c r="G74" s="16">
         <v>400</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>522.9</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>30692.5</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>395.1</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="13">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="13">
         <v>2019</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C76" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="15">
+      <c r="D76" s="15">
         <v>434.2</v>
       </c>
-      <c r="E75" s="15">
+      <c r="E76" s="15">
         <v>30420.3</v>
       </c>
-      <c r="F75" s="15">
+      <c r="F76" s="15">
         <v>4089</v>
       </c>
-      <c r="G75" s="16">
+      <c r="G76" s="16">
         <v>444.1</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>366.4</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>26751.4</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>3694.2</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>414.7</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="17">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="17">
         <v>2019</v>
       </c>
-      <c r="C77" s="18" t="s">
+      <c r="C78" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="19">
+      <c r="D78" s="19">
         <v>426</v>
       </c>
-      <c r="E77" s="19">
+      <c r="E78" s="19">
         <v>29892.9</v>
       </c>
-      <c r="F77" s="19">
+      <c r="F78" s="19">
         <v>4137.5</v>
       </c>
-      <c r="G77" s="20">
+      <c r="G78" s="20">
         <v>462.1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="9">
         <v>2018</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>509.3</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>34085.699999999997</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>4452.2</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>482.7</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="13">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="13">
         <v>2018</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <v>435.2</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>30873.7</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>3933.1</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>445.1</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="9">
+    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="9">
         <v>2018</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>415.6</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>30548.6</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>3950.4</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>443.4</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="13">
+    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="13">
         <v>2018</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C82" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D81" s="15">
+      <c r="D82" s="15">
         <v>395.9</v>
       </c>
-      <c r="E81" s="15">
+      <c r="E82" s="15">
         <v>29707.4</v>
       </c>
-      <c r="F81" s="15">
+      <c r="F82" s="15">
         <v>3773.4</v>
       </c>
-      <c r="G81" s="16">
+      <c r="G82" s="16">
         <v>417.7</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="9">
+    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>491.1</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>32843.800000000003</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>4208</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>467.8</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="13">
+    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="13">
         <v>2018</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <v>547.9</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>34437.199999999997</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>4331</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="16">
         <v>474.3</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="9">
+    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>432.7</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>30803.9</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>4039.2</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>416.5</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="13">
+    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="13">
         <v>2018</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="15">
+      <c r="D86" s="15">
         <v>436.5</v>
       </c>
-      <c r="E85" s="15">
+      <c r="E86" s="15">
         <v>32434.6</v>
       </c>
-      <c r="F85" s="15">
+      <c r="F86" s="15">
         <v>4224</v>
       </c>
-      <c r="G85" s="16">
+      <c r="G86" s="16">
         <v>445.4</v>
       </c>
-      <c r="H85" s="1"/>
-    </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="9">
+      <c r="H86" s="1"/>
+    </row>
+    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>477.7</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>32564.6</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>438.9</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="13">
+    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="13">
         <v>2018</v>
       </c>
-      <c r="C87" s="14" t="s">
+      <c r="C88" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="15">
+      <c r="D88" s="15">
         <v>466.7</v>
       </c>
-      <c r="E87" s="15">
+      <c r="E88" s="15">
         <v>34233.9</v>
       </c>
-      <c r="F87" s="15">
+      <c r="F88" s="15">
         <v>4359.2</v>
       </c>
-      <c r="G87" s="16">
+      <c r="G88" s="16">
         <v>444.7</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="9">
+    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>366.2</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>28790.1</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>3745.4</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>386.7</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="13">
+    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="13">
         <v>2018</v>
       </c>
-      <c r="C89" s="14" t="s">
+      <c r="C90" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="15">
+      <c r="D90" s="15">
         <v>425.1</v>
       </c>
-      <c r="E89" s="15">
+      <c r="E90" s="15">
         <v>37208</v>
       </c>
-      <c r="F89" s="15">
+      <c r="F90" s="15">
         <v>4173.7</v>
       </c>
-      <c r="G89" s="16">
+      <c r="G90" s="16">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B90" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B91" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E91" s="1"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B92" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B93" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G92" s="21"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
       <c r="G93" s="21"/>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="G94" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{557E4974-0D6F-4571-B430-EBC156C47ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F16E8-EF26-4029-A668-5B29CEADBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_13" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Enero 2025.</t>
+    <t>Actualización: Febrero 2025.</t>
   </si>
 </sst>
 </file>
@@ -123,7 +123,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -294,19 +294,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -318,14 +305,14 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -333,27 +320,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -389,14 +364,18 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Énfasis5" xfId="1" builtinId="46"/>
@@ -579,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G90" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G91" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -822,13 +801,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H94"/>
+  <dimension ref="B2:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="19.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="5.625" style="2" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="2" customWidth="1"/>
@@ -840,1771 +819,1791 @@
     <col min="8" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="20.25" x14ac:dyDescent="0.45">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:7" ht="18">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:7">
       <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24" t="s">
+      <c r="E4" s="20"/>
+      <c r="F4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="24"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B5" s="5" t="s">
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B6" s="25">
+    <row r="6" spans="2:7">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7">
+        <v>297.39600000000002</v>
+      </c>
+      <c r="E6" s="7">
+        <v>28913.167000000001</v>
+      </c>
+      <c r="F6" s="7">
+        <v>3785.3809999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>112.53700000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D7" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E6" s="27">
-        <v>32087.850999999999</v>
-      </c>
-      <c r="F6" s="27">
+      <c r="E7" s="15">
+        <v>32096.201000000001</v>
+      </c>
+      <c r="F7" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G6" s="28">
+      <c r="G7" s="16">
         <v>128.77099999999999</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+    <row r="8" spans="2:7">
+      <c r="B8" s="5">
         <v>2024</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="7">
         <v>402.19099999999997</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="7">
         <v>34249.404000000002</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="7">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="8">
         <v>134.702</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B8" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="15">
-        <v>364.15199999999999</v>
-      </c>
-      <c r="E8" s="15">
-        <v>31391.064999999999</v>
-      </c>
-      <c r="F8" s="15">
-        <v>4263.375</v>
-      </c>
-      <c r="G8" s="16">
-        <v>109.999</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:7">
       <c r="B9" s="9">
         <v>2024</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11">
+        <v>364.15199999999999</v>
+      </c>
+      <c r="E9" s="11">
+        <v>31391.064999999999</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4263.375</v>
+      </c>
+      <c r="G9" s="12">
+        <v>109.999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="7">
         <v>355.78699999999998</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="7">
         <v>30993.098000000002</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="7">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="8">
         <v>120.792</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B10" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="15">
-        <v>351.78899999999999</v>
-      </c>
-      <c r="E10" s="15">
-        <v>30506.695</v>
-      </c>
-      <c r="F10" s="15">
-        <v>4111.9309999999996</v>
-      </c>
-      <c r="G10" s="16">
-        <v>137.70099999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:7">
       <c r="B11" s="9">
         <v>2024</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11">
+        <v>351.78899999999999</v>
+      </c>
+      <c r="E11" s="11">
+        <v>30506.695</v>
+      </c>
+      <c r="F11" s="11">
+        <v>4111.9309999999996</v>
+      </c>
+      <c r="G11" s="12">
+        <v>137.70099999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="7">
         <v>389.89299999999997</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="7">
         <v>32522.752</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="7">
         <v>4592.29</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="8">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B12" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="15">
-        <v>391.33499999999998</v>
-      </c>
-      <c r="E12" s="15">
-        <v>33157.347000000002</v>
-      </c>
-      <c r="F12" s="15">
-        <v>4545.9170000000004</v>
-      </c>
-      <c r="G12" s="16">
-        <v>174.05799999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:7">
       <c r="B13" s="9">
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="11">
+        <v>391.33499999999998</v>
+      </c>
+      <c r="E13" s="11">
+        <v>33157.347000000002</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4545.9170000000004</v>
+      </c>
+      <c r="G13" s="12">
+        <v>174.05799999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="7">
         <v>359.08600000000001</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="7">
         <v>30980.621999999999</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="7">
         <v>4255.26</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="8">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B14" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="15">
-        <v>361.20299999999997</v>
-      </c>
-      <c r="E14" s="15">
-        <v>32325.853999999999</v>
-      </c>
-      <c r="F14" s="15">
-        <v>4561.924</v>
-      </c>
-      <c r="G14" s="16">
-        <v>147.22900000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:7">
       <c r="B15" s="9">
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="11">
+        <v>361.20299999999997</v>
+      </c>
+      <c r="E15" s="11">
+        <v>32325.853999999999</v>
+      </c>
+      <c r="F15" s="11">
+        <v>4561.924</v>
+      </c>
+      <c r="G15" s="12">
+        <v>147.22900000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="7">
         <v>376.52499999999998</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="7">
         <v>31932.16</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="7">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="8">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B16" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="15">
-        <v>467.80599999999998</v>
-      </c>
-      <c r="E16" s="15">
-        <v>33742.417000000001</v>
-      </c>
-      <c r="F16" s="15">
-        <v>4665.2489999999998</v>
-      </c>
-      <c r="G16" s="16">
-        <v>171.50399999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:7">
       <c r="B17" s="9">
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="11">
+        <v>467.80599999999998</v>
+      </c>
+      <c r="E17" s="11">
+        <v>33742.417000000001</v>
+      </c>
+      <c r="F17" s="11">
+        <v>4665.2489999999998</v>
+      </c>
+      <c r="G17" s="12">
+        <v>171.50399999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="7">
         <v>409.07499999999999</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="7">
         <v>29964.609</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="7">
         <v>4217.625</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="8">
         <v>139.161</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B18" s="17">
+    <row r="19" spans="2:7">
+      <c r="B19" s="13">
         <v>2024</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C19" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D19" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E19" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F19" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G18" s="20">
+      <c r="G19" s="16">
         <v>153.113</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7" hidden="1">
+      <c r="B20" s="5">
         <v>2023</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="7">
         <v>488.09300000000002</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="7">
         <v>35319.991999999998</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="7">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="8">
         <v>164.172</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="15">
-        <v>394.346</v>
-      </c>
-      <c r="E20" s="15">
-        <v>32003.993999999999</v>
-      </c>
-      <c r="F20" s="15">
-        <v>4258.4870000000001</v>
-      </c>
-      <c r="G20" s="16">
-        <v>136.57900000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:7" hidden="1">
       <c r="B21" s="9">
         <v>2023</v>
       </c>
       <c r="C21" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="11">
+        <v>394.346</v>
+      </c>
+      <c r="E21" s="11">
+        <v>32003.993999999999</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4258.4870000000001</v>
+      </c>
+      <c r="G21" s="12">
+        <v>136.57900000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="7">
         <v>368.065</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="7">
         <v>32478.357</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="7">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="8">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="15">
-        <v>370.30599999999998</v>
-      </c>
-      <c r="E22" s="15">
-        <v>30477.884999999998</v>
-      </c>
-      <c r="F22" s="15">
-        <v>4292.0969999999998</v>
-      </c>
-      <c r="G22" s="16">
-        <v>140.12700000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:7" hidden="1">
       <c r="B23" s="9">
         <v>2023</v>
       </c>
       <c r="C23" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="11">
+        <v>370.30599999999998</v>
+      </c>
+      <c r="E23" s="11">
+        <v>30477.884999999998</v>
+      </c>
+      <c r="F23" s="11">
+        <v>4292.0969999999998</v>
+      </c>
+      <c r="G23" s="12">
+        <v>140.12700000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C24" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="7">
         <v>456.01799999999997</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="7">
         <v>33366.624000000003</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="7">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="8">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D24" s="15">
-        <v>531.83299999999997</v>
-      </c>
-      <c r="E24" s="15">
-        <v>33987.230000000003</v>
-      </c>
-      <c r="F24" s="15">
-        <v>4606.6930000000002</v>
-      </c>
-      <c r="G24" s="16">
-        <v>172.745</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:7" hidden="1">
       <c r="B25" s="9">
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" s="11">
+        <v>531.83299999999997</v>
+      </c>
+      <c r="E25" s="11">
+        <v>33987.230000000003</v>
+      </c>
+      <c r="F25" s="11">
+        <v>4606.6930000000002</v>
+      </c>
+      <c r="G25" s="12">
+        <v>172.745</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="7">
         <v>475.21</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="7">
         <v>31519.437999999998</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="7">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="8">
         <v>145.583</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="15">
-        <v>497.62700000000001</v>
-      </c>
-      <c r="E26" s="15">
-        <v>32910.921000000002</v>
-      </c>
-      <c r="F26" s="15">
-        <v>4572.6980000000003</v>
-      </c>
-      <c r="G26" s="16">
-        <v>149.45699999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:7" hidden="1">
       <c r="B27" s="9">
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="11">
+        <v>497.62700000000001</v>
+      </c>
+      <c r="E27" s="11">
+        <v>32910.921000000002</v>
+      </c>
+      <c r="F27" s="11">
+        <v>4572.6980000000003</v>
+      </c>
+      <c r="G27" s="12">
+        <v>149.45699999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="7">
         <v>539.61699999999996</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="7">
         <v>35421.288999999997</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="7">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="8">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="13">
-        <v>2023</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D28" s="15">
-        <v>464.71800000000002</v>
-      </c>
-      <c r="E28" s="15">
-        <v>35141.546999999999</v>
-      </c>
-      <c r="F28" s="15">
-        <v>4672.5389999999998</v>
-      </c>
-      <c r="G28" s="16">
-        <v>148.74100000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:7" hidden="1">
       <c r="B29" s="9">
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="11">
+        <v>464.71800000000002</v>
+      </c>
+      <c r="E29" s="11">
+        <v>35141.546999999999</v>
+      </c>
+      <c r="F29" s="11">
+        <v>4672.5389999999998</v>
+      </c>
+      <c r="G29" s="12">
+        <v>148.74100000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="5">
+        <v>2023</v>
+      </c>
+      <c r="C30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="7">
         <v>401.17399999999998</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="7">
         <v>31209.23</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="7">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="8">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="17">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="13">
         <v>2023</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C31" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="19">
+      <c r="D31" s="15">
         <v>441.50799999999998</v>
       </c>
-      <c r="E30" s="19">
+      <c r="E31" s="15">
         <v>34870</v>
       </c>
-      <c r="F30" s="19">
+      <c r="F31" s="15">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G31" s="16">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2022</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="7">
         <v>512.87099999999998</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="7">
         <v>38351.464999999997</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="7">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="8">
         <v>320.745</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C32" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D32" s="15">
-        <v>451.02</v>
-      </c>
-      <c r="E32" s="15">
-        <v>34030.885999999999</v>
-      </c>
-      <c r="F32" s="15">
-        <v>4283.8869999999997</v>
-      </c>
-      <c r="G32" s="16">
-        <v>263.21100000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:7" hidden="1">
       <c r="B33" s="9">
         <v>2022</v>
       </c>
       <c r="C33" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="11">
+        <v>451.02</v>
+      </c>
+      <c r="E33" s="11">
+        <v>34030.885999999999</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4283.8869999999997</v>
+      </c>
+      <c r="G33" s="12">
+        <v>263.21100000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C34" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="7">
         <v>439.971</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="7">
         <v>34325.794000000002</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="7">
         <v>4358.91</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="8">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="15">
-        <v>424.685</v>
-      </c>
-      <c r="E34" s="15">
-        <v>32483.731</v>
-      </c>
-      <c r="F34" s="15">
-        <v>4153.6689999999999</v>
-      </c>
-      <c r="G34" s="16">
-        <v>295.12599999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:7" hidden="1">
       <c r="B35" s="9">
         <v>2022</v>
       </c>
       <c r="C35" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="11">
+        <v>424.685</v>
+      </c>
+      <c r="E35" s="11">
+        <v>32483.731</v>
+      </c>
+      <c r="F35" s="11">
+        <v>4153.6689999999999</v>
+      </c>
+      <c r="G35" s="12">
+        <v>295.12599999999998</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C36" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="7">
         <v>525.33500000000004</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="7">
         <v>35685.642999999996</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="7">
         <v>4537.701</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="8">
         <v>341.35</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C36" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D36" s="15">
-        <v>523.85500000000002</v>
-      </c>
-      <c r="E36" s="15">
-        <v>35237.499000000003</v>
-      </c>
-      <c r="F36" s="15">
-        <v>4449.53</v>
-      </c>
-      <c r="G36" s="16">
-        <v>335.37900000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:7" hidden="1">
       <c r="B37" s="9">
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" s="11">
+        <v>523.85500000000002</v>
+      </c>
+      <c r="E37" s="11">
+        <v>35237.499000000003</v>
+      </c>
+      <c r="F37" s="11">
+        <v>4449.53</v>
+      </c>
+      <c r="G37" s="12">
+        <v>335.37900000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="7">
         <v>463.73399999999998</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="7">
         <v>32657.494999999999</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="7">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="8">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C38" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="15">
-        <v>483.18400000000003</v>
-      </c>
-      <c r="E38" s="15">
-        <v>34826.652000000002</v>
-      </c>
-      <c r="F38" s="15">
-        <v>4477.1049999999996</v>
-      </c>
-      <c r="G38" s="16">
-        <v>318.43700000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:7" hidden="1">
       <c r="B39" s="9">
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="11">
+        <v>483.18400000000003</v>
+      </c>
+      <c r="E39" s="11">
+        <v>34826.652000000002</v>
+      </c>
+      <c r="F39" s="11">
+        <v>4477.1049999999996</v>
+      </c>
+      <c r="G39" s="12">
+        <v>318.43700000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="7">
         <v>521.03399999999999</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="7">
         <v>35875.334999999999</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="7">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="8">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="13">
-        <v>2022</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="15">
-        <v>456.17099999999999</v>
-      </c>
-      <c r="E40" s="15">
-        <v>34229.036</v>
-      </c>
-      <c r="F40" s="15">
-        <v>4359.9489999999996</v>
-      </c>
-      <c r="G40" s="16">
-        <v>321.45600000000002</v>
-      </c>
-    </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:7" hidden="1">
       <c r="B41" s="9">
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D41" s="11">
+        <v>456.17099999999999</v>
+      </c>
+      <c r="E41" s="11">
+        <v>34229.036</v>
+      </c>
+      <c r="F41" s="11">
+        <v>4359.9489999999996</v>
+      </c>
+      <c r="G41" s="12">
+        <v>321.45600000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
+        <v>2022</v>
+      </c>
+      <c r="C42" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="7">
         <v>381.66</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="7">
         <v>29512.892</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="7">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="8">
         <v>275.096</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="17">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="13">
         <v>2022</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C43" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="19">
+      <c r="D43" s="15">
         <v>426.37700000000001</v>
       </c>
-      <c r="E42" s="19">
+      <c r="E43" s="15">
         <v>31522.11</v>
       </c>
-      <c r="F42" s="19">
+      <c r="F43" s="15">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G42" s="20">
+      <c r="G43" s="16">
         <v>308.267</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2021</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="7">
         <v>514.03599999999994</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="7">
         <v>37048.326999999997</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="7">
         <v>4893.741</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="8">
         <v>371.387</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C44" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="15">
-        <v>461.517</v>
-      </c>
-      <c r="E44" s="15">
-        <v>32424.513999999999</v>
-      </c>
-      <c r="F44" s="15">
-        <v>4190.9080000000004</v>
-      </c>
-      <c r="G44" s="16">
-        <v>303.13799999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:7" hidden="1">
       <c r="B45" s="9">
         <v>2021</v>
       </c>
       <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="11">
+        <v>461.517</v>
+      </c>
+      <c r="E45" s="11">
+        <v>32424.513999999999</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4190.9080000000004</v>
+      </c>
+      <c r="G45" s="12">
+        <v>303.13799999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="7">
         <v>455.21</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="7">
         <v>31973.407999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="7">
         <v>4045.069</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="8">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="15">
-        <v>417.20100000000002</v>
-      </c>
-      <c r="E46" s="15">
-        <v>28575.538</v>
-      </c>
-      <c r="F46" s="15">
-        <v>3843.163</v>
-      </c>
-      <c r="G46" s="16">
-        <v>275.54199999999997</v>
-      </c>
-    </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:7" hidden="1">
       <c r="B47" s="9">
         <v>2021</v>
       </c>
       <c r="C47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D47" s="11">
+        <v>417.20100000000002</v>
+      </c>
+      <c r="E47" s="11">
+        <v>28575.538</v>
+      </c>
+      <c r="F47" s="11">
+        <v>3843.163</v>
+      </c>
+      <c r="G47" s="12">
+        <v>275.54199999999997</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="7">
         <v>477.47300000000001</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="7">
         <v>30320.998</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="7">
         <v>3987.26</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="8">
         <v>298.02</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C48" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D48" s="15">
-        <v>534.01</v>
-      </c>
-      <c r="E48" s="15">
-        <v>32045.192999999999</v>
-      </c>
-      <c r="F48" s="15">
-        <v>3737.0219999999999</v>
-      </c>
-      <c r="G48" s="16">
-        <v>313.40699999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:7" hidden="1">
       <c r="B49" s="9">
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="11">
+        <v>534.01</v>
+      </c>
+      <c r="E49" s="11">
+        <v>32045.192999999999</v>
+      </c>
+      <c r="F49" s="11">
+        <v>3737.0219999999999</v>
+      </c>
+      <c r="G49" s="12">
+        <v>313.40699999999998</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="7">
         <v>472.178</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="7">
         <v>29495.615000000002</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="7">
         <v>3900.038</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="8">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C50" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="15">
-        <v>497.61500000000001</v>
-      </c>
-      <c r="E50" s="15">
-        <v>30860.518</v>
-      </c>
-      <c r="F50" s="15">
-        <v>4184.6679999999997</v>
-      </c>
-      <c r="G50" s="16">
-        <v>308.423</v>
-      </c>
-    </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:7" hidden="1">
       <c r="B51" s="9">
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D51" s="11">
+        <v>497.61500000000001</v>
+      </c>
+      <c r="E51" s="11">
+        <v>30860.518</v>
+      </c>
+      <c r="F51" s="11">
+        <v>4184.6679999999997</v>
+      </c>
+      <c r="G51" s="12">
+        <v>308.423</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="7">
         <v>363.12299999999999</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="7">
         <v>29683.991000000002</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="7">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="8">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="13">
-        <v>2021</v>
-      </c>
-      <c r="C52" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D52" s="15">
-        <v>353.36700000000002</v>
-      </c>
-      <c r="E52" s="15">
-        <v>29988.731</v>
-      </c>
-      <c r="F52" s="15">
-        <v>3623.5439999999999</v>
-      </c>
-      <c r="G52" s="16">
-        <v>299.48399999999998</v>
-      </c>
-    </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:7" hidden="1">
       <c r="B53" s="9">
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D53" s="11">
+        <v>353.36700000000002</v>
+      </c>
+      <c r="E53" s="11">
+        <v>29988.731</v>
+      </c>
+      <c r="F53" s="11">
+        <v>3623.5439999999999</v>
+      </c>
+      <c r="G53" s="12">
+        <v>299.48399999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
+        <v>2021</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="7">
         <v>271.08999999999997</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="7">
         <v>24616.317999999999</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="7">
         <v>2978.413</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="8">
         <v>246.815</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="17">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="13">
         <v>2021</v>
       </c>
-      <c r="C54" s="18" t="s">
+      <c r="C55" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="19">
+      <c r="D55" s="15">
         <v>474.084</v>
       </c>
-      <c r="E54" s="19">
+      <c r="E55" s="15">
         <v>26810.924999999999</v>
       </c>
-      <c r="F54" s="19">
+      <c r="F55" s="15">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G54" s="20">
+      <c r="G55" s="16">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2020</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="7">
         <v>453.53300000000002</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="7">
         <v>30609.962</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="7">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="8">
         <v>174.196</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C56" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" s="15">
-        <v>436.66899999999998</v>
-      </c>
-      <c r="E56" s="15">
-        <v>27289.054</v>
-      </c>
-      <c r="F56" s="15">
-        <v>3012.3870000000002</v>
-      </c>
-      <c r="G56" s="16">
-        <v>140.91200000000001</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:7" hidden="1">
       <c r="B57" s="9">
         <v>2020</v>
       </c>
       <c r="C57" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="11">
+        <v>436.66899999999998</v>
+      </c>
+      <c r="E57" s="11">
+        <v>27289.054</v>
+      </c>
+      <c r="F57" s="11">
+        <v>3012.3870000000002</v>
+      </c>
+      <c r="G57" s="12">
+        <v>140.91200000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C58" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="7">
         <v>442.13299999999998</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="7">
         <v>25870.184000000001</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="7">
         <v>3021.357</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="8">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C58" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D58" s="15">
-        <v>280.45699999999999</v>
-      </c>
-      <c r="E58" s="15">
-        <v>24713.252</v>
-      </c>
-      <c r="F58" s="15">
-        <v>2734.0430000000001</v>
-      </c>
-      <c r="G58" s="16">
-        <v>147.232</v>
-      </c>
-    </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:7" hidden="1">
       <c r="B59" s="9">
         <v>2020</v>
       </c>
       <c r="C59" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D59" s="11">
+        <v>280.45699999999999</v>
+      </c>
+      <c r="E59" s="11">
+        <v>24713.252</v>
+      </c>
+      <c r="F59" s="11">
+        <v>2734.0430000000001</v>
+      </c>
+      <c r="G59" s="12">
+        <v>147.232</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="7">
         <v>283.22199999999998</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="7">
         <v>25979.219000000001</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="7">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="8">
         <v>150.471</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C60" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D60" s="15">
-        <v>269.73899999999998</v>
-      </c>
-      <c r="E60" s="15">
-        <v>25407.806</v>
-      </c>
-      <c r="F60" s="15">
-        <v>2717.212</v>
-      </c>
-      <c r="G60" s="16">
-        <v>246.255</v>
-      </c>
-    </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:7" hidden="1">
       <c r="B61" s="9">
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="11">
+        <v>269.73899999999998</v>
+      </c>
+      <c r="E61" s="11">
+        <v>25407.806</v>
+      </c>
+      <c r="F61" s="11">
+        <v>2717.212</v>
+      </c>
+      <c r="G61" s="12">
+        <v>246.255</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="7">
         <v>223.602</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="7">
         <v>21647.363000000001</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="7">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="8">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C62" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D62" s="15">
-        <v>219.328</v>
-      </c>
-      <c r="E62" s="15">
-        <v>18766.822</v>
-      </c>
-      <c r="F62" s="15">
-        <v>2359.1</v>
-      </c>
-      <c r="G62" s="16">
-        <v>260.01499999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:7" hidden="1">
       <c r="B63" s="9">
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D63" s="11">
+        <v>219.328</v>
+      </c>
+      <c r="E63" s="11">
+        <v>18766.822</v>
+      </c>
+      <c r="F63" s="11">
+        <v>2359.1</v>
+      </c>
+      <c r="G63" s="12">
+        <v>260.01499999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C64" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="7">
         <v>200.2</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="7">
         <v>18182.099999999999</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="7">
         <v>2092.1</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="8">
         <v>216.5</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="13">
-        <v>2020</v>
-      </c>
-      <c r="C64" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D64" s="15">
-        <v>369.5</v>
-      </c>
-      <c r="E64" s="15">
-        <v>27845.9</v>
-      </c>
-      <c r="F64" s="15">
-        <v>3344</v>
-      </c>
-      <c r="G64" s="16">
-        <v>353.5</v>
-      </c>
-    </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" hidden="1">
       <c r="B65" s="9">
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D65" s="11">
+        <v>369.5</v>
+      </c>
+      <c r="E65" s="11">
+        <v>27845.9</v>
+      </c>
+      <c r="F65" s="11">
+        <v>3344</v>
+      </c>
+      <c r="G65" s="12">
+        <v>353.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
+        <v>2020</v>
+      </c>
+      <c r="C66" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="7">
         <v>373.7</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="7">
         <v>29173.4</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="7">
         <v>3658</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="8">
         <v>373.1</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="17">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="13">
         <v>2020</v>
       </c>
-      <c r="C66" s="18" t="s">
+      <c r="C67" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="19">
+      <c r="D67" s="15">
         <v>433.4</v>
       </c>
-      <c r="E66" s="19">
+      <c r="E67" s="15">
         <v>31957</v>
       </c>
-      <c r="F66" s="19">
+      <c r="F67" s="15">
         <v>4056.2</v>
       </c>
-      <c r="G66" s="20">
+      <c r="G67" s="16">
         <v>401.6</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2019</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="7">
         <v>455.09300000000002</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="7">
         <v>35082.798999999999</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="7">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="8">
         <v>418.029</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C68" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D68" s="15">
-        <v>420.3</v>
-      </c>
-      <c r="E68" s="15">
-        <v>31255.3</v>
-      </c>
-      <c r="F68" s="15">
-        <v>3947.5929999999998</v>
-      </c>
-      <c r="G68" s="16">
-        <v>371.54300000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:7" hidden="1">
       <c r="B69" s="9">
         <v>2019</v>
       </c>
       <c r="C69" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="11">
+        <v>420.3</v>
+      </c>
+      <c r="E69" s="11">
+        <v>31255.3</v>
+      </c>
+      <c r="F69" s="11">
+        <v>3947.5929999999998</v>
+      </c>
+      <c r="G69" s="12">
+        <v>371.54300000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C70" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="7">
         <v>422.5</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="7">
         <v>30483.200000000001</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="7">
         <v>4041.7</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="8">
         <v>372.6</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C70" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D70" s="15">
-        <v>417.5</v>
-      </c>
-      <c r="E70" s="15">
-        <v>29611.8</v>
-      </c>
-      <c r="F70" s="15">
-        <v>3780.9</v>
-      </c>
-      <c r="G70" s="16">
-        <v>350.9</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" hidden="1">
       <c r="B71" s="9">
         <v>2019</v>
       </c>
       <c r="C71" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71" s="11">
+        <v>417.5</v>
+      </c>
+      <c r="E71" s="11">
+        <v>29611.8</v>
+      </c>
+      <c r="F71" s="11">
+        <v>3780.9</v>
+      </c>
+      <c r="G71" s="12">
+        <v>350.9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="7">
         <v>501.78800000000001</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="7">
         <v>32359.448</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="7">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="8">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D72" s="15">
-        <v>550.20000000000005</v>
-      </c>
-      <c r="E72" s="15">
-        <v>31445</v>
-      </c>
-      <c r="F72" s="15">
-        <v>4176.5</v>
-      </c>
-      <c r="G72" s="16">
-        <v>387.9</v>
-      </c>
-    </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" hidden="1">
       <c r="B73" s="9">
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" s="11">
+        <v>550.20000000000005</v>
+      </c>
+      <c r="E73" s="11">
+        <v>31445</v>
+      </c>
+      <c r="F73" s="11">
+        <v>4176.5</v>
+      </c>
+      <c r="G73" s="12">
+        <v>387.9</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C74" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="7">
         <v>448.2</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="7">
         <v>27655.7</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="7">
         <v>3945.6</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="8">
         <v>399.8</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C74" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D74" s="15">
-        <v>465.8</v>
-      </c>
-      <c r="E74" s="15">
-        <v>29408.7</v>
-      </c>
-      <c r="F74" s="15">
-        <v>4092.5</v>
-      </c>
-      <c r="G74" s="16">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7" hidden="1">
       <c r="B75" s="9">
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="11">
+        <v>465.8</v>
+      </c>
+      <c r="E75" s="11">
+        <v>29408.7</v>
+      </c>
+      <c r="F75" s="11">
+        <v>4092.5</v>
+      </c>
+      <c r="G75" s="12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="7">
         <v>522.9</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="7">
         <v>30692.5</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="7">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="8">
         <v>395.1</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="13">
-        <v>2019</v>
-      </c>
-      <c r="C76" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D76" s="15">
-        <v>434.2</v>
-      </c>
-      <c r="E76" s="15">
-        <v>30420.3</v>
-      </c>
-      <c r="F76" s="15">
-        <v>4089</v>
-      </c>
-      <c r="G76" s="16">
-        <v>444.1</v>
-      </c>
-    </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" hidden="1">
       <c r="B77" s="9">
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" s="11">
+        <v>434.2</v>
+      </c>
+      <c r="E77" s="11">
+        <v>30420.3</v>
+      </c>
+      <c r="F77" s="11">
+        <v>4089</v>
+      </c>
+      <c r="G77" s="12">
+        <v>444.1</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
+        <v>2019</v>
+      </c>
+      <c r="C78" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="7">
         <v>366.4</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="7">
         <v>26751.4</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="7">
         <v>3694.2</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="8">
         <v>414.7</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="17">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="13">
         <v>2019</v>
       </c>
-      <c r="C78" s="18" t="s">
+      <c r="C79" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="19">
+      <c r="D79" s="15">
         <v>426</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E79" s="15">
         <v>29892.9</v>
       </c>
-      <c r="F78" s="19">
+      <c r="F79" s="15">
         <v>4137.5</v>
       </c>
-      <c r="G78" s="20">
+      <c r="G79" s="16">
         <v>462.1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2018</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="7">
         <v>509.3</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="7">
         <v>34085.699999999997</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="7">
         <v>4452.2</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="8">
         <v>482.7</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="15">
-        <v>435.2</v>
-      </c>
-      <c r="E80" s="15">
-        <v>30873.7</v>
-      </c>
-      <c r="F80" s="15">
-        <v>3933.1</v>
-      </c>
-      <c r="G80" s="16">
-        <v>445.1</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:8" hidden="1">
       <c r="B81" s="9">
         <v>2018</v>
       </c>
       <c r="C81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="11">
+        <v>435.2</v>
+      </c>
+      <c r="E81" s="11">
+        <v>30873.7</v>
+      </c>
+      <c r="F81" s="11">
+        <v>3933.1</v>
+      </c>
+      <c r="G81" s="12">
+        <v>445.1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C82" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="7">
         <v>415.6</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="7">
         <v>30548.6</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="7">
         <v>3950.4</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="8">
         <v>443.4</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C82" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="15">
-        <v>395.9</v>
-      </c>
-      <c r="E82" s="15">
-        <v>29707.4</v>
-      </c>
-      <c r="F82" s="15">
-        <v>3773.4</v>
-      </c>
-      <c r="G82" s="16">
-        <v>417.7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:8" hidden="1">
       <c r="B83" s="9">
         <v>2018</v>
       </c>
       <c r="C83" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D83" s="11">
+        <v>395.9</v>
+      </c>
+      <c r="E83" s="11">
+        <v>29707.4</v>
+      </c>
+      <c r="F83" s="11">
+        <v>3773.4</v>
+      </c>
+      <c r="G83" s="12">
+        <v>417.7</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C84" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="7">
         <v>491.1</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="7">
         <v>32843.800000000003</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="7">
         <v>4208</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="8">
         <v>467.8</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" s="15">
-        <v>547.9</v>
-      </c>
-      <c r="E84" s="15">
-        <v>34437.199999999997</v>
-      </c>
-      <c r="F84" s="15">
-        <v>4331</v>
-      </c>
-      <c r="G84" s="16">
-        <v>474.3</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:8" hidden="1">
       <c r="B85" s="9">
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="11">
+        <v>547.9</v>
+      </c>
+      <c r="E85" s="11">
+        <v>34437.199999999997</v>
+      </c>
+      <c r="F85" s="11">
+        <v>4331</v>
+      </c>
+      <c r="G85" s="12">
+        <v>474.3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C86" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="7">
         <v>432.7</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="7">
         <v>30803.9</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="7">
         <v>4039.2</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="8">
         <v>416.5</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D86" s="15">
-        <v>436.5</v>
-      </c>
-      <c r="E86" s="15">
-        <v>32434.6</v>
-      </c>
-      <c r="F86" s="15">
-        <v>4224</v>
-      </c>
-      <c r="G86" s="16">
-        <v>445.4</v>
-      </c>
-      <c r="H86" s="1"/>
-    </row>
-    <row r="87" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:8" hidden="1">
       <c r="B87" s="9">
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D87" s="11">
+        <v>436.5</v>
+      </c>
+      <c r="E87" s="11">
+        <v>32434.6</v>
+      </c>
+      <c r="F87" s="11">
+        <v>4224</v>
+      </c>
+      <c r="G87" s="12">
+        <v>445.4</v>
+      </c>
+      <c r="H87" s="1"/>
+    </row>
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="7">
         <v>477.7</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="7">
         <v>32564.6</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="7">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="8">
         <v>438.9</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="13">
-        <v>2018</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="15">
-        <v>466.7</v>
-      </c>
-      <c r="E88" s="15">
-        <v>34233.9</v>
-      </c>
-      <c r="F88" s="15">
-        <v>4359.2</v>
-      </c>
-      <c r="G88" s="16">
-        <v>444.7</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:8" hidden="1">
       <c r="B89" s="9">
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D89" s="11">
+        <v>466.7</v>
+      </c>
+      <c r="E89" s="11">
+        <v>34233.9</v>
+      </c>
+      <c r="F89" s="11">
+        <v>4359.2</v>
+      </c>
+      <c r="G89" s="12">
+        <v>444.7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="7">
         <v>366.2</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="7">
         <v>28790.1</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="7">
         <v>3745.4</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="8">
         <v>386.7</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B90" s="13">
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="14" t="s">
+      <c r="C91" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D90" s="15">
+      <c r="D91" s="11">
         <v>425.1</v>
       </c>
-      <c r="E90" s="15">
+      <c r="E91" s="11">
         <v>37208</v>
       </c>
-      <c r="F90" s="15">
+      <c r="F91" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G90" s="16">
+      <c r="G91" s="12">
         <v>418.2</v>
       </c>
     </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B91" s="2" t="s">
+    <row r="92" spans="2:8">
+      <c r="B92" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B92" s="2" t="s">
+    <row r="93" spans="2:8">
+      <c r="B93" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E92" s="1"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="1"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B93" s="2" t="s">
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="1"/>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G93" s="21"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="G94" s="21"/>
+      <c r="G94" s="17"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="G95" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{090F16E8-EF26-4029-A668-5B29CEADBB01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A70DF-31EE-4A12-8871-3028E617DCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_13" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Febrero 2025.</t>
+    <t>Actualización: Marzo 2025.</t>
   </si>
 </sst>
 </file>
@@ -358,12 +358,6 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -375,6 +369,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G91" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G91" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G92" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -801,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H95"/>
+  <dimension ref="B2:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -833,1777 +833,1797 @@
     <row r="4" spans="2:7">
       <c r="B4" s="3"/>
       <c r="C4" s="4"/>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="24"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="22" t="s">
+      <c r="D5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="23" t="s">
+      <c r="F5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="22" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="11">
+        <v>352.50599999999997</v>
+      </c>
+      <c r="E6" s="11">
+        <v>33213.421999999999</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4265.4579999999996</v>
+      </c>
+      <c r="G6" s="12">
+        <v>128.46100000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>297.39600000000002</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>28913.167000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>3785.3809999999999</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>112.53700000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="13">
+    <row r="8" spans="2:7">
+      <c r="B8" s="13">
         <v>2025</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <v>32096.201000000001</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G8" s="16">
         <v>128.77099999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="5">
+    <row r="9" spans="2:7">
+      <c r="B9" s="5">
         <v>2024</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>402.19099999999997</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>34249.404000000002</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G9" s="8">
         <v>134.702</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="9">
+    <row r="10" spans="2:7">
+      <c r="B10" s="9">
         <v>2024</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>364.15199999999999</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>31391.064999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>4263.375</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>109.999</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="5">
+    <row r="11" spans="2:7">
+      <c r="B11" s="5">
         <v>2024</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>355.78699999999998</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>30993.098000000002</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G11" s="8">
         <v>120.792</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="9">
+    <row r="12" spans="2:7">
+      <c r="B12" s="9">
         <v>2024</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C12" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D12" s="11">
         <v>351.78899999999999</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E12" s="11">
         <v>30506.695</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F12" s="11">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5">
+    <row r="13" spans="2:7">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>389.89299999999997</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>32522.752</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>4592.29</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="9">
+    <row r="14" spans="2:7">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>391.33499999999998</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>33157.347000000002</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="5">
+    <row r="15" spans="2:7">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>359.08600000000001</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>30980.621999999999</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>4255.26</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="9">
+    <row r="16" spans="2:7">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>361.20299999999997</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>32325.853999999999</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>4561.924</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="5">
+    <row r="17" spans="2:7">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>376.52499999999998</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>31932.16</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>467.80599999999998</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>33742.417000000001</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="5">
+    <row r="19" spans="2:7">
+      <c r="B19" s="5">
         <v>2024</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>409.07499999999999</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>29964.609</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>4217.625</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>139.161</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="13">
+    <row r="20" spans="2:7">
+      <c r="B20" s="13">
         <v>2024</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="15">
+      <c r="D20" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E20" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F20" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G20" s="16">
         <v>153.113</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1">
-      <c r="B20" s="5">
+    <row r="21" spans="2:7" hidden="1">
+      <c r="B21" s="5">
         <v>2023</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>488.09300000000002</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>35319.991999999998</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>164.172</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="9">
         <v>2023</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>394.346</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>32003.993999999999</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="5">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="5">
         <v>2023</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>368.065</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>32478.357</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="9">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="9">
         <v>2023</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="C24" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D23" s="11">
+      <c r="D24" s="11">
         <v>370.30599999999998</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>30477.884999999998</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G23" s="12">
+      <c r="G24" s="12">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>456.01799999999997</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>33366.624000000003</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>531.83299999999997</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>33987.230000000003</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>172.745</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>475.21</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>31519.437999999998</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>145.583</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>497.62700000000001</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>32910.921000000002</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>539.61699999999996</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>35421.288999999997</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>464.71800000000002</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>35141.546999999999</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="12">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="5">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="5">
         <v>2023</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>401.17399999999998</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>31209.23</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="13">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="13">
         <v>2023</v>
       </c>
-      <c r="C31" s="14" t="s">
+      <c r="C32" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D31" s="15">
+      <c r="D32" s="15">
         <v>441.50799999999998</v>
       </c>
-      <c r="E31" s="15">
+      <c r="E32" s="15">
         <v>34870</v>
       </c>
-      <c r="F31" s="15">
+      <c r="F32" s="15">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G31" s="16">
+      <c r="G32" s="16">
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2022</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>512.87099999999998</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>38351.464999999997</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>320.745</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="9">
         <v>2022</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>451.02</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>34030.885999999999</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>4283.8869999999997</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="5">
         <v>2022</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>439.971</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>34325.794000000002</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>4358.91</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="9">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="9">
         <v>2022</v>
       </c>
-      <c r="C35" s="10" t="s">
+      <c r="C36" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D36" s="11">
         <v>424.685</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>32483.731</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>4153.6689999999999</v>
       </c>
-      <c r="G35" s="12">
+      <c r="G36" s="12">
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>525.33500000000004</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>35685.642999999996</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>4537.701</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <v>341.35</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>523.85500000000002</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>35237.499000000003</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>4449.53</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>463.73399999999998</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>32657.494999999999</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>483.18400000000003</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>34826.652000000002</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>4477.1049999999996</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>521.03399999999999</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>35875.334999999999</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>456.17099999999999</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>34229.036</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>4359.9489999999996</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="5">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="5">
         <v>2022</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>381.66</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>29512.892</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>275.096</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="13">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="13">
         <v>2022</v>
       </c>
-      <c r="C43" s="14" t="s">
+      <c r="C44" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D43" s="15">
+      <c r="D44" s="15">
         <v>426.37700000000001</v>
       </c>
-      <c r="E43" s="15">
+      <c r="E44" s="15">
         <v>31522.11</v>
       </c>
-      <c r="F43" s="15">
+      <c r="F44" s="15">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G43" s="16">
+      <c r="G44" s="16">
         <v>308.267</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2021</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>514.03599999999994</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>37048.326999999997</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>4893.741</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <v>371.387</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="9">
         <v>2021</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>461.517</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>32424.513999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="5">
         <v>2021</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>455.21</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>31973.407999999999</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>4045.069</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="9">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="9">
         <v>2021</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="C48" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="11">
+      <c r="D48" s="11">
         <v>417.20100000000002</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>28575.538</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>3843.163</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G48" s="12">
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>477.47300000000001</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>30320.998</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>3987.26</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G49" s="8">
         <v>298.02</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>534.01</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>32045.192999999999</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>3737.0219999999999</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>472.178</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <v>29495.615000000002</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>3900.038</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>497.61500000000001</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>30860.518</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>4184.6679999999997</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>308.423</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>363.12299999999999</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>29683.991000000002</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>353.36700000000002</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>29988.731</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>3623.5439999999999</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="12">
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="5">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="5">
         <v>2021</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <v>271.08999999999997</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>24616.317999999999</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>2978.413</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>246.815</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="13">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="13">
         <v>2021</v>
       </c>
-      <c r="C55" s="14" t="s">
+      <c r="C56" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D55" s="15">
+      <c r="D56" s="15">
         <v>474.084</v>
       </c>
-      <c r="E55" s="15">
+      <c r="E56" s="15">
         <v>26810.924999999999</v>
       </c>
-      <c r="F55" s="15">
+      <c r="F56" s="15">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G55" s="16">
+      <c r="G56" s="16">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2020</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="7">
         <v>453.53300000000002</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>30609.962</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <v>174.196</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="9">
         <v>2020</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>436.66899999999998</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>27289.054</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="5">
         <v>2020</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>442.13299999999998</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>25870.184000000001</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>3021.357</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="9">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="9">
         <v>2020</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C60" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D59" s="11">
+      <c r="D60" s="11">
         <v>280.45699999999999</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>24713.252</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G59" s="12">
+      <c r="G60" s="12">
         <v>147.232</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="7">
         <v>283.22199999999998</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>25979.219000000001</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="8">
         <v>150.471</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>269.73899999999998</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>25407.806</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>2717.212</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>246.255</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="7">
         <v>223.602</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>21647.363000000001</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>219.328</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>18766.822</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>2359.1</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="7">
         <v>200.2</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>18182.099999999999</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>2092.1</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>216.5</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>369.5</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>27845.9</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>3344</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="12">
         <v>353.5</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="5">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="5">
         <v>2020</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="7">
         <v>373.7</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>29173.4</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>3658</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>373.1</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="13">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="13">
         <v>2020</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C68" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D67" s="15">
+      <c r="D68" s="15">
         <v>433.4</v>
       </c>
-      <c r="E67" s="15">
+      <c r="E68" s="15">
         <v>31957</v>
       </c>
-      <c r="F67" s="15">
+      <c r="F68" s="15">
         <v>4056.2</v>
       </c>
-      <c r="G67" s="16">
+      <c r="G68" s="16">
         <v>401.6</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2019</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>455.09300000000002</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>35082.798999999999</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="8">
         <v>418.029</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="9">
         <v>2019</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>420.3</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>31255.3</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="5">
         <v>2019</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="7">
         <v>422.5</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>30483.200000000001</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>4041.7</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>372.6</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="9">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="9">
         <v>2019</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="C72" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D71" s="11">
+      <c r="D72" s="11">
         <v>417.5</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>29611.8</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>3780.9</v>
       </c>
-      <c r="G71" s="12">
+      <c r="G72" s="12">
         <v>350.9</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="7">
         <v>501.78800000000001</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>32359.448</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>550.20000000000005</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>31445</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>4176.5</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>387.9</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="7">
         <v>448.2</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>27655.7</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>3945.6</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>399.8</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>465.8</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>29408.7</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>4092.5</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="7">
         <v>522.9</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>30692.5</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>395.1</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>434.2</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>30420.3</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>4089</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="12">
         <v>444.1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="5">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="5">
         <v>2019</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D79" s="7">
         <v>366.4</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>26751.4</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>3694.2</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>414.7</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="13">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="13">
         <v>2019</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C80" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D79" s="15">
+      <c r="D80" s="15">
         <v>426</v>
       </c>
-      <c r="E79" s="15">
+      <c r="E80" s="15">
         <v>29892.9</v>
       </c>
-      <c r="F79" s="15">
+      <c r="F80" s="15">
         <v>4137.5</v>
       </c>
-      <c r="G79" s="16">
+      <c r="G80" s="16">
         <v>462.1</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="5">
         <v>2018</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D81" s="7">
         <v>509.3</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>34085.699999999997</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>4452.2</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>482.7</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="9">
         <v>2018</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>435.2</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>30873.7</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>3933.1</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>445.1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="5">
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="5">
         <v>2018</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="7">
         <v>415.6</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>30548.6</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>3950.4</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>443.4</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="9">
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="9">
         <v>2018</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C84" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D83" s="11">
+      <c r="D84" s="11">
         <v>395.9</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>29707.4</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>3773.4</v>
       </c>
-      <c r="G83" s="12">
+      <c r="G84" s="12">
         <v>417.7</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="7">
         <v>491.1</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>32843.800000000003</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>4208</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>467.8</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>547.9</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>34437.199999999997</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>4331</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>474.3</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="7">
         <v>432.7</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>30803.9</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>4039.2</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>416.5</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>436.5</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>32434.6</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>4224</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>445.4</v>
       </c>
-      <c r="H87" s="1"/>
-    </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="5">
+      <c r="H88" s="1"/>
+    </row>
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D89" s="7">
         <v>477.7</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <v>32564.6</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F89" s="7">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>438.9</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>466.7</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>34233.9</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>4359.2</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>444.7</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="5">
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D91" s="7">
         <v>366.2</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <v>28790.1</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F91" s="7">
         <v>3745.4</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>386.7</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>425.1</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>37208</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="12">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
-      <c r="B92" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="93" spans="2:8">
       <c r="B93" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E93" s="1"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="1"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G94" s="17"/>
-    </row>
-    <row r="95" spans="2:8">
       <c r="G95" s="17"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="G96" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A70DF-31EE-4A12-8871-3028E617DCDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E76FA-8A6E-44B9-A916-760F970C8B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_13" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Marzo 2025.</t>
+    <t>Actualización: Abril 2025.</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G92" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G92" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G93" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -801,7 +801,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H96"/>
+  <dimension ref="B2:H97"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -863,1767 +863,1787 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>362.6</v>
+      </c>
+      <c r="E6" s="7">
+        <v>34666.671000000002</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4579.3620000000001</v>
+      </c>
+      <c r="G6" s="7">
+        <v>137.76900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>352.50599999999997</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>33213.421999999999</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>4265.4579999999996</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>128.46100000000001</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="6">
+    <row r="8" spans="2:7">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>297.39600000000002</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>28913.167000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>3785.3809999999999</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>112.53700000000001</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="13">
+    <row r="9" spans="2:7">
+      <c r="B9" s="13">
         <v>2025</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D9" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E9" s="15">
         <v>32096.201000000001</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F9" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G9" s="16">
         <v>128.77099999999999</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="5">
+    <row r="10" spans="2:7">
+      <c r="B10" s="5">
         <v>2024</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>402.19099999999997</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>34249.404000000002</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G10" s="8">
         <v>134.702</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="9">
+    <row r="11" spans="2:7">
+      <c r="B11" s="9">
         <v>2024</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>364.15199999999999</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>31391.064999999999</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>4263.375</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>109.999</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="5">
+    <row r="12" spans="2:7">
+      <c r="B12" s="5">
         <v>2024</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>355.78699999999998</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>30993.098000000002</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G12" s="8">
         <v>120.792</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="9">
+    <row r="13" spans="2:7">
+      <c r="B13" s="9">
         <v>2024</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D13" s="11">
         <v>351.78899999999999</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E13" s="11">
         <v>30506.695</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F13" s="11">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G13" s="12">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="5">
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>389.89299999999997</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>32522.752</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>4592.29</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="9">
+    <row r="15" spans="2:7">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>391.33499999999998</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>33157.347000000002</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5">
+    <row r="16" spans="2:7">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>359.08600000000001</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>30980.621999999999</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>4255.26</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>361.20299999999997</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>32325.853999999999</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>4561.924</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5">
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>376.52499999999998</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>31932.16</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>4480.4570000000003</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>467.80599999999998</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>33742.417000000001</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="5">
+    <row r="20" spans="2:7">
+      <c r="B20" s="5">
         <v>2024</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>409.07499999999999</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>29964.609</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>4217.625</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>139.161</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="13">
+    <row r="21" spans="2:7">
+      <c r="B21" s="13">
         <v>2024</v>
       </c>
-      <c r="C20" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G21" s="16">
         <v>153.113</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1">
-      <c r="B21" s="5">
+    <row r="22" spans="2:7" hidden="1">
+      <c r="B22" s="5">
         <v>2023</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>488.09300000000002</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>35319.991999999998</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>164.172</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7" hidden="1">
+      <c r="B23" s="9">
         <v>2023</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>394.346</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>32003.993999999999</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="5">
+    <row r="24" spans="2:7" hidden="1">
+      <c r="B24" s="5">
         <v>2023</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>368.065</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>32478.357</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="9">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="9">
         <v>2023</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C25" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11">
+      <c r="D25" s="11">
         <v>370.30599999999998</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E25" s="11">
         <v>30477.884999999998</v>
       </c>
-      <c r="F24" s="11">
+      <c r="F25" s="11">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>456.01799999999997</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>33366.624000000003</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>531.83299999999997</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>33987.230000000003</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>172.745</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>475.21</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>31519.437999999998</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>145.583</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>497.62700000000001</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>32910.921000000002</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>539.61699999999996</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>35421.288999999997</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>464.71800000000002</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>35141.546999999999</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="5">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2023</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>401.17399999999998</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>31209.23</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="13">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="13">
         <v>2023</v>
       </c>
-      <c r="C32" s="14" t="s">
+      <c r="C33" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="15">
+      <c r="D33" s="15">
         <v>441.50799999999998</v>
       </c>
-      <c r="E32" s="15">
+      <c r="E33" s="15">
         <v>34870</v>
       </c>
-      <c r="F32" s="15">
+      <c r="F33" s="15">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G32" s="16">
+      <c r="G33" s="16">
         <v>152</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2022</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>512.87099999999998</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>38351.464999999997</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>4917.5870000000004</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>320.745</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2022</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>451.02</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>34030.885999999999</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>4283.8869999999997</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>263.21100000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="5">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
         <v>2022</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>439.971</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>34325.794000000002</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>4358.91</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>281.30500000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="9">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="9">
         <v>2022</v>
       </c>
-      <c r="C36" s="10" t="s">
+      <c r="C37" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D37" s="11">
         <v>424.685</v>
       </c>
-      <c r="E36" s="11">
+      <c r="E37" s="11">
         <v>32483.731</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F37" s="11">
         <v>4153.6689999999999</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>295.12599999999998</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>525.33500000000004</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>35685.642999999996</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>4537.701</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>341.35</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>523.85500000000002</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>35237.499000000003</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>4449.53</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>335.37900000000002</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>463.73399999999998</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>32657.494999999999</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>4181.1189999999997</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>299.31400000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>483.18400000000003</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>34826.652000000002</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>4477.1049999999996</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>318.43700000000001</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D42" s="7">
         <v>521.03399999999999</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>35875.334999999999</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>4510.0479999999998</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>354.25400000000002</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>456.17099999999999</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>34229.036</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>4359.9489999999996</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>321.45600000000002</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="5">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>381.66</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>29512.892</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>3839.4189999999999</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>275.096</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="13">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="13">
         <v>2022</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C45" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="15">
+      <c r="D45" s="15">
         <v>426.37700000000001</v>
       </c>
-      <c r="E44" s="15">
+      <c r="E45" s="15">
         <v>31522.11</v>
       </c>
-      <c r="F44" s="15">
+      <c r="F45" s="15">
         <v>4230.6859999999997</v>
       </c>
-      <c r="G44" s="16">
+      <c r="G45" s="16">
         <v>308.267</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2021</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="7">
         <v>514.03599999999994</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>37048.326999999997</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>4893.741</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>371.387</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="9">
         <v>2021</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>461.517</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>32424.513999999999</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>303.13799999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="5">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
         <v>2021</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="7">
         <v>455.21</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>31973.407999999999</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>4045.069</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>302.11399999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="9">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="9">
         <v>2021</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C49" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D48" s="11">
+      <c r="D49" s="11">
         <v>417.20100000000002</v>
       </c>
-      <c r="E48" s="11">
+      <c r="E49" s="11">
         <v>28575.538</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F49" s="11">
         <v>3843.163</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>275.54199999999997</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>477.47300000000001</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>30320.998</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>3987.26</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>298.02</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>534.01</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>32045.192999999999</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>3737.0219999999999</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>313.40699999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="7">
         <v>472.178</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="7">
         <v>29495.615000000002</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="7">
         <v>3900.038</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>286.40600000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>497.61500000000001</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>30860.518</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>4184.6679999999997</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>308.423</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="7">
         <v>363.12299999999999</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>29683.991000000002</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>3660.5219999999999</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>302.50200000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>353.36700000000002</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>29988.731</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>3623.5439999999999</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>299.48399999999998</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="5">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>271.08999999999997</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>24616.317999999999</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>2978.413</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>246.815</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="13">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="13">
         <v>2021</v>
       </c>
-      <c r="C56" s="14" t="s">
+      <c r="C57" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D56" s="15">
+      <c r="D57" s="15">
         <v>474.084</v>
       </c>
-      <c r="E56" s="15">
+      <c r="E57" s="15">
         <v>26810.924999999999</v>
       </c>
-      <c r="F56" s="15">
+      <c r="F57" s="15">
         <v>3970.2449999999999</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G57" s="16">
         <v>279.76900000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2020</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="7">
         <v>453.53300000000002</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>30609.962</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>174.196</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2020</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>436.66899999999998</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>27289.054</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="5">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
         <v>2020</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="7">
         <v>442.13299999999998</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>25870.184000000001</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>3021.357</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="9">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="9">
         <v>2020</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C61" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D60" s="11">
+      <c r="D61" s="11">
         <v>280.45699999999999</v>
       </c>
-      <c r="E60" s="11">
+      <c r="E61" s="11">
         <v>24713.252</v>
       </c>
-      <c r="F60" s="11">
+      <c r="F61" s="11">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>147.232</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>283.22199999999998</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>25979.219000000001</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>150.471</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>269.73899999999998</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>25407.806</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>2717.212</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>246.255</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="7">
         <v>223.602</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="7">
         <v>21647.363000000001</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>219.328</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>18766.822</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>2359.1</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="7">
         <v>200.2</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>18182.099999999999</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>2092.1</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>216.5</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>369.5</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>27845.9</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>3344</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>353.5</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="5">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="7">
         <v>373.7</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>29173.4</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>3658</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>373.1</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="13">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="13">
         <v>2020</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C69" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D68" s="15">
+      <c r="D69" s="15">
         <v>433.4</v>
       </c>
-      <c r="E68" s="15">
+      <c r="E69" s="15">
         <v>31957</v>
       </c>
-      <c r="F68" s="15">
+      <c r="F69" s="15">
         <v>4056.2</v>
       </c>
-      <c r="G68" s="16">
+      <c r="G69" s="16">
         <v>401.6</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2019</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="7">
         <v>455.09300000000002</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>35082.798999999999</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>418.029</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2019</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>420.3</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>31255.3</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="5">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
         <v>2019</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="7">
         <v>422.5</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>30483.200000000001</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>4041.7</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>372.6</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="9">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="9">
         <v>2019</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="C73" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D72" s="11">
+      <c r="D73" s="11">
         <v>417.5</v>
       </c>
-      <c r="E72" s="11">
+      <c r="E73" s="11">
         <v>29611.8</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F73" s="11">
         <v>3780.9</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>350.9</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>501.78800000000001</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>32359.448</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>550.20000000000005</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>31445</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>4176.5</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>387.9</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D76" s="7">
         <v>448.2</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>27655.7</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>3945.6</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>399.8</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>465.8</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>29408.7</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>4092.5</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="7">
         <v>522.9</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>30692.5</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>395.1</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>434.2</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>30420.3</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>4089</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>444.1</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="5">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="7">
         <v>366.4</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>26751.4</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>3694.2</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>414.7</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="13">
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="13">
         <v>2019</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C81" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D80" s="15">
+      <c r="D81" s="15">
         <v>426</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E81" s="15">
         <v>29892.9</v>
       </c>
-      <c r="F80" s="15">
+      <c r="F81" s="15">
         <v>4137.5</v>
       </c>
-      <c r="G80" s="16">
+      <c r="G81" s="16">
         <v>462.1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="5">
         <v>2018</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>509.3</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>34085.699999999997</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>4452.2</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>482.7</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="9">
         <v>2018</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>435.2</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>30873.7</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>3933.1</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>445.1</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="5">
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="5">
         <v>2018</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>415.6</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>30548.6</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>3950.4</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>443.4</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="9">
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="9">
         <v>2018</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C85" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D84" s="11">
+      <c r="D85" s="11">
         <v>395.9</v>
       </c>
-      <c r="E84" s="11">
+      <c r="E85" s="11">
         <v>29707.4</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F85" s="11">
         <v>3773.4</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>417.7</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="7">
         <v>491.1</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>32843.800000000003</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>4208</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>467.8</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>547.9</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>34437.199999999997</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>4331</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>474.3</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D88" s="7">
         <v>432.7</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="7">
         <v>30803.9</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="7">
         <v>4039.2</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>416.5</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>436.5</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>32434.6</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>4224</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>445.4</v>
       </c>
-      <c r="H88" s="1"/>
-    </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="5">
+      <c r="H89" s="1"/>
+    </row>
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D90" s="7">
         <v>477.7</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="7">
         <v>32564.6</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F90" s="7">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <v>438.9</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>466.7</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>34233.9</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>4359.2</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>444.7</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="5">
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D92" s="7">
         <v>366.2</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="7">
         <v>28790.1</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F92" s="7">
         <v>3745.4</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <v>386.7</v>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="9">
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="9">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>425.1</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>37208</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
-      <c r="B93" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="94" spans="2:8">
       <c r="B94" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E94" s="1"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="95" spans="2:8">
       <c r="B95" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="G95" s="1"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G95" s="17"/>
-    </row>
-    <row r="96" spans="2:8">
       <c r="G96" s="17"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED1E76FA-8A6E-44B9-A916-760F970C8B7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F7388-B1CD-4C2B-9539-BE393F59F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_13" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>(Miles)</t>
-  </si>
-  <si>
-    <t>Vehículos registrados en las casetas de CAPUFE 2023</t>
   </si>
   <si>
     <t>Mes</t>
@@ -113,7 +110,10 @@
     <t xml:space="preserve">FNI </t>
   </si>
   <si>
-    <t>Actualización: Abril 2025.</t>
+    <t>Vehículos registrados en las casetas de CAPUFE 2025</t>
+  </si>
+  <si>
+    <t>Actualización: Junio 2025.</t>
   </si>
 </sst>
 </file>
@@ -312,7 +312,9 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -358,13 +360,13 @@
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,7 +477,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border outline="0">
+      <border>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -558,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G93" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G93" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G95" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -801,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H97"/>
+  <dimension ref="B2:H99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -821,7 +823,7 @@
   <sheetData>
     <row r="2" spans="2:7" ht="18">
       <c r="B2" s="18" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -844,10 +846,10 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D5" s="20" t="s">
         <v>2</v>
@@ -856,10 +858,10 @@
         <v>1</v>
       </c>
       <c r="F5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="G5" s="22" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -867,19 +869,19 @@
         <v>2025</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D6" s="7">
-        <v>362.6</v>
+        <v>322.83699999999999</v>
       </c>
       <c r="E6" s="7">
-        <v>34666.671000000002</v>
+        <v>31758.236000000001</v>
       </c>
       <c r="F6" s="7">
-        <v>4579.3620000000001</v>
+        <v>3995.1260000000002</v>
       </c>
       <c r="G6" s="7">
-        <v>137.76900000000001</v>
+        <v>123.852</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -887,19 +889,19 @@
         <v>2025</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D7" s="11">
-        <v>352.50599999999997</v>
+        <v>333.65</v>
       </c>
       <c r="E7" s="11">
-        <v>33213.421999999999</v>
+        <v>34166.218999999997</v>
       </c>
       <c r="F7" s="11">
-        <v>4265.4579999999996</v>
+        <v>4315</v>
       </c>
       <c r="G7" s="12">
-        <v>128.46100000000001</v>
+        <v>127.7</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -907,79 +909,79 @@
         <v>2025</v>
       </c>
       <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="7">
+        <v>348.79300000000001</v>
+      </c>
+      <c r="E8" s="7">
+        <v>34666.671000000002</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4434.4610000000002</v>
+      </c>
+      <c r="G8" s="7">
+        <v>137.76900000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="11">
+        <v>352.50599999999997</v>
+      </c>
+      <c r="E9" s="11">
+        <v>33213.421999999999</v>
+      </c>
+      <c r="F9" s="11">
+        <v>4265.4579999999996</v>
+      </c>
+      <c r="G9" s="12">
+        <v>128.46100000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="7">
+        <v>297.39600000000002</v>
+      </c>
+      <c r="E10" s="7">
+        <v>28913.167000000001</v>
+      </c>
+      <c r="F10" s="7">
+        <v>3785.3809999999999</v>
+      </c>
+      <c r="G10" s="7">
+        <v>112.53700000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="13">
+        <v>2025</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="7">
-        <v>297.39600000000002</v>
-      </c>
-      <c r="E8" s="7">
-        <v>28913.167000000001</v>
-      </c>
-      <c r="F8" s="7">
-        <v>3785.3809999999999</v>
-      </c>
-      <c r="G8" s="7">
-        <v>112.53700000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="13">
-        <v>2025</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="D11" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E11" s="15">
         <v>32096.201000000001</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F11" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G11" s="16">
         <v>128.77099999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="5">
-        <v>2024</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="7">
-        <v>402.19099999999997</v>
-      </c>
-      <c r="E10" s="7">
-        <v>34249.404000000002</v>
-      </c>
-      <c r="F10" s="7">
-        <v>4694.4560000000001</v>
-      </c>
-      <c r="G10" s="8">
-        <v>134.702</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="9">
-        <v>2024</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="11">
-        <v>364.15199999999999</v>
-      </c>
-      <c r="E11" s="11">
-        <v>31391.064999999999</v>
-      </c>
-      <c r="F11" s="11">
-        <v>4263.375</v>
-      </c>
-      <c r="G11" s="12">
-        <v>109.999</v>
       </c>
     </row>
     <row r="12" spans="2:7">
@@ -987,19 +989,19 @@
         <v>2024</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="7">
-        <v>355.78699999999998</v>
+        <v>402.19099999999997</v>
       </c>
       <c r="E12" s="7">
-        <v>30993.098000000002</v>
+        <v>34960.345999999998</v>
       </c>
       <c r="F12" s="7">
-        <v>4204.5010000000002</v>
+        <v>4694.4560000000001</v>
       </c>
       <c r="G12" s="8">
-        <v>120.792</v>
+        <v>134.702</v>
       </c>
     </row>
     <row r="13" spans="2:7">
@@ -1007,19 +1009,19 @@
         <v>2024</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11">
-        <v>351.78899999999999</v>
+        <v>364.15199999999999</v>
       </c>
       <c r="E13" s="11">
-        <v>30506.695</v>
+        <v>32038.455999999998</v>
       </c>
       <c r="F13" s="11">
-        <v>4111.9309999999996</v>
+        <v>4263.375</v>
       </c>
       <c r="G13" s="12">
-        <v>137.70099999999999</v>
+        <v>109.999</v>
       </c>
     </row>
     <row r="14" spans="2:7">
@@ -1027,19 +1029,19 @@
         <v>2024</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="7">
-        <v>389.89299999999997</v>
+        <v>355.78699999999998</v>
       </c>
       <c r="E14" s="7">
-        <v>32522.752</v>
+        <v>31588.615000000002</v>
       </c>
       <c r="F14" s="7">
-        <v>4592.29</v>
+        <v>4204.5010000000002</v>
       </c>
       <c r="G14" s="8">
-        <v>172.21100000000001</v>
+        <v>120.792</v>
       </c>
     </row>
     <row r="15" spans="2:7">
@@ -1047,19 +1049,19 @@
         <v>2024</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D15" s="11">
-        <v>391.33499999999998</v>
+        <v>351.78899999999999</v>
       </c>
       <c r="E15" s="11">
-        <v>33157.347000000002</v>
+        <v>30963.62</v>
       </c>
       <c r="F15" s="11">
-        <v>4545.9170000000004</v>
+        <v>4111.9309999999996</v>
       </c>
       <c r="G15" s="12">
-        <v>174.05799999999999</v>
+        <v>137.70099999999999</v>
       </c>
     </row>
     <row r="16" spans="2:7">
@@ -1067,19 +1069,19 @@
         <v>2024</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D16" s="7">
-        <v>359.08600000000001</v>
+        <v>389.89299999999997</v>
       </c>
       <c r="E16" s="7">
-        <v>30980.621999999999</v>
+        <v>33124.082999999999</v>
       </c>
       <c r="F16" s="7">
-        <v>4255.26</v>
+        <v>4596.1490000000003</v>
       </c>
       <c r="G16" s="8">
-        <v>140.30600000000001</v>
+        <v>172.21100000000001</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1087,19 +1089,19 @@
         <v>2024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D17" s="11">
-        <v>361.20299999999997</v>
+        <v>391.33499999999998</v>
       </c>
       <c r="E17" s="11">
-        <v>32325.853999999999</v>
+        <v>33301.133999999998</v>
       </c>
       <c r="F17" s="11">
-        <v>4561.924</v>
+        <v>4545.9170000000004</v>
       </c>
       <c r="G17" s="12">
-        <v>147.22900000000001</v>
+        <v>174.05799999999999</v>
       </c>
     </row>
     <row r="18" spans="2:7">
@@ -1107,19 +1109,19 @@
         <v>2024</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" s="7">
-        <v>376.52499999999998</v>
+        <v>359.08600000000001</v>
       </c>
       <c r="E18" s="7">
-        <v>31932.16</v>
+        <v>30980.621999999999</v>
       </c>
       <c r="F18" s="7">
-        <v>4480.4570000000003</v>
+        <v>4255.26</v>
       </c>
       <c r="G18" s="8">
-        <v>157.15600000000001</v>
+        <v>140.30600000000001</v>
       </c>
     </row>
     <row r="19" spans="2:7">
@@ -1127,19 +1129,19 @@
         <v>2024</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D19" s="11">
-        <v>467.80599999999998</v>
+        <v>361.20299999999997</v>
       </c>
       <c r="E19" s="11">
-        <v>33742.417000000001</v>
+        <v>32325.853999999999</v>
       </c>
       <c r="F19" s="11">
-        <v>4665.2489999999998</v>
+        <v>4561.924</v>
       </c>
       <c r="G19" s="12">
-        <v>171.50399999999999</v>
+        <v>147.22900000000001</v>
       </c>
     </row>
     <row r="20" spans="2:7">
@@ -1147,79 +1149,79 @@
         <v>2024</v>
       </c>
       <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="7">
+        <v>376.52499999999998</v>
+      </c>
+      <c r="E20" s="7">
+        <v>31932.16</v>
+      </c>
+      <c r="F20" s="7">
+        <v>4488.3909999999996</v>
+      </c>
+      <c r="G20" s="8">
+        <v>157.15600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="11">
+        <v>467.80599999999998</v>
+      </c>
+      <c r="E21" s="11">
+        <v>33746.555</v>
+      </c>
+      <c r="F21" s="11">
+        <v>4665.2489999999998</v>
+      </c>
+      <c r="G21" s="12">
+        <v>171.50399999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="5">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" s="7">
+        <v>409.07499999999999</v>
+      </c>
+      <c r="E22" s="7">
+        <v>29964.713</v>
+      </c>
+      <c r="F22" s="7">
+        <v>4217.625</v>
+      </c>
+      <c r="G22" s="8">
+        <v>139.161</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="13">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="7">
-        <v>409.07499999999999</v>
-      </c>
-      <c r="E20" s="7">
-        <v>29964.609</v>
-      </c>
-      <c r="F20" s="7">
-        <v>4217.625</v>
-      </c>
-      <c r="G20" s="8">
-        <v>139.161</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="13">
-        <v>2024</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="15">
+      <c r="D23" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E23" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F23" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G23" s="16">
         <v>153.113</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" hidden="1">
-      <c r="B22" s="5">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="7">
-        <v>488.09300000000002</v>
-      </c>
-      <c r="E22" s="7">
-        <v>35319.991999999998</v>
-      </c>
-      <c r="F22" s="7">
-        <v>4725.9070000000002</v>
-      </c>
-      <c r="G22" s="8">
-        <v>164.172</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" hidden="1">
-      <c r="B23" s="9">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="11">
-        <v>394.346</v>
-      </c>
-      <c r="E23" s="11">
-        <v>32003.993999999999</v>
-      </c>
-      <c r="F23" s="11">
-        <v>4258.4870000000001</v>
-      </c>
-      <c r="G23" s="12">
-        <v>136.57900000000001</v>
       </c>
     </row>
     <row r="24" spans="2:7" hidden="1">
@@ -1227,19 +1229,19 @@
         <v>2023</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D24" s="7">
-        <v>368.065</v>
+        <v>488.09300000000002</v>
       </c>
       <c r="E24" s="7">
-        <v>32478.357</v>
+        <v>35319.991999999998</v>
       </c>
       <c r="F24" s="7">
-        <v>4341.9660000000003</v>
+        <v>4725.9070000000002</v>
       </c>
       <c r="G24" s="8">
-        <v>138.56200000000001</v>
+        <v>164.172</v>
       </c>
     </row>
     <row r="25" spans="2:7" hidden="1">
@@ -1247,19 +1249,19 @@
         <v>2023</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D25" s="11">
-        <v>370.30599999999998</v>
+        <v>394.346</v>
       </c>
       <c r="E25" s="11">
-        <v>30477.884999999998</v>
+        <v>32003.993999999999</v>
       </c>
       <c r="F25" s="11">
-        <v>4292.0969999999998</v>
+        <v>4258.4870000000001</v>
       </c>
       <c r="G25" s="12">
-        <v>140.12700000000001</v>
+        <v>136.57900000000001</v>
       </c>
     </row>
     <row r="26" spans="2:7" hidden="1">
@@ -1267,19 +1269,19 @@
         <v>2023</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D26" s="7">
-        <v>456.01799999999997</v>
+        <v>368.065</v>
       </c>
       <c r="E26" s="7">
-        <v>33366.624000000003</v>
+        <v>32478.357</v>
       </c>
       <c r="F26" s="7">
-        <v>4656.7849999999999</v>
+        <v>4341.9660000000003</v>
       </c>
       <c r="G26" s="8">
-        <v>170.30199999999999</v>
+        <v>138.56200000000001</v>
       </c>
     </row>
     <row r="27" spans="2:7" hidden="1">
@@ -1287,19 +1289,19 @@
         <v>2023</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D27" s="11">
-        <v>531.83299999999997</v>
+        <v>370.30599999999998</v>
       </c>
       <c r="E27" s="11">
-        <v>33987.230000000003</v>
+        <v>30477.884999999998</v>
       </c>
       <c r="F27" s="11">
-        <v>4606.6930000000002</v>
+        <v>4292.0969999999998</v>
       </c>
       <c r="G27" s="12">
-        <v>172.745</v>
+        <v>140.12700000000001</v>
       </c>
     </row>
     <row r="28" spans="2:7" hidden="1">
@@ -1307,19 +1309,19 @@
         <v>2023</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D28" s="7">
-        <v>475.21</v>
+        <v>456.01799999999997</v>
       </c>
       <c r="E28" s="7">
-        <v>31519.437999999998</v>
+        <v>33366.624000000003</v>
       </c>
       <c r="F28" s="7">
-        <v>4350.6379999999999</v>
+        <v>4656.7849999999999</v>
       </c>
       <c r="G28" s="8">
-        <v>145.583</v>
+        <v>170.30199999999999</v>
       </c>
     </row>
     <row r="29" spans="2:7" hidden="1">
@@ -1327,19 +1329,19 @@
         <v>2023</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="11">
-        <v>497.62700000000001</v>
+        <v>531.83299999999997</v>
       </c>
       <c r="E29" s="11">
-        <v>32910.921000000002</v>
+        <v>33987.230000000003</v>
       </c>
       <c r="F29" s="11">
-        <v>4572.6980000000003</v>
+        <v>4606.6930000000002</v>
       </c>
       <c r="G29" s="12">
-        <v>149.45699999999999</v>
+        <v>172.745</v>
       </c>
     </row>
     <row r="30" spans="2:7" hidden="1">
@@ -1347,19 +1349,19 @@
         <v>2023</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D30" s="7">
-        <v>539.61699999999996</v>
+        <v>475.21</v>
       </c>
       <c r="E30" s="7">
-        <v>35421.288999999997</v>
+        <v>31519.437999999998</v>
       </c>
       <c r="F30" s="7">
-        <v>4746.9679999999998</v>
+        <v>4350.6379999999999</v>
       </c>
       <c r="G30" s="8">
-        <v>172.00700000000001</v>
+        <v>145.583</v>
       </c>
     </row>
     <row r="31" spans="2:7" hidden="1">
@@ -1367,19 +1369,19 @@
         <v>2023</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D31" s="11">
-        <v>464.71800000000002</v>
+        <v>497.62700000000001</v>
       </c>
       <c r="E31" s="11">
-        <v>35141.546999999999</v>
+        <v>32910.921000000002</v>
       </c>
       <c r="F31" s="11">
-        <v>4672.5389999999998</v>
+        <v>4572.6980000000003</v>
       </c>
       <c r="G31" s="12">
-        <v>148.74100000000001</v>
+        <v>149.45699999999999</v>
       </c>
     </row>
     <row r="32" spans="2:7" hidden="1">
@@ -1387,79 +1389,79 @@
         <v>2023</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D32" s="7">
-        <v>401.17399999999998</v>
+        <v>539.61699999999996</v>
       </c>
       <c r="E32" s="7">
-        <v>31209.23</v>
+        <v>35421.288999999997</v>
       </c>
       <c r="F32" s="7">
-        <v>4142.9189999999999</v>
+        <v>4746.9679999999998</v>
       </c>
       <c r="G32" s="8">
-        <v>129.12200000000001</v>
+        <v>172.00700000000001</v>
       </c>
     </row>
     <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="13">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="15">
-        <v>441.50799999999998</v>
-      </c>
-      <c r="E33" s="15">
-        <v>34870</v>
-      </c>
-      <c r="F33" s="15">
-        <v>4496.6840000000002</v>
-      </c>
-      <c r="G33" s="16">
-        <v>152</v>
+      <c r="C33" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="11">
+        <v>464.71800000000002</v>
+      </c>
+      <c r="E33" s="11">
+        <v>35141.546999999999</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4672.5389999999998</v>
+      </c>
+      <c r="G33" s="12">
+        <v>148.74100000000001</v>
       </c>
     </row>
     <row r="34" spans="2:7" hidden="1">
       <c r="B34" s="5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D34" s="7">
-        <v>512.87099999999998</v>
+        <v>401.17399999999998</v>
       </c>
       <c r="E34" s="7">
-        <v>38351.464999999997</v>
+        <v>31209.23</v>
       </c>
       <c r="F34" s="7">
-        <v>4917.5870000000004</v>
+        <v>4142.9189999999999</v>
       </c>
       <c r="G34" s="8">
-        <v>320.745</v>
+        <v>129.12200000000001</v>
       </c>
     </row>
     <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="9">
-        <v>2022</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D35" s="11">
-        <v>451.02</v>
-      </c>
-      <c r="E35" s="11">
-        <v>34030.885999999999</v>
-      </c>
-      <c r="F35" s="11">
-        <v>4283.8869999999997</v>
-      </c>
-      <c r="G35" s="12">
-        <v>263.21100000000001</v>
+      <c r="B35" s="13">
+        <v>2023</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15">
+        <v>441.50799999999998</v>
+      </c>
+      <c r="E35" s="15">
+        <v>34870.453000000001</v>
+      </c>
+      <c r="F35" s="15">
+        <v>4496.6840000000002</v>
+      </c>
+      <c r="G35" s="16">
+        <v>151.53899999999999</v>
       </c>
     </row>
     <row r="36" spans="2:7" hidden="1">
@@ -1467,19 +1469,19 @@
         <v>2022</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D36" s="7">
-        <v>439.971</v>
+        <v>512.87099999999998</v>
       </c>
       <c r="E36" s="7">
-        <v>34325.794000000002</v>
+        <v>38501.050000000003</v>
       </c>
       <c r="F36" s="7">
-        <v>4358.91</v>
+        <v>4908.8</v>
       </c>
       <c r="G36" s="8">
-        <v>281.30500000000001</v>
+        <v>171.16</v>
       </c>
     </row>
     <row r="37" spans="2:7" hidden="1">
@@ -1487,19 +1489,19 @@
         <v>2022</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D37" s="11">
-        <v>424.685</v>
+        <v>451.02</v>
       </c>
       <c r="E37" s="11">
-        <v>32483.731</v>
+        <v>34154.199999999997</v>
       </c>
       <c r="F37" s="11">
-        <v>4153.6689999999999</v>
+        <v>4276.0029999999997</v>
       </c>
       <c r="G37" s="12">
-        <v>295.12599999999998</v>
+        <v>139.89699999999999</v>
       </c>
     </row>
     <row r="38" spans="2:7" hidden="1">
@@ -1507,19 +1509,19 @@
         <v>2022</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D38" s="7">
-        <v>525.33500000000004</v>
+        <v>439.971</v>
       </c>
       <c r="E38" s="7">
-        <v>35685.642999999996</v>
+        <v>34450.745999999999</v>
       </c>
       <c r="F38" s="7">
-        <v>4537.701</v>
+        <v>4350.5069999999996</v>
       </c>
       <c r="G38" s="8">
-        <v>341.35</v>
+        <v>156.35300000000001</v>
       </c>
     </row>
     <row r="39" spans="2:7" hidden="1">
@@ -1527,19 +1529,19 @@
         <v>2022</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D39" s="11">
-        <v>523.85500000000002</v>
+        <v>424.685</v>
       </c>
       <c r="E39" s="11">
-        <v>35237.499000000003</v>
+        <v>32601.439999999999</v>
       </c>
       <c r="F39" s="11">
-        <v>4449.53</v>
+        <v>4145.3370000000004</v>
       </c>
       <c r="G39" s="12">
-        <v>335.37900000000002</v>
+        <v>177.417</v>
       </c>
     </row>
     <row r="40" spans="2:7" hidden="1">
@@ -1547,19 +1549,19 @@
         <v>2022</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D40" s="7">
-        <v>463.73399999999998</v>
+        <v>525.33500000000004</v>
       </c>
       <c r="E40" s="7">
-        <v>32657.494999999999</v>
+        <v>35813.207999999999</v>
       </c>
       <c r="F40" s="7">
-        <v>4181.1189999999997</v>
+        <v>4529.4679999999998</v>
       </c>
       <c r="G40" s="8">
-        <v>299.31400000000002</v>
+        <v>213.785</v>
       </c>
     </row>
     <row r="41" spans="2:7" hidden="1">
@@ -1567,19 +1569,19 @@
         <v>2022</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="11">
-        <v>483.18400000000003</v>
+        <v>523.85500000000002</v>
       </c>
       <c r="E41" s="11">
-        <v>34826.652000000002</v>
+        <v>35363.866999999998</v>
       </c>
       <c r="F41" s="11">
-        <v>4477.1049999999996</v>
+        <v>4441.1970000000001</v>
       </c>
       <c r="G41" s="12">
-        <v>318.43700000000001</v>
+        <v>209.011</v>
       </c>
     </row>
     <row r="42" spans="2:7" hidden="1">
@@ -1587,19 +1589,19 @@
         <v>2022</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D42" s="7">
-        <v>521.03399999999999</v>
+        <v>463.73399999999998</v>
       </c>
       <c r="E42" s="7">
-        <v>35875.334999999999</v>
+        <v>32779.991999999998</v>
       </c>
       <c r="F42" s="7">
-        <v>4510.0479999999998</v>
+        <v>4173.2569999999996</v>
       </c>
       <c r="G42" s="8">
-        <v>354.25400000000002</v>
+        <v>176.81700000000001</v>
       </c>
     </row>
     <row r="43" spans="2:7" hidden="1">
@@ -1607,19 +1609,19 @@
         <v>2022</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D43" s="11">
-        <v>456.17099999999999</v>
+        <v>483.18400000000003</v>
       </c>
       <c r="E43" s="11">
-        <v>34229.036</v>
+        <v>34963.464</v>
       </c>
       <c r="F43" s="11">
-        <v>4359.9489999999996</v>
+        <v>4469.723</v>
       </c>
       <c r="G43" s="12">
-        <v>321.45600000000002</v>
+        <v>181.625</v>
       </c>
     </row>
     <row r="44" spans="2:7" hidden="1">
@@ -1627,79 +1629,79 @@
         <v>2022</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D44" s="7">
-        <v>381.66</v>
+        <v>521.03399999999999</v>
       </c>
       <c r="E44" s="7">
-        <v>29512.892</v>
+        <v>36017.055999999997</v>
       </c>
       <c r="F44" s="7">
-        <v>3839.4189999999999</v>
+        <v>4502.7659999999996</v>
       </c>
       <c r="G44" s="8">
-        <v>275.096</v>
+        <v>212.53299999999999</v>
       </c>
     </row>
     <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="13">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="15">
-        <v>426.37700000000001</v>
-      </c>
-      <c r="E45" s="15">
-        <v>31522.11</v>
-      </c>
-      <c r="F45" s="15">
-        <v>4230.6859999999997</v>
-      </c>
-      <c r="G45" s="16">
-        <v>308.267</v>
+      <c r="C45" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="11">
+        <v>456.17099999999999</v>
+      </c>
+      <c r="E45" s="11">
+        <v>34365.993999999999</v>
+      </c>
+      <c r="F45" s="11">
+        <v>4352.1899999999996</v>
+      </c>
+      <c r="G45" s="12">
+        <v>184.49799999999999</v>
       </c>
     </row>
     <row r="46" spans="2:7" hidden="1">
       <c r="B46" s="5">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D46" s="7">
-        <v>514.03599999999994</v>
+        <v>381.66</v>
       </c>
       <c r="E46" s="7">
-        <v>37048.326999999997</v>
+        <v>29630.498</v>
       </c>
       <c r="F46" s="7">
-        <v>4893.741</v>
+        <v>3833.741</v>
       </c>
       <c r="G46" s="8">
-        <v>371.387</v>
+        <v>157.49</v>
       </c>
     </row>
     <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="9">
-        <v>2021</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D47" s="11">
-        <v>461.517</v>
-      </c>
-      <c r="E47" s="11">
-        <v>32424.513999999999</v>
-      </c>
-      <c r="F47" s="11">
-        <v>4190.9080000000004</v>
-      </c>
-      <c r="G47" s="12">
-        <v>303.13799999999998</v>
+      <c r="B47" s="13">
+        <v>2022</v>
+      </c>
+      <c r="C47" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" s="15">
+        <v>426.37700000000001</v>
+      </c>
+      <c r="E47" s="15">
+        <v>31649.644</v>
+      </c>
+      <c r="F47" s="15">
+        <v>4223.5990000000002</v>
+      </c>
+      <c r="G47" s="16">
+        <v>180.733</v>
       </c>
     </row>
     <row r="48" spans="2:7" hidden="1">
@@ -1707,19 +1709,19 @@
         <v>2021</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D48" s="7">
-        <v>455.21</v>
+        <v>514.03599999999994</v>
       </c>
       <c r="E48" s="7">
-        <v>31973.407999999999</v>
+        <v>37201.106</v>
       </c>
       <c r="F48" s="7">
-        <v>4045.069</v>
+        <v>4893.741</v>
       </c>
       <c r="G48" s="8">
-        <v>302.11399999999998</v>
+        <v>218.608</v>
       </c>
     </row>
     <row r="49" spans="2:7" hidden="1">
@@ -1727,19 +1729,19 @@
         <v>2021</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D49" s="11">
-        <v>417.20100000000002</v>
+        <v>461.517</v>
       </c>
       <c r="E49" s="11">
-        <v>28575.538</v>
+        <v>32549.813999999998</v>
       </c>
       <c r="F49" s="11">
-        <v>3843.163</v>
+        <v>4190.9080000000004</v>
       </c>
       <c r="G49" s="12">
-        <v>275.54199999999997</v>
+        <v>177.83799999999999</v>
       </c>
     </row>
     <row r="50" spans="2:7" hidden="1">
@@ -1747,19 +1749,19 @@
         <v>2021</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D50" s="7">
-        <v>477.47300000000001</v>
+        <v>455.21</v>
       </c>
       <c r="E50" s="7">
-        <v>30320.998</v>
+        <v>32099.216</v>
       </c>
       <c r="F50" s="7">
-        <v>3987.26</v>
+        <v>4045.069</v>
       </c>
       <c r="G50" s="8">
-        <v>298.02</v>
+        <v>176.30600000000001</v>
       </c>
     </row>
     <row r="51" spans="2:7" hidden="1">
@@ -1767,19 +1769,19 @@
         <v>2021</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D51" s="11">
-        <v>534.01</v>
+        <v>408.52699999999999</v>
       </c>
       <c r="E51" s="11">
-        <v>32045.192999999999</v>
+        <v>28687.858</v>
       </c>
       <c r="F51" s="11">
-        <v>3737.0219999999999</v>
+        <v>3746.69</v>
       </c>
       <c r="G51" s="12">
-        <v>313.40699999999998</v>
+        <v>163.22200000000001</v>
       </c>
     </row>
     <row r="52" spans="2:7" hidden="1">
@@ -1787,19 +1789,19 @@
         <v>2021</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D52" s="7">
-        <v>472.178</v>
+        <v>469.08100000000002</v>
       </c>
       <c r="E52" s="7">
-        <v>29495.615000000002</v>
+        <v>30438.67</v>
       </c>
       <c r="F52" s="7">
-        <v>3900.038</v>
+        <v>3892.3710000000001</v>
       </c>
       <c r="G52" s="8">
-        <v>286.40600000000001</v>
+        <v>180.34800000000001</v>
       </c>
     </row>
     <row r="53" spans="2:7" hidden="1">
@@ -1807,19 +1809,19 @@
         <v>2021</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="11">
-        <v>497.61500000000001</v>
+        <v>524.84100000000001</v>
       </c>
       <c r="E53" s="11">
-        <v>30860.518</v>
+        <v>32172.151000000002</v>
       </c>
       <c r="F53" s="11">
-        <v>4184.6679999999997</v>
+        <v>4009.8470000000002</v>
       </c>
       <c r="G53" s="12">
-        <v>308.423</v>
+        <v>186.44900000000001</v>
       </c>
     </row>
     <row r="54" spans="2:7" hidden="1">
@@ -1827,19 +1829,19 @@
         <v>2021</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D54" s="7">
-        <v>363.12299999999999</v>
+        <v>463.21800000000002</v>
       </c>
       <c r="E54" s="7">
-        <v>29683.991000000002</v>
+        <v>29616.303</v>
       </c>
       <c r="F54" s="7">
-        <v>3660.5219999999999</v>
+        <v>3807.3029999999999</v>
       </c>
       <c r="G54" s="8">
-        <v>302.50200000000001</v>
+        <v>165.71799999999999</v>
       </c>
     </row>
     <row r="55" spans="2:7" hidden="1">
@@ -1847,19 +1849,19 @@
         <v>2021</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D55" s="11">
-        <v>353.36700000000002</v>
+        <v>488.32</v>
       </c>
       <c r="E55" s="11">
-        <v>29988.731</v>
+        <v>30992.569</v>
       </c>
       <c r="F55" s="11">
-        <v>3623.5439999999999</v>
+        <v>4089.7649999999999</v>
       </c>
       <c r="G55" s="12">
-        <v>299.48399999999998</v>
+        <v>176.37200000000001</v>
       </c>
     </row>
     <row r="56" spans="2:7" hidden="1">
@@ -1867,79 +1869,79 @@
         <v>2021</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D56" s="7">
-        <v>271.08999999999997</v>
+        <v>476.06900000000002</v>
       </c>
       <c r="E56" s="7">
-        <v>24616.317999999999</v>
+        <v>29808.262999999999</v>
       </c>
       <c r="F56" s="7">
-        <v>2978.413</v>
+        <v>4068.723</v>
       </c>
       <c r="G56" s="8">
-        <v>246.815</v>
+        <v>178.23</v>
       </c>
     </row>
     <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="13">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D57" s="15">
-        <v>474.084</v>
-      </c>
-      <c r="E57" s="15">
-        <v>26810.924999999999</v>
-      </c>
-      <c r="F57" s="15">
-        <v>3970.2449999999999</v>
-      </c>
-      <c r="G57" s="16">
-        <v>279.76900000000001</v>
+      <c r="C57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="11">
+        <v>474.25599999999997</v>
+      </c>
+      <c r="E57" s="11">
+        <v>30111.498</v>
+      </c>
+      <c r="F57" s="11">
+        <v>4084.0520000000001</v>
+      </c>
+      <c r="G57" s="12">
+        <v>176.71700000000001</v>
       </c>
     </row>
     <row r="58" spans="2:7" hidden="1">
       <c r="B58" s="5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D58" s="7">
-        <v>453.53300000000002</v>
+        <v>370.416</v>
       </c>
       <c r="E58" s="7">
-        <v>30609.962</v>
+        <v>24717.083999999999</v>
       </c>
       <c r="F58" s="7">
-        <v>3963.3319999999999</v>
+        <v>3351.7269999999999</v>
       </c>
       <c r="G58" s="8">
-        <v>174.196</v>
+        <v>146.04900000000001</v>
       </c>
     </row>
     <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="9">
-        <v>2020</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D59" s="11">
-        <v>436.66899999999998</v>
-      </c>
-      <c r="E59" s="11">
-        <v>27289.054</v>
-      </c>
-      <c r="F59" s="11">
-        <v>3012.3870000000002</v>
-      </c>
-      <c r="G59" s="12">
-        <v>140.91200000000001</v>
+      <c r="B59" s="13">
+        <v>2021</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="15">
+        <v>426.60599999999999</v>
+      </c>
+      <c r="E59" s="15">
+        <v>26926.621999999999</v>
+      </c>
+      <c r="F59" s="15">
+        <v>3749.8069999999998</v>
+      </c>
+      <c r="G59" s="16">
+        <v>164.072</v>
       </c>
     </row>
     <row r="60" spans="2:7" hidden="1">
@@ -1947,19 +1949,19 @@
         <v>2020</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D60" s="7">
-        <v>442.13299999999998</v>
+        <v>453.53300000000002</v>
       </c>
       <c r="E60" s="7">
-        <v>25870.184000000001</v>
+        <v>30609.962</v>
       </c>
       <c r="F60" s="7">
-        <v>3021.357</v>
+        <v>3963.3319999999999</v>
       </c>
       <c r="G60" s="8">
-        <v>146.08799999999999</v>
+        <v>174.196</v>
       </c>
     </row>
     <row r="61" spans="2:7" hidden="1">
@@ -1967,19 +1969,19 @@
         <v>2020</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D61" s="11">
-        <v>280.45699999999999</v>
+        <v>436.66899999999998</v>
       </c>
       <c r="E61" s="11">
-        <v>24713.252</v>
+        <v>27289.054</v>
       </c>
       <c r="F61" s="11">
-        <v>2734.0430000000001</v>
+        <v>3012.3870000000002</v>
       </c>
       <c r="G61" s="12">
-        <v>147.232</v>
+        <v>140.91200000000001</v>
       </c>
     </row>
     <row r="62" spans="2:7" hidden="1">
@@ -1987,19 +1989,19 @@
         <v>2020</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D62" s="7">
-        <v>283.22199999999998</v>
+        <v>442.13299999999998</v>
       </c>
       <c r="E62" s="7">
-        <v>25979.219000000001</v>
+        <v>25870.184000000001</v>
       </c>
       <c r="F62" s="7">
-        <v>2808.5569999999998</v>
+        <v>3021.357</v>
       </c>
       <c r="G62" s="8">
-        <v>150.471</v>
+        <v>146.08799999999999</v>
       </c>
     </row>
     <row r="63" spans="2:7" hidden="1">
@@ -2007,19 +2009,19 @@
         <v>2020</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D63" s="11">
-        <v>269.73899999999998</v>
+        <v>280.45699999999999</v>
       </c>
       <c r="E63" s="11">
-        <v>25407.806</v>
+        <v>24713.252</v>
       </c>
       <c r="F63" s="11">
-        <v>2717.212</v>
+        <v>2734.0430000000001</v>
       </c>
       <c r="G63" s="12">
-        <v>246.255</v>
+        <v>147.232</v>
       </c>
     </row>
     <row r="64" spans="2:7" hidden="1">
@@ -2027,19 +2029,19 @@
         <v>2020</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D64" s="7">
-        <v>223.602</v>
+        <v>283.22199999999998</v>
       </c>
       <c r="E64" s="7">
-        <v>21647.363000000001</v>
+        <v>25979.219000000001</v>
       </c>
       <c r="F64" s="7">
-        <v>2554.5659999999998</v>
+        <v>2808.5569999999998</v>
       </c>
       <c r="G64" s="8">
-        <v>296.74700000000001</v>
+        <v>150.471</v>
       </c>
     </row>
     <row r="65" spans="2:7" hidden="1">
@@ -2047,19 +2049,19 @@
         <v>2020</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="11">
-        <v>219.328</v>
+        <v>269.73899999999998</v>
       </c>
       <c r="E65" s="11">
-        <v>18766.822</v>
+        <v>25407.806</v>
       </c>
       <c r="F65" s="11">
-        <v>2359.1</v>
+        <v>2717.212</v>
       </c>
       <c r="G65" s="12">
-        <v>260.01499999999999</v>
+        <v>246.255</v>
       </c>
     </row>
     <row r="66" spans="2:7" hidden="1">
@@ -2067,19 +2069,19 @@
         <v>2020</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D66" s="7">
-        <v>200.2</v>
+        <v>223.602</v>
       </c>
       <c r="E66" s="7">
-        <v>18182.099999999999</v>
+        <v>21647.363000000001</v>
       </c>
       <c r="F66" s="7">
-        <v>2092.1</v>
+        <v>2554.5659999999998</v>
       </c>
       <c r="G66" s="8">
-        <v>216.5</v>
+        <v>296.74700000000001</v>
       </c>
     </row>
     <row r="67" spans="2:7" hidden="1">
@@ -2087,19 +2089,19 @@
         <v>2020</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D67" s="11">
-        <v>369.5</v>
+        <v>219.328</v>
       </c>
       <c r="E67" s="11">
-        <v>27845.9</v>
+        <v>18766.822</v>
       </c>
       <c r="F67" s="11">
-        <v>3344</v>
+        <v>2359.1</v>
       </c>
       <c r="G67" s="12">
-        <v>353.5</v>
+        <v>260.01499999999999</v>
       </c>
     </row>
     <row r="68" spans="2:7" hidden="1">
@@ -2107,79 +2109,79 @@
         <v>2020</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D68" s="7">
-        <v>373.7</v>
+        <v>200.2</v>
       </c>
       <c r="E68" s="7">
-        <v>29173.4</v>
+        <v>18182.099999999999</v>
       </c>
       <c r="F68" s="7">
-        <v>3658</v>
+        <v>2092.1</v>
       </c>
       <c r="G68" s="8">
-        <v>373.1</v>
+        <v>216.5</v>
       </c>
     </row>
     <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="13">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D69" s="15">
-        <v>433.4</v>
-      </c>
-      <c r="E69" s="15">
-        <v>31957</v>
-      </c>
-      <c r="F69" s="15">
-        <v>4056.2</v>
-      </c>
-      <c r="G69" s="16">
-        <v>401.6</v>
+      <c r="C69" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="11">
+        <v>369.5</v>
+      </c>
+      <c r="E69" s="11">
+        <v>27845.9</v>
+      </c>
+      <c r="F69" s="11">
+        <v>3344</v>
+      </c>
+      <c r="G69" s="12">
+        <v>353.5</v>
       </c>
     </row>
     <row r="70" spans="2:7" hidden="1">
       <c r="B70" s="5">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D70" s="7">
-        <v>455.09300000000002</v>
+        <v>373.7</v>
       </c>
       <c r="E70" s="7">
-        <v>35082.798999999999</v>
+        <v>29173.4</v>
       </c>
       <c r="F70" s="7">
-        <v>4535.5079999999998</v>
+        <v>3658</v>
       </c>
       <c r="G70" s="8">
-        <v>418.029</v>
+        <v>373.1</v>
       </c>
     </row>
     <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="9">
-        <v>2019</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D71" s="11">
-        <v>420.3</v>
-      </c>
-      <c r="E71" s="11">
-        <v>31255.3</v>
-      </c>
-      <c r="F71" s="11">
-        <v>3947.5929999999998</v>
-      </c>
-      <c r="G71" s="12">
-        <v>371.54300000000001</v>
+      <c r="B71" s="13">
+        <v>2020</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="15">
+        <v>433.4</v>
+      </c>
+      <c r="E71" s="15">
+        <v>31957</v>
+      </c>
+      <c r="F71" s="15">
+        <v>4056.2</v>
+      </c>
+      <c r="G71" s="16">
+        <v>401.6</v>
       </c>
     </row>
     <row r="72" spans="2:7" hidden="1">
@@ -2187,19 +2189,19 @@
         <v>2019</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D72" s="7">
-        <v>422.5</v>
+        <v>455.09300000000002</v>
       </c>
       <c r="E72" s="7">
-        <v>30483.200000000001</v>
+        <v>35082.798999999999</v>
       </c>
       <c r="F72" s="7">
-        <v>4041.7</v>
+        <v>4535.5079999999998</v>
       </c>
       <c r="G72" s="8">
-        <v>372.6</v>
+        <v>418.029</v>
       </c>
     </row>
     <row r="73" spans="2:7" hidden="1">
@@ -2207,19 +2209,19 @@
         <v>2019</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D73" s="11">
-        <v>417.5</v>
+        <v>420.3</v>
       </c>
       <c r="E73" s="11">
-        <v>29611.8</v>
+        <v>31255.3</v>
       </c>
       <c r="F73" s="11">
-        <v>3780.9</v>
+        <v>3947.5929999999998</v>
       </c>
       <c r="G73" s="12">
-        <v>350.9</v>
+        <v>371.54300000000001</v>
       </c>
     </row>
     <row r="74" spans="2:7" hidden="1">
@@ -2227,19 +2229,19 @@
         <v>2019</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D74" s="7">
-        <v>501.78800000000001</v>
+        <v>422.5</v>
       </c>
       <c r="E74" s="7">
-        <v>32359.448</v>
+        <v>30483.200000000001</v>
       </c>
       <c r="F74" s="7">
-        <v>4102.3819999999996</v>
+        <v>4041.7</v>
       </c>
       <c r="G74" s="8">
-        <v>390.57499999999999</v>
+        <v>372.6</v>
       </c>
     </row>
     <row r="75" spans="2:7" hidden="1">
@@ -2247,19 +2249,19 @@
         <v>2019</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D75" s="11">
-        <v>550.20000000000005</v>
+        <v>417.5</v>
       </c>
       <c r="E75" s="11">
-        <v>31445</v>
+        <v>29611.8</v>
       </c>
       <c r="F75" s="11">
-        <v>4176.5</v>
+        <v>3780.9</v>
       </c>
       <c r="G75" s="12">
-        <v>387.9</v>
+        <v>350.9</v>
       </c>
     </row>
     <row r="76" spans="2:7" hidden="1">
@@ -2267,19 +2269,19 @@
         <v>2019</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D76" s="7">
-        <v>448.2</v>
+        <v>501.78800000000001</v>
       </c>
       <c r="E76" s="7">
-        <v>27655.7</v>
+        <v>32359.448</v>
       </c>
       <c r="F76" s="7">
-        <v>3945.6</v>
+        <v>4102.3819999999996</v>
       </c>
       <c r="G76" s="8">
-        <v>399.8</v>
+        <v>390.57499999999999</v>
       </c>
     </row>
     <row r="77" spans="2:7" hidden="1">
@@ -2287,19 +2289,19 @@
         <v>2019</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D77" s="11">
-        <v>465.8</v>
+        <v>550.20000000000005</v>
       </c>
       <c r="E77" s="11">
-        <v>29408.7</v>
+        <v>31445</v>
       </c>
       <c r="F77" s="11">
-        <v>4092.5</v>
+        <v>4176.5</v>
       </c>
       <c r="G77" s="12">
-        <v>400</v>
+        <v>387.9</v>
       </c>
     </row>
     <row r="78" spans="2:7" hidden="1">
@@ -2307,19 +2309,19 @@
         <v>2019</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D78" s="7">
-        <v>522.9</v>
+        <v>448.2</v>
       </c>
       <c r="E78" s="7">
-        <v>30692.5</v>
+        <v>27655.7</v>
       </c>
       <c r="F78" s="7">
-        <v>4139.6000000000004</v>
+        <v>3945.6</v>
       </c>
       <c r="G78" s="8">
-        <v>395.1</v>
+        <v>399.8</v>
       </c>
     </row>
     <row r="79" spans="2:7" hidden="1">
@@ -2327,19 +2329,19 @@
         <v>2019</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D79" s="11">
-        <v>434.2</v>
+        <v>465.8</v>
       </c>
       <c r="E79" s="11">
-        <v>30420.3</v>
+        <v>29408.7</v>
       </c>
       <c r="F79" s="11">
-        <v>4089</v>
+        <v>4092.5</v>
       </c>
       <c r="G79" s="12">
-        <v>444.1</v>
+        <v>400</v>
       </c>
     </row>
     <row r="80" spans="2:7" hidden="1">
@@ -2347,79 +2349,79 @@
         <v>2019</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D80" s="7">
-        <v>366.4</v>
+        <v>522.9</v>
       </c>
       <c r="E80" s="7">
-        <v>26751.4</v>
+        <v>30692.5</v>
       </c>
       <c r="F80" s="7">
-        <v>3694.2</v>
+        <v>4139.6000000000004</v>
       </c>
       <c r="G80" s="8">
-        <v>414.7</v>
+        <v>395.1</v>
       </c>
     </row>
     <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="13">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="D81" s="15">
-        <v>426</v>
-      </c>
-      <c r="E81" s="15">
-        <v>29892.9</v>
-      </c>
-      <c r="F81" s="15">
-        <v>4137.5</v>
-      </c>
-      <c r="G81" s="16">
-        <v>462.1</v>
+      <c r="C81" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" s="11">
+        <v>434.2</v>
+      </c>
+      <c r="E81" s="11">
+        <v>30420.3</v>
+      </c>
+      <c r="F81" s="11">
+        <v>4089</v>
+      </c>
+      <c r="G81" s="12">
+        <v>444.1</v>
       </c>
     </row>
     <row r="82" spans="2:8" hidden="1">
       <c r="B82" s="5">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D82" s="7">
-        <v>509.3</v>
+        <v>366.4</v>
       </c>
       <c r="E82" s="7">
-        <v>34085.699999999997</v>
+        <v>26751.4</v>
       </c>
       <c r="F82" s="7">
-        <v>4452.2</v>
+        <v>3694.2</v>
       </c>
       <c r="G82" s="8">
-        <v>482.7</v>
+        <v>414.7</v>
       </c>
     </row>
     <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="9">
-        <v>2018</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D83" s="11">
-        <v>435.2</v>
-      </c>
-      <c r="E83" s="11">
-        <v>30873.7</v>
-      </c>
-      <c r="F83" s="11">
-        <v>3933.1</v>
-      </c>
-      <c r="G83" s="12">
-        <v>445.1</v>
+      <c r="B83" s="13">
+        <v>2019</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="15">
+        <v>426</v>
+      </c>
+      <c r="E83" s="15">
+        <v>29892.9</v>
+      </c>
+      <c r="F83" s="15">
+        <v>4137.5</v>
+      </c>
+      <c r="G83" s="16">
+        <v>462.1</v>
       </c>
     </row>
     <row r="84" spans="2:8" hidden="1">
@@ -2427,19 +2429,19 @@
         <v>2018</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D84" s="7">
-        <v>415.6</v>
+        <v>509.3</v>
       </c>
       <c r="E84" s="7">
-        <v>30548.6</v>
+        <v>34085.699999999997</v>
       </c>
       <c r="F84" s="7">
-        <v>3950.4</v>
+        <v>4452.2</v>
       </c>
       <c r="G84" s="8">
-        <v>443.4</v>
+        <v>482.7</v>
       </c>
     </row>
     <row r="85" spans="2:8" hidden="1">
@@ -2447,19 +2449,19 @@
         <v>2018</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D85" s="11">
-        <v>395.9</v>
+        <v>435.2</v>
       </c>
       <c r="E85" s="11">
-        <v>29707.4</v>
+        <v>30873.7</v>
       </c>
       <c r="F85" s="11">
-        <v>3773.4</v>
+        <v>3933.1</v>
       </c>
       <c r="G85" s="12">
-        <v>417.7</v>
+        <v>445.1</v>
       </c>
     </row>
     <row r="86" spans="2:8" hidden="1">
@@ -2467,19 +2469,19 @@
         <v>2018</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D86" s="7">
-        <v>491.1</v>
+        <v>415.6</v>
       </c>
       <c r="E86" s="7">
-        <v>32843.800000000003</v>
+        <v>30548.6</v>
       </c>
       <c r="F86" s="7">
-        <v>4208</v>
+        <v>3950.4</v>
       </c>
       <c r="G86" s="8">
-        <v>467.8</v>
+        <v>443.4</v>
       </c>
     </row>
     <row r="87" spans="2:8" hidden="1">
@@ -2487,19 +2489,19 @@
         <v>2018</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D87" s="11">
-        <v>547.9</v>
+        <v>395.9</v>
       </c>
       <c r="E87" s="11">
-        <v>34437.199999999997</v>
+        <v>29707.4</v>
       </c>
       <c r="F87" s="11">
-        <v>4331</v>
+        <v>3773.4</v>
       </c>
       <c r="G87" s="12">
-        <v>474.3</v>
+        <v>417.7</v>
       </c>
     </row>
     <row r="88" spans="2:8" hidden="1">
@@ -2507,19 +2509,19 @@
         <v>2018</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D88" s="7">
-        <v>432.7</v>
+        <v>491.1</v>
       </c>
       <c r="E88" s="7">
-        <v>30803.9</v>
+        <v>32843.800000000003</v>
       </c>
       <c r="F88" s="7">
-        <v>4039.2</v>
+        <v>4208</v>
       </c>
       <c r="G88" s="8">
-        <v>416.5</v>
+        <v>467.8</v>
       </c>
     </row>
     <row r="89" spans="2:8" hidden="1">
@@ -2527,40 +2529,39 @@
         <v>2018</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D89" s="11">
-        <v>436.5</v>
+        <v>547.9</v>
       </c>
       <c r="E89" s="11">
-        <v>32434.6</v>
+        <v>34437.199999999997</v>
       </c>
       <c r="F89" s="11">
-        <v>4224</v>
+        <v>4331</v>
       </c>
       <c r="G89" s="12">
-        <v>445.4</v>
-      </c>
-      <c r="H89" s="1"/>
+        <v>474.3</v>
+      </c>
     </row>
     <row r="90" spans="2:8" hidden="1">
       <c r="B90" s="5">
         <v>2018</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D90" s="7">
-        <v>477.7</v>
+        <v>432.7</v>
       </c>
       <c r="E90" s="7">
-        <v>32564.6</v>
+        <v>30803.9</v>
       </c>
       <c r="F90" s="7">
-        <v>4185.6000000000004</v>
+        <v>4039.2</v>
       </c>
       <c r="G90" s="8">
-        <v>438.9</v>
+        <v>416.5</v>
       </c>
     </row>
     <row r="91" spans="2:8" hidden="1">
@@ -2568,39 +2569,40 @@
         <v>2018</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="D91" s="11">
-        <v>466.7</v>
+        <v>436.5</v>
       </c>
       <c r="E91" s="11">
-        <v>34233.9</v>
+        <v>32434.6</v>
       </c>
       <c r="F91" s="11">
-        <v>4359.2</v>
+        <v>4224</v>
       </c>
       <c r="G91" s="12">
-        <v>444.7</v>
-      </c>
+        <v>445.4</v>
+      </c>
+      <c r="H91" s="1"/>
     </row>
     <row r="92" spans="2:8" hidden="1">
       <c r="B92" s="5">
         <v>2018</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D92" s="7">
-        <v>366.2</v>
+        <v>477.7</v>
       </c>
       <c r="E92" s="7">
-        <v>28790.1</v>
+        <v>32564.6</v>
       </c>
       <c r="F92" s="7">
-        <v>3745.4</v>
+        <v>4185.6000000000004</v>
       </c>
       <c r="G92" s="8">
-        <v>386.7</v>
+        <v>438.9</v>
       </c>
     </row>
     <row r="93" spans="2:8" hidden="1">
@@ -2608,42 +2610,82 @@
         <v>2018</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D93" s="11">
+        <v>466.7</v>
+      </c>
+      <c r="E93" s="11">
+        <v>34233.9</v>
+      </c>
+      <c r="F93" s="11">
+        <v>4359.2</v>
+      </c>
+      <c r="G93" s="12">
+        <v>444.7</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" s="7">
+        <v>366.2</v>
+      </c>
+      <c r="E94" s="7">
+        <v>28790.1</v>
+      </c>
+      <c r="F94" s="7">
+        <v>3745.4</v>
+      </c>
+      <c r="G94" s="8">
+        <v>386.7</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" hidden="1">
+      <c r="B95" s="9">
+        <v>2018</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D95" s="11">
         <v>425.1</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E95" s="11">
         <v>37208</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F95" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G95" s="12">
         <v>418.2</v>
       </c>
-    </row>
-    <row r="94" spans="2:8">
-      <c r="B94" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="95" spans="2:8">
-      <c r="B95" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E95" s="1"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="1"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G96" s="17"/>
-    </row>
-    <row r="97" spans="7:7">
-      <c r="G97" s="17"/>
+      <c r="G98" s="17"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="G99" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75F7388-B1CD-4C2B-9539-BE393F59F011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9B7E4-17D6-49C9-A14F-BFCF9983DD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Vehículos registrados en las casetas de CAPUFE 2025</t>
   </si>
   <si>
-    <t>Actualización: Junio 2025.</t>
+    <t>Actualización: Julio 2025.</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G95" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G95" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G96" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -803,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H99"/>
+  <dimension ref="B2:H100"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -865,1827 +865,1847 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="6">
+      <c r="B6" s="9">
         <v>2025</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="11">
+        <v>365.85</v>
+      </c>
+      <c r="E6" s="11">
+        <v>34632.449000000001</v>
+      </c>
+      <c r="F6" s="11">
+        <v>4369.473</v>
+      </c>
+      <c r="G6" s="12">
+        <v>111.468</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="6">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D7" s="7">
         <v>322.83699999999999</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E7" s="7">
         <v>31758.236000000001</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F7" s="7">
         <v>3995.1260000000002</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G7" s="7">
         <v>123.852</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="9">
+    <row r="8" spans="2:7">
+      <c r="B8" s="9">
         <v>2025</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C8" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>333.65</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E8" s="11">
         <v>34166.218999999997</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F8" s="11">
         <v>4315</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>127.7</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="6">
+    <row r="9" spans="2:7">
+      <c r="B9" s="6">
         <v>2025</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C9" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D9" s="7">
         <v>348.79300000000001</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E9" s="7">
         <v>34666.671000000002</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F9" s="7">
         <v>4434.4610000000002</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G9" s="7">
         <v>137.76900000000001</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="9">
+    <row r="10" spans="2:7">
+      <c r="B10" s="9">
         <v>2025</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D10" s="11">
         <v>352.50599999999997</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E10" s="11">
         <v>33213.421999999999</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F10" s="11">
         <v>4265.4579999999996</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>128.46100000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="6">
+    <row r="11" spans="2:7">
+      <c r="B11" s="6">
         <v>2025</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D11" s="7">
         <v>297.39600000000002</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E11" s="7">
         <v>28913.167000000001</v>
       </c>
-      <c r="F10" s="7">
+      <c r="F11" s="7">
         <v>3785.3809999999999</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G11" s="7">
         <v>112.53700000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="13">
+    <row r="12" spans="2:7">
+      <c r="B12" s="13">
         <v>2025</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D12" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E12" s="15">
         <v>32096.201000000001</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F12" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G12" s="16">
         <v>128.77099999999999</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5">
+    <row r="13" spans="2:7">
+      <c r="B13" s="5">
         <v>2024</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C13" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D13" s="7">
         <v>402.19099999999997</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E13" s="7">
         <v>34960.345999999998</v>
       </c>
-      <c r="F12" s="7">
+      <c r="F13" s="7">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G13" s="8">
         <v>134.702</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="9">
+    <row r="14" spans="2:7">
+      <c r="B14" s="9">
         <v>2024</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C14" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D14" s="11">
         <v>364.15199999999999</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>32038.455999999998</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>4263.375</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G14" s="12">
         <v>109.999</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="5">
+    <row r="15" spans="2:7">
+      <c r="B15" s="5">
         <v>2024</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C15" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D15" s="7">
         <v>355.78699999999998</v>
       </c>
-      <c r="E14" s="7">
+      <c r="E15" s="7">
         <v>31588.615000000002</v>
       </c>
-      <c r="F14" s="7">
+      <c r="F15" s="7">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G15" s="8">
         <v>120.792</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="9">
+    <row r="16" spans="2:7">
+      <c r="B16" s="9">
         <v>2024</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C16" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D16" s="11">
         <v>351.78899999999999</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>30963.62</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G16" s="12">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="5">
+    <row r="17" spans="2:7">
+      <c r="B17" s="5">
         <v>2024</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D17" s="7">
         <v>389.89299999999997</v>
       </c>
-      <c r="E16" s="7">
+      <c r="E17" s="7">
         <v>33124.082999999999</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>4596.1490000000003</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G17" s="8">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="9">
+    <row r="18" spans="2:7">
+      <c r="B18" s="9">
         <v>2024</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D18" s="11">
         <v>391.33499999999998</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>33301.133999999998</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G18" s="12">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="5">
+    <row r="19" spans="2:7">
+      <c r="B19" s="5">
         <v>2024</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D19" s="7">
         <v>359.08600000000001</v>
       </c>
-      <c r="E18" s="7">
+      <c r="E19" s="7">
         <v>30980.621999999999</v>
       </c>
-      <c r="F18" s="7">
+      <c r="F19" s="7">
         <v>4255.26</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G19" s="8">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="9">
+    <row r="20" spans="2:7">
+      <c r="B20" s="9">
         <v>2024</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D20" s="11">
         <v>361.20299999999997</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>32325.853999999999</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>4561.924</v>
       </c>
-      <c r="G19" s="12">
+      <c r="G20" s="12">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="5">
+    <row r="21" spans="2:7">
+      <c r="B21" s="5">
         <v>2024</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D21" s="7">
         <v>376.52499999999998</v>
       </c>
-      <c r="E20" s="7">
+      <c r="E21" s="7">
         <v>31932.16</v>
       </c>
-      <c r="F20" s="7">
+      <c r="F21" s="7">
         <v>4488.3909999999996</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G21" s="8">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="9">
+    <row r="22" spans="2:7">
+      <c r="B22" s="9">
         <v>2024</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="11">
+      <c r="D22" s="11">
         <v>467.80599999999998</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>33746.555</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G21" s="12">
+      <c r="G22" s="12">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="5">
+    <row r="23" spans="2:7">
+      <c r="B23" s="5">
         <v>2024</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C23" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D23" s="7">
         <v>409.07499999999999</v>
       </c>
-      <c r="E22" s="7">
+      <c r="E23" s="7">
         <v>29964.713</v>
       </c>
-      <c r="F22" s="7">
+      <c r="F23" s="7">
         <v>4217.625</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G23" s="8">
         <v>139.161</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="13">
+    <row r="24" spans="2:7">
+      <c r="B24" s="13">
         <v>2024</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E24" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F24" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G23" s="16">
+      <c r="G24" s="16">
         <v>153.113</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1">
-      <c r="B24" s="5">
+    <row r="25" spans="2:7" hidden="1">
+      <c r="B25" s="5">
         <v>2023</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C25" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D25" s="7">
         <v>488.09300000000002</v>
       </c>
-      <c r="E24" s="7">
+      <c r="E25" s="7">
         <v>35319.991999999998</v>
       </c>
-      <c r="F24" s="7">
+      <c r="F25" s="7">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G25" s="8">
         <v>164.172</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="9">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="9">
         <v>2023</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="C26" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D26" s="11">
         <v>394.346</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>32003.993999999999</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G25" s="12">
+      <c r="G26" s="12">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="5">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="5">
         <v>2023</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D27" s="7">
         <v>368.065</v>
       </c>
-      <c r="E26" s="7">
+      <c r="E27" s="7">
         <v>32478.357</v>
       </c>
-      <c r="F26" s="7">
+      <c r="F27" s="7">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G27" s="8">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="9">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="9">
         <v>2023</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C28" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D28" s="11">
         <v>370.30599999999998</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>30477.884999999998</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G28" s="12">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="5">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="5">
         <v>2023</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="7">
+      <c r="D29" s="7">
         <v>456.01799999999997</v>
       </c>
-      <c r="E28" s="7">
+      <c r="E29" s="7">
         <v>33366.624000000003</v>
       </c>
-      <c r="F28" s="7">
+      <c r="F29" s="7">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G29" s="8">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="9">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="9">
         <v>2023</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C30" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D30" s="11">
         <v>531.83299999999997</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>33987.230000000003</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G30" s="12">
         <v>172.745</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="5">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="5">
         <v>2023</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C31" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D31" s="7">
         <v>475.21</v>
       </c>
-      <c r="E30" s="7">
+      <c r="E31" s="7">
         <v>31519.437999999998</v>
       </c>
-      <c r="F30" s="7">
+      <c r="F31" s="7">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G31" s="8">
         <v>145.583</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="9">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="9">
         <v>2023</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C32" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D32" s="11">
         <v>497.62700000000001</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>32910.921000000002</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G31" s="12">
+      <c r="G32" s="12">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="5">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="5">
         <v>2023</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D32" s="7">
+      <c r="D33" s="7">
         <v>539.61699999999996</v>
       </c>
-      <c r="E32" s="7">
+      <c r="E33" s="7">
         <v>35421.288999999997</v>
       </c>
-      <c r="F32" s="7">
+      <c r="F33" s="7">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G32" s="8">
+      <c r="G33" s="8">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="9">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="9">
         <v>2023</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D34" s="11">
         <v>464.71800000000002</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>35141.546999999999</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G34" s="12">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="5">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="5">
         <v>2023</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C35" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="7">
+      <c r="D35" s="7">
         <v>401.17399999999998</v>
       </c>
-      <c r="E34" s="7">
+      <c r="E35" s="7">
         <v>31209.23</v>
       </c>
-      <c r="F34" s="7">
+      <c r="F35" s="7">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G34" s="8">
+      <c r="G35" s="8">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="13">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="13">
         <v>2023</v>
       </c>
-      <c r="C35" s="14" t="s">
+      <c r="C36" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="15">
+      <c r="D36" s="15">
         <v>441.50799999999998</v>
       </c>
-      <c r="E35" s="15">
+      <c r="E36" s="15">
         <v>34870.453000000001</v>
       </c>
-      <c r="F35" s="15">
+      <c r="F36" s="15">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G35" s="16">
+      <c r="G36" s="16">
         <v>151.53899999999999</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="5">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="5">
         <v>2022</v>
       </c>
-      <c r="C36" s="6" t="s">
+      <c r="C37" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="7">
+      <c r="D37" s="7">
         <v>512.87099999999998</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E37" s="7">
         <v>38501.050000000003</v>
       </c>
-      <c r="F36" s="7">
+      <c r="F37" s="7">
         <v>4908.8</v>
       </c>
-      <c r="G36" s="8">
+      <c r="G37" s="8">
         <v>171.16</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="9">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="9">
         <v>2022</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C38" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D38" s="11">
         <v>451.02</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>34154.199999999997</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>4276.0029999999997</v>
       </c>
-      <c r="G37" s="12">
+      <c r="G38" s="12">
         <v>139.89699999999999</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="5">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="5">
         <v>2022</v>
       </c>
-      <c r="C38" s="6" t="s">
+      <c r="C39" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="7">
+      <c r="D39" s="7">
         <v>439.971</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E39" s="7">
         <v>34450.745999999999</v>
       </c>
-      <c r="F38" s="7">
+      <c r="F39" s="7">
         <v>4350.5069999999996</v>
       </c>
-      <c r="G38" s="8">
+      <c r="G39" s="8">
         <v>156.35300000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="9">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="9">
         <v>2022</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C40" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D40" s="11">
         <v>424.685</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>32601.439999999999</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>4145.3370000000004</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G40" s="12">
         <v>177.417</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="5">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="5">
         <v>2022</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C41" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="7">
+      <c r="D41" s="7">
         <v>525.33500000000004</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E41" s="7">
         <v>35813.207999999999</v>
       </c>
-      <c r="F40" s="7">
+      <c r="F41" s="7">
         <v>4529.4679999999998</v>
       </c>
-      <c r="G40" s="8">
+      <c r="G41" s="8">
         <v>213.785</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="9">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="9">
         <v>2022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="C42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D42" s="11">
         <v>523.85500000000002</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>35363.866999999998</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>4441.1970000000001</v>
       </c>
-      <c r="G41" s="12">
+      <c r="G42" s="12">
         <v>209.011</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="5">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="5">
         <v>2022</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C43" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D42" s="7">
+      <c r="D43" s="7">
         <v>463.73399999999998</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E43" s="7">
         <v>32779.991999999998</v>
       </c>
-      <c r="F42" s="7">
+      <c r="F43" s="7">
         <v>4173.2569999999996</v>
       </c>
-      <c r="G42" s="8">
+      <c r="G43" s="8">
         <v>176.81700000000001</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="9">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="9">
         <v>2022</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C44" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D44" s="11">
         <v>483.18400000000003</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>34963.464</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>4469.723</v>
       </c>
-      <c r="G43" s="12">
+      <c r="G44" s="12">
         <v>181.625</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="5">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="5">
         <v>2022</v>
       </c>
-      <c r="C44" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D45" s="7">
         <v>521.03399999999999</v>
       </c>
-      <c r="E44" s="7">
+      <c r="E45" s="7">
         <v>36017.055999999997</v>
       </c>
-      <c r="F44" s="7">
+      <c r="F45" s="7">
         <v>4502.7659999999996</v>
       </c>
-      <c r="G44" s="8">
+      <c r="G45" s="8">
         <v>212.53299999999999</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="9">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="9">
         <v>2022</v>
       </c>
-      <c r="C45" s="10" t="s">
+      <c r="C46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D45" s="11">
+      <c r="D46" s="11">
         <v>456.17099999999999</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>34365.993999999999</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>4352.1899999999996</v>
       </c>
-      <c r="G45" s="12">
+      <c r="G46" s="12">
         <v>184.49799999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="5">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="5">
         <v>2022</v>
       </c>
-      <c r="C46" s="6" t="s">
+      <c r="C47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D46" s="7">
+      <c r="D47" s="7">
         <v>381.66</v>
       </c>
-      <c r="E46" s="7">
+      <c r="E47" s="7">
         <v>29630.498</v>
       </c>
-      <c r="F46" s="7">
+      <c r="F47" s="7">
         <v>3833.741</v>
       </c>
-      <c r="G46" s="8">
+      <c r="G47" s="8">
         <v>157.49</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="13">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="13">
         <v>2022</v>
       </c>
-      <c r="C47" s="14" t="s">
+      <c r="C48" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="15">
+      <c r="D48" s="15">
         <v>426.37700000000001</v>
       </c>
-      <c r="E47" s="15">
+      <c r="E48" s="15">
         <v>31649.644</v>
       </c>
-      <c r="F47" s="15">
+      <c r="F48" s="15">
         <v>4223.5990000000002</v>
       </c>
-      <c r="G47" s="16">
+      <c r="G48" s="16">
         <v>180.733</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="5">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="5">
         <v>2021</v>
       </c>
-      <c r="C48" s="6" t="s">
+      <c r="C49" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D48" s="7">
+      <c r="D49" s="7">
         <v>514.03599999999994</v>
       </c>
-      <c r="E48" s="7">
+      <c r="E49" s="7">
         <v>37201.106</v>
       </c>
-      <c r="F48" s="7">
+      <c r="F49" s="7">
         <v>4893.741</v>
       </c>
-      <c r="G48" s="8">
+      <c r="G49" s="8">
         <v>218.608</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="9">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="9">
         <v>2021</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D49" s="11">
+      <c r="D50" s="11">
         <v>461.517</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>32549.813999999998</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G49" s="12">
+      <c r="G50" s="12">
         <v>177.83799999999999</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="5">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="5">
         <v>2021</v>
       </c>
-      <c r="C50" s="6" t="s">
+      <c r="C51" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="7">
+      <c r="D51" s="7">
         <v>455.21</v>
       </c>
-      <c r="E50" s="7">
+      <c r="E51" s="7">
         <v>32099.216</v>
       </c>
-      <c r="F50" s="7">
+      <c r="F51" s="7">
         <v>4045.069</v>
       </c>
-      <c r="G50" s="8">
+      <c r="G51" s="8">
         <v>176.30600000000001</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="9">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="9">
         <v>2021</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C52" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D51" s="11">
+      <c r="D52" s="11">
         <v>408.52699999999999</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>28687.858</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>3746.69</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G52" s="12">
         <v>163.22200000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="5">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="5">
         <v>2021</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C53" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D52" s="7">
+      <c r="D53" s="7">
         <v>469.08100000000002</v>
       </c>
-      <c r="E52" s="7">
+      <c r="E53" s="7">
         <v>30438.67</v>
       </c>
-      <c r="F52" s="7">
+      <c r="F53" s="7">
         <v>3892.3710000000001</v>
       </c>
-      <c r="G52" s="8">
+      <c r="G53" s="8">
         <v>180.34800000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="9">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="9">
         <v>2021</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C54" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D53" s="11">
+      <c r="D54" s="11">
         <v>524.84100000000001</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>32172.151000000002</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>4009.8470000000002</v>
       </c>
-      <c r="G53" s="12">
+      <c r="G54" s="12">
         <v>186.44900000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="5">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="5">
         <v>2021</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C55" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D54" s="7">
+      <c r="D55" s="7">
         <v>463.21800000000002</v>
       </c>
-      <c r="E54" s="7">
+      <c r="E55" s="7">
         <v>29616.303</v>
       </c>
-      <c r="F54" s="7">
+      <c r="F55" s="7">
         <v>3807.3029999999999</v>
       </c>
-      <c r="G54" s="8">
+      <c r="G55" s="8">
         <v>165.71799999999999</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="9">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="9">
         <v>2021</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C56" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D56" s="11">
         <v>488.32</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>30992.569</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>4089.7649999999999</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G56" s="12">
         <v>176.37200000000001</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="5">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="5">
         <v>2021</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C57" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D56" s="7">
+      <c r="D57" s="7">
         <v>476.06900000000002</v>
       </c>
-      <c r="E56" s="7">
+      <c r="E57" s="7">
         <v>29808.262999999999</v>
       </c>
-      <c r="F56" s="7">
+      <c r="F57" s="7">
         <v>4068.723</v>
       </c>
-      <c r="G56" s="8">
+      <c r="G57" s="8">
         <v>178.23</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="9">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="9">
         <v>2021</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D58" s="11">
         <v>474.25599999999997</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>30111.498</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>4084.0520000000001</v>
       </c>
-      <c r="G57" s="12">
+      <c r="G58" s="12">
         <v>176.71700000000001</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="5">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="5">
         <v>2021</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C59" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="7">
+      <c r="D59" s="7">
         <v>370.416</v>
       </c>
-      <c r="E58" s="7">
+      <c r="E59" s="7">
         <v>24717.083999999999</v>
       </c>
-      <c r="F58" s="7">
+      <c r="F59" s="7">
         <v>3351.7269999999999</v>
       </c>
-      <c r="G58" s="8">
+      <c r="G59" s="8">
         <v>146.04900000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="13">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="13">
         <v>2021</v>
       </c>
-      <c r="C59" s="14" t="s">
+      <c r="C60" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D59" s="15">
+      <c r="D60" s="15">
         <v>426.60599999999999</v>
       </c>
-      <c r="E59" s="15">
+      <c r="E60" s="15">
         <v>26926.621999999999</v>
       </c>
-      <c r="F59" s="15">
+      <c r="F60" s="15">
         <v>3749.8069999999998</v>
       </c>
-      <c r="G59" s="16">
+      <c r="G60" s="16">
         <v>164.072</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="5">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="5">
         <v>2020</v>
       </c>
-      <c r="C60" s="6" t="s">
+      <c r="C61" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D60" s="7">
+      <c r="D61" s="7">
         <v>453.53300000000002</v>
       </c>
-      <c r="E60" s="7">
+      <c r="E61" s="7">
         <v>30609.962</v>
       </c>
-      <c r="F60" s="7">
+      <c r="F61" s="7">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G60" s="8">
+      <c r="G61" s="8">
         <v>174.196</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="9">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="9">
         <v>2020</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C62" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="11">
+      <c r="D62" s="11">
         <v>436.66899999999998</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>27289.054</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G61" s="12">
+      <c r="G62" s="12">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="5">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="5">
         <v>2020</v>
       </c>
-      <c r="C62" s="6" t="s">
+      <c r="C63" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D62" s="7">
+      <c r="D63" s="7">
         <v>442.13299999999998</v>
       </c>
-      <c r="E62" s="7">
+      <c r="E63" s="7">
         <v>25870.184000000001</v>
       </c>
-      <c r="F62" s="7">
+      <c r="F63" s="7">
         <v>3021.357</v>
       </c>
-      <c r="G62" s="8">
+      <c r="G63" s="8">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="9">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="9">
         <v>2020</v>
       </c>
-      <c r="C63" s="10" t="s">
+      <c r="C64" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D63" s="11">
+      <c r="D64" s="11">
         <v>280.45699999999999</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>24713.252</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G63" s="12">
+      <c r="G64" s="12">
         <v>147.232</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="5">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="5">
         <v>2020</v>
       </c>
-      <c r="C64" s="6" t="s">
+      <c r="C65" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D64" s="7">
+      <c r="D65" s="7">
         <v>283.22199999999998</v>
       </c>
-      <c r="E64" s="7">
+      <c r="E65" s="7">
         <v>25979.219000000001</v>
       </c>
-      <c r="F64" s="7">
+      <c r="F65" s="7">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G64" s="8">
+      <c r="G65" s="8">
         <v>150.471</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="9">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="9">
         <v>2020</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="C66" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D65" s="11">
+      <c r="D66" s="11">
         <v>269.73899999999998</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>25407.806</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>2717.212</v>
       </c>
-      <c r="G65" s="12">
+      <c r="G66" s="12">
         <v>246.255</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="5">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="5">
         <v>2020</v>
       </c>
-      <c r="C66" s="6" t="s">
+      <c r="C67" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D66" s="7">
+      <c r="D67" s="7">
         <v>223.602</v>
       </c>
-      <c r="E66" s="7">
+      <c r="E67" s="7">
         <v>21647.363000000001</v>
       </c>
-      <c r="F66" s="7">
+      <c r="F67" s="7">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G66" s="8">
+      <c r="G67" s="8">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="9">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="9">
         <v>2020</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="C68" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D67" s="11">
+      <c r="D68" s="11">
         <v>219.328</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>18766.822</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>2359.1</v>
       </c>
-      <c r="G67" s="12">
+      <c r="G68" s="12">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="5">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="5">
         <v>2020</v>
       </c>
-      <c r="C68" s="6" t="s">
+      <c r="C69" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D68" s="7">
+      <c r="D69" s="7">
         <v>200.2</v>
       </c>
-      <c r="E68" s="7">
+      <c r="E69" s="7">
         <v>18182.099999999999</v>
       </c>
-      <c r="F68" s="7">
+      <c r="F69" s="7">
         <v>2092.1</v>
       </c>
-      <c r="G68" s="8">
+      <c r="G69" s="8">
         <v>216.5</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="9">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="9">
         <v>2020</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="C70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="11">
+      <c r="D70" s="11">
         <v>369.5</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>27845.9</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>3344</v>
       </c>
-      <c r="G69" s="12">
+      <c r="G70" s="12">
         <v>353.5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="5">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="5">
         <v>2020</v>
       </c>
-      <c r="C70" s="6" t="s">
+      <c r="C71" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D70" s="7">
+      <c r="D71" s="7">
         <v>373.7</v>
       </c>
-      <c r="E70" s="7">
+      <c r="E71" s="7">
         <v>29173.4</v>
       </c>
-      <c r="F70" s="7">
+      <c r="F71" s="7">
         <v>3658</v>
       </c>
-      <c r="G70" s="8">
+      <c r="G71" s="8">
         <v>373.1</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="13">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="13">
         <v>2020</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C72" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D71" s="15">
+      <c r="D72" s="15">
         <v>433.4</v>
       </c>
-      <c r="E71" s="15">
+      <c r="E72" s="15">
         <v>31957</v>
       </c>
-      <c r="F71" s="15">
+      <c r="F72" s="15">
         <v>4056.2</v>
       </c>
-      <c r="G71" s="16">
+      <c r="G72" s="16">
         <v>401.6</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="5">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="5">
         <v>2019</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="C73" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D72" s="7">
+      <c r="D73" s="7">
         <v>455.09300000000002</v>
       </c>
-      <c r="E72" s="7">
+      <c r="E73" s="7">
         <v>35082.798999999999</v>
       </c>
-      <c r="F72" s="7">
+      <c r="F73" s="7">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G72" s="8">
+      <c r="G73" s="8">
         <v>418.029</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="9">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="9">
         <v>2019</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="C74" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D73" s="11">
+      <c r="D74" s="11">
         <v>420.3</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>31255.3</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G73" s="12">
+      <c r="G74" s="12">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="5">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="5">
         <v>2019</v>
       </c>
-      <c r="C74" s="6" t="s">
+      <c r="C75" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D74" s="7">
+      <c r="D75" s="7">
         <v>422.5</v>
       </c>
-      <c r="E74" s="7">
+      <c r="E75" s="7">
         <v>30483.200000000001</v>
       </c>
-      <c r="F74" s="7">
+      <c r="F75" s="7">
         <v>4041.7</v>
       </c>
-      <c r="G74" s="8">
+      <c r="G75" s="8">
         <v>372.6</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="9">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="9">
         <v>2019</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="C76" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D75" s="11">
+      <c r="D76" s="11">
         <v>417.5</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>29611.8</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>3780.9</v>
       </c>
-      <c r="G75" s="12">
+      <c r="G76" s="12">
         <v>350.9</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="5">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="5">
         <v>2019</v>
       </c>
-      <c r="C76" s="6" t="s">
+      <c r="C77" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D76" s="7">
+      <c r="D77" s="7">
         <v>501.78800000000001</v>
       </c>
-      <c r="E76" s="7">
+      <c r="E77" s="7">
         <v>32359.448</v>
       </c>
-      <c r="F76" s="7">
+      <c r="F77" s="7">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G76" s="8">
+      <c r="G77" s="8">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="9">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="9">
         <v>2019</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="C78" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D77" s="11">
+      <c r="D78" s="11">
         <v>550.20000000000005</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>31445</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>4176.5</v>
       </c>
-      <c r="G77" s="12">
+      <c r="G78" s="12">
         <v>387.9</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="5">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="5">
         <v>2019</v>
       </c>
-      <c r="C78" s="6" t="s">
+      <c r="C79" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D78" s="7">
+      <c r="D79" s="7">
         <v>448.2</v>
       </c>
-      <c r="E78" s="7">
+      <c r="E79" s="7">
         <v>27655.7</v>
       </c>
-      <c r="F78" s="7">
+      <c r="F79" s="7">
         <v>3945.6</v>
       </c>
-      <c r="G78" s="8">
+      <c r="G79" s="8">
         <v>399.8</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="9">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="9">
         <v>2019</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="C80" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D79" s="11">
+      <c r="D80" s="11">
         <v>465.8</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>29408.7</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>4092.5</v>
       </c>
-      <c r="G79" s="12">
+      <c r="G80" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="5">
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="5">
         <v>2019</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="C81" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D80" s="7">
+      <c r="D81" s="7">
         <v>522.9</v>
       </c>
-      <c r="E80" s="7">
+      <c r="E81" s="7">
         <v>30692.5</v>
       </c>
-      <c r="F80" s="7">
+      <c r="F81" s="7">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G80" s="8">
+      <c r="G81" s="8">
         <v>395.1</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="9">
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="9">
         <v>2019</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="C82" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D81" s="11">
+      <c r="D82" s="11">
         <v>434.2</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>30420.3</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>4089</v>
       </c>
-      <c r="G81" s="12">
+      <c r="G82" s="12">
         <v>444.1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="5">
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="5">
         <v>2019</v>
       </c>
-      <c r="C82" s="6" t="s">
+      <c r="C83" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D82" s="7">
+      <c r="D83" s="7">
         <v>366.4</v>
       </c>
-      <c r="E82" s="7">
+      <c r="E83" s="7">
         <v>26751.4</v>
       </c>
-      <c r="F82" s="7">
+      <c r="F83" s="7">
         <v>3694.2</v>
       </c>
-      <c r="G82" s="8">
+      <c r="G83" s="8">
         <v>414.7</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="13">
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="13">
         <v>2019</v>
       </c>
-      <c r="C83" s="14" t="s">
+      <c r="C84" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="15">
+      <c r="D84" s="15">
         <v>426</v>
       </c>
-      <c r="E83" s="15">
+      <c r="E84" s="15">
         <v>29892.9</v>
       </c>
-      <c r="F83" s="15">
+      <c r="F84" s="15">
         <v>4137.5</v>
       </c>
-      <c r="G83" s="16">
+      <c r="G84" s="16">
         <v>462.1</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="5">
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="5">
         <v>2018</v>
       </c>
-      <c r="C84" s="6" t="s">
+      <c r="C85" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D84" s="7">
+      <c r="D85" s="7">
         <v>509.3</v>
       </c>
-      <c r="E84" s="7">
+      <c r="E85" s="7">
         <v>34085.699999999997</v>
       </c>
-      <c r="F84" s="7">
+      <c r="F85" s="7">
         <v>4452.2</v>
       </c>
-      <c r="G84" s="8">
+      <c r="G85" s="8">
         <v>482.7</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="9">
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="9">
         <v>2018</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="C86" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D85" s="11">
+      <c r="D86" s="11">
         <v>435.2</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>30873.7</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>3933.1</v>
       </c>
-      <c r="G85" s="12">
+      <c r="G86" s="12">
         <v>445.1</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="5">
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="5">
         <v>2018</v>
       </c>
-      <c r="C86" s="6" t="s">
+      <c r="C87" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D86" s="7">
+      <c r="D87" s="7">
         <v>415.6</v>
       </c>
-      <c r="E86" s="7">
+      <c r="E87" s="7">
         <v>30548.6</v>
       </c>
-      <c r="F86" s="7">
+      <c r="F87" s="7">
         <v>3950.4</v>
       </c>
-      <c r="G86" s="8">
+      <c r="G87" s="8">
         <v>443.4</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="9">
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="9">
         <v>2018</v>
       </c>
-      <c r="C87" s="10" t="s">
+      <c r="C88" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D87" s="11">
+      <c r="D88" s="11">
         <v>395.9</v>
       </c>
-      <c r="E87" s="11">
+      <c r="E88" s="11">
         <v>29707.4</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F88" s="11">
         <v>3773.4</v>
       </c>
-      <c r="G87" s="12">
+      <c r="G88" s="12">
         <v>417.7</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="5">
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="5">
         <v>2018</v>
       </c>
-      <c r="C88" s="6" t="s">
+      <c r="C89" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D88" s="7">
+      <c r="D89" s="7">
         <v>491.1</v>
       </c>
-      <c r="E88" s="7">
+      <c r="E89" s="7">
         <v>32843.800000000003</v>
       </c>
-      <c r="F88" s="7">
+      <c r="F89" s="7">
         <v>4208</v>
       </c>
-      <c r="G88" s="8">
+      <c r="G89" s="8">
         <v>467.8</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="9">
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="9">
         <v>2018</v>
       </c>
-      <c r="C89" s="10" t="s">
+      <c r="C90" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D89" s="11">
+      <c r="D90" s="11">
         <v>547.9</v>
       </c>
-      <c r="E89" s="11">
+      <c r="E90" s="11">
         <v>34437.199999999997</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F90" s="11">
         <v>4331</v>
       </c>
-      <c r="G89" s="12">
+      <c r="G90" s="12">
         <v>474.3</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="5">
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="5">
         <v>2018</v>
       </c>
-      <c r="C90" s="6" t="s">
+      <c r="C91" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D90" s="7">
+      <c r="D91" s="7">
         <v>432.7</v>
       </c>
-      <c r="E90" s="7">
+      <c r="E91" s="7">
         <v>30803.9</v>
       </c>
-      <c r="F90" s="7">
+      <c r="F91" s="7">
         <v>4039.2</v>
       </c>
-      <c r="G90" s="8">
+      <c r="G91" s="8">
         <v>416.5</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="9">
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="9">
         <v>2018</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C92" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D91" s="11">
+      <c r="D92" s="11">
         <v>436.5</v>
       </c>
-      <c r="E91" s="11">
+      <c r="E92" s="11">
         <v>32434.6</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F92" s="11">
         <v>4224</v>
       </c>
-      <c r="G91" s="12">
+      <c r="G92" s="12">
         <v>445.4</v>
       </c>
-      <c r="H91" s="1"/>
-    </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="5">
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="5">
         <v>2018</v>
       </c>
-      <c r="C92" s="6" t="s">
+      <c r="C93" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D92" s="7">
+      <c r="D93" s="7">
         <v>477.7</v>
       </c>
-      <c r="E92" s="7">
+      <c r="E93" s="7">
         <v>32564.6</v>
       </c>
-      <c r="F92" s="7">
+      <c r="F93" s="7">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G92" s="8">
+      <c r="G93" s="8">
         <v>438.9</v>
       </c>
     </row>
-    <row r="93" spans="2:8" hidden="1">
-      <c r="B93" s="9">
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="9">
         <v>2018</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C94" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D93" s="11">
+      <c r="D94" s="11">
         <v>466.7</v>
       </c>
-      <c r="E93" s="11">
+      <c r="E94" s="11">
         <v>34233.9</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F94" s="11">
         <v>4359.2</v>
       </c>
-      <c r="G93" s="12">
+      <c r="G94" s="12">
         <v>444.7</v>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1">
-      <c r="B94" s="5">
+    <row r="95" spans="2:8" hidden="1">
+      <c r="B95" s="5">
         <v>2018</v>
       </c>
-      <c r="C94" s="6" t="s">
+      <c r="C95" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D94" s="7">
+      <c r="D95" s="7">
         <v>366.2</v>
       </c>
-      <c r="E94" s="7">
+      <c r="E95" s="7">
         <v>28790.1</v>
       </c>
-      <c r="F94" s="7">
+      <c r="F95" s="7">
         <v>3745.4</v>
       </c>
-      <c r="G94" s="8">
+      <c r="G95" s="8">
         <v>386.7</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1">
-      <c r="B95" s="9">
+    <row r="96" spans="2:8" hidden="1">
+      <c r="B96" s="9">
         <v>2018</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="11">
+      <c r="D96" s="11">
         <v>425.1</v>
       </c>
-      <c r="E95" s="11">
+      <c r="E96" s="11">
         <v>37208</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F96" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G95" s="12">
+      <c r="G96" s="12">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="96" spans="2:8">
-      <c r="B96" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="97" spans="2:7">
       <c r="B97" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E97" s="1"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G98" s="17"/>
-    </row>
-    <row r="99" spans="2:7">
       <c r="G99" s="17"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="G100" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Tran_Veh_CAPUFE.xlsx
+++ b/Tran_Veh_CAPUFE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\2-Infraestructura Carretera\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F9B7E4-17D6-49C9-A14F-BFCF9983DD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A9F0479-935E-439B-A674-6F2BBA674EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="28680" yWindow="2610" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_13" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>Fuente: CAPUFE. Caminos y Puentes Federales de Ingresos y Servicios Conexos.</t>
   </si>
@@ -113,7 +113,7 @@
     <t>Vehículos registrados en las casetas de CAPUFE 2025</t>
   </si>
   <si>
-    <t>Actualización: Julio 2025.</t>
+    <t>Actualización: Agosto 2025.</t>
   </si>
 </sst>
 </file>
@@ -560,8 +560,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G96" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G96" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}" name="Tabla1" displayName="Tabla1" ref="B5:G97" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G97" xr:uid="{A959E64A-0F56-4645-9238-C8017DAE8A9B}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -803,7 +803,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:H100"/>
+  <dimension ref="B2:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -865,1847 +865,1867 @@
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>2025</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="7">
+        <v>360.685</v>
+      </c>
+      <c r="E6" s="7">
+        <v>31756.39</v>
+      </c>
+      <c r="F6" s="7">
+        <v>4424.6469999999999</v>
+      </c>
+      <c r="G6" s="7">
+        <v>149.56299999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D7" s="11">
         <v>365.85</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>34632.449000000001</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>4369.473</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G7" s="12">
         <v>111.468</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="6">
+    <row r="8" spans="2:7">
+      <c r="B8" s="6">
         <v>2025</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D8" s="7">
         <v>322.83699999999999</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E8" s="7">
         <v>31758.236000000001</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F8" s="7">
         <v>3995.1260000000002</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G8" s="7">
         <v>123.852</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="9">
+    <row r="9" spans="2:7">
+      <c r="B9" s="9">
         <v>2025</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>333.65</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>34166.218999999997</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>4315</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G9" s="12">
         <v>127.7</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="6">
+    <row r="10" spans="2:7">
+      <c r="B10" s="6">
         <v>2025</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C10" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D10" s="7">
         <v>348.79300000000001</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E10" s="7">
         <v>34666.671000000002</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F10" s="7">
         <v>4434.4610000000002</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G10" s="7">
         <v>137.76900000000001</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="9">
+    <row r="11" spans="2:7">
+      <c r="B11" s="9">
         <v>2025</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D11" s="11">
         <v>352.50599999999997</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>33213.421999999999</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>4265.4579999999996</v>
       </c>
-      <c r="G10" s="12">
+      <c r="G11" s="12">
         <v>128.46100000000001</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="6">
+    <row r="12" spans="2:7">
+      <c r="B12" s="6">
         <v>2025</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D12" s="7">
         <v>297.39600000000002</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E12" s="7">
         <v>28913.167000000001</v>
       </c>
-      <c r="F11" s="7">
+      <c r="F12" s="7">
         <v>3785.3809999999999</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G12" s="7">
         <v>112.53700000000001</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="13">
+    <row r="13" spans="2:7">
+      <c r="B13" s="13">
         <v>2025</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D13" s="15">
         <v>360.34199999999998</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E13" s="15">
         <v>32096.201000000001</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F13" s="15">
         <v>4304.1899999999996</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G13" s="16">
         <v>128.77099999999999</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="5">
+    <row r="14" spans="2:7">
+      <c r="B14" s="5">
         <v>2024</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D14" s="7">
         <v>402.19099999999997</v>
       </c>
-      <c r="E13" s="7">
+      <c r="E14" s="7">
         <v>34960.345999999998</v>
       </c>
-      <c r="F13" s="7">
+      <c r="F14" s="7">
         <v>4694.4560000000001</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G14" s="8">
         <v>134.702</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="9">
+    <row r="15" spans="2:7">
+      <c r="B15" s="9">
         <v>2024</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="11">
+      <c r="D15" s="11">
         <v>364.15199999999999</v>
       </c>
-      <c r="E14" s="11">
+      <c r="E15" s="11">
         <v>32038.455999999998</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F15" s="11">
         <v>4263.375</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G15" s="12">
         <v>109.999</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5">
+    <row r="16" spans="2:7">
+      <c r="B16" s="5">
         <v>2024</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C16" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D16" s="7">
         <v>355.78699999999998</v>
       </c>
-      <c r="E15" s="7">
+      <c r="E16" s="7">
         <v>31588.615000000002</v>
       </c>
-      <c r="F15" s="7">
+      <c r="F16" s="7">
         <v>4204.5010000000002</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G16" s="8">
         <v>120.792</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="9">
+    <row r="17" spans="2:7">
+      <c r="B17" s="9">
         <v>2024</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C17" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11">
+      <c r="D17" s="11">
         <v>351.78899999999999</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E17" s="11">
         <v>30963.62</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F17" s="11">
         <v>4111.9309999999996</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>137.70099999999999</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5">
+    <row r="18" spans="2:7">
+      <c r="B18" s="5">
         <v>2024</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C18" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D18" s="7">
         <v>389.89299999999997</v>
       </c>
-      <c r="E17" s="7">
+      <c r="E18" s="7">
         <v>33124.082999999999</v>
       </c>
-      <c r="F17" s="7">
+      <c r="F18" s="7">
         <v>4596.1490000000003</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G18" s="8">
         <v>172.21100000000001</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="9">
+    <row r="19" spans="2:7">
+      <c r="B19" s="9">
         <v>2024</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C19" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D19" s="11">
         <v>391.33499999999998</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E19" s="11">
         <v>33301.133999999998</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F19" s="11">
         <v>4545.9170000000004</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>174.05799999999999</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="5">
+    <row r="20" spans="2:7">
+      <c r="B20" s="5">
         <v>2024</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D20" s="7">
         <v>359.08600000000001</v>
       </c>
-      <c r="E19" s="7">
+      <c r="E20" s="7">
         <v>30980.621999999999</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>4255.26</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G20" s="8">
         <v>140.30600000000001</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="9">
+    <row r="21" spans="2:7">
+      <c r="B21" s="9">
         <v>2024</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C21" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D21" s="11">
         <v>361.20299999999997</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E21" s="11">
         <v>32325.853999999999</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F21" s="11">
         <v>4561.924</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>147.22900000000001</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="5">
+    <row r="22" spans="2:7">
+      <c r="B22" s="5">
         <v>2024</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C22" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D22" s="7">
         <v>376.52499999999998</v>
       </c>
-      <c r="E21" s="7">
+      <c r="E22" s="7">
         <v>31932.16</v>
       </c>
-      <c r="F21" s="7">
+      <c r="F22" s="7">
         <v>4488.3909999999996</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G22" s="8">
         <v>157.15600000000001</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="9">
+    <row r="23" spans="2:7">
+      <c r="B23" s="9">
         <v>2024</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="11">
+      <c r="D23" s="11">
         <v>467.80599999999998</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E23" s="11">
         <v>33746.555</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F23" s="11">
         <v>4665.2489999999998</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>171.50399999999999</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="5">
+    <row r="24" spans="2:7">
+      <c r="B24" s="5">
         <v>2024</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D24" s="7">
         <v>409.07499999999999</v>
       </c>
-      <c r="E23" s="7">
+      <c r="E24" s="7">
         <v>29964.713</v>
       </c>
-      <c r="F23" s="7">
+      <c r="F24" s="7">
         <v>4217.625</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G24" s="8">
         <v>139.161</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="13">
+    <row r="25" spans="2:7">
+      <c r="B25" s="13">
         <v>2024</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D25" s="15">
         <v>442.11200000000002</v>
       </c>
-      <c r="E24" s="15">
+      <c r="E25" s="15">
         <v>32269.039000000001</v>
       </c>
-      <c r="F24" s="15">
+      <c r="F25" s="15">
         <v>4509.4449999999997</v>
       </c>
-      <c r="G24" s="16">
+      <c r="G25" s="16">
         <v>153.113</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1">
-      <c r="B25" s="5">
+    <row r="26" spans="2:7" hidden="1">
+      <c r="B26" s="5">
         <v>2023</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C26" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D26" s="7">
         <v>488.09300000000002</v>
       </c>
-      <c r="E25" s="7">
+      <c r="E26" s="7">
         <v>35319.991999999998</v>
       </c>
-      <c r="F25" s="7">
+      <c r="F26" s="7">
         <v>4725.9070000000002</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G26" s="8">
         <v>164.172</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1">
-      <c r="B26" s="9">
+    <row r="27" spans="2:7" hidden="1">
+      <c r="B27" s="9">
         <v>2023</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="C27" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D27" s="11">
         <v>394.346</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E27" s="11">
         <v>32003.993999999999</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F27" s="11">
         <v>4258.4870000000001</v>
       </c>
-      <c r="G26" s="12">
+      <c r="G27" s="12">
         <v>136.57900000000001</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1">
-      <c r="B27" s="5">
+    <row r="28" spans="2:7" hidden="1">
+      <c r="B28" s="5">
         <v>2023</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C28" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D28" s="7">
         <v>368.065</v>
       </c>
-      <c r="E27" s="7">
+      <c r="E28" s="7">
         <v>32478.357</v>
       </c>
-      <c r="F27" s="7">
+      <c r="F28" s="7">
         <v>4341.9660000000003</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G28" s="8">
         <v>138.56200000000001</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1">
-      <c r="B28" s="9">
+    <row r="29" spans="2:7" hidden="1">
+      <c r="B29" s="9">
         <v>2023</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C29" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D29" s="11">
         <v>370.30599999999998</v>
       </c>
-      <c r="E28" s="11">
+      <c r="E29" s="11">
         <v>30477.884999999998</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F29" s="11">
         <v>4292.0969999999998</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>140.12700000000001</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1">
-      <c r="B29" s="5">
+    <row r="30" spans="2:7" hidden="1">
+      <c r="B30" s="5">
         <v>2023</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="7">
+      <c r="D30" s="7">
         <v>456.01799999999997</v>
       </c>
-      <c r="E29" s="7">
+      <c r="E30" s="7">
         <v>33366.624000000003</v>
       </c>
-      <c r="F29" s="7">
+      <c r="F30" s="7">
         <v>4656.7849999999999</v>
       </c>
-      <c r="G29" s="8">
+      <c r="G30" s="8">
         <v>170.30199999999999</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1">
-      <c r="B30" s="9">
+    <row r="31" spans="2:7" hidden="1">
+      <c r="B31" s="9">
         <v>2023</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D31" s="11">
         <v>531.83299999999997</v>
       </c>
-      <c r="E30" s="11">
+      <c r="E31" s="11">
         <v>33987.230000000003</v>
       </c>
-      <c r="F30" s="11">
+      <c r="F31" s="11">
         <v>4606.6930000000002</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>172.745</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1">
-      <c r="B31" s="5">
+    <row r="32" spans="2:7" hidden="1">
+      <c r="B32" s="5">
         <v>2023</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C32" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D32" s="7">
         <v>475.21</v>
       </c>
-      <c r="E31" s="7">
+      <c r="E32" s="7">
         <v>31519.437999999998</v>
       </c>
-      <c r="F31" s="7">
+      <c r="F32" s="7">
         <v>4350.6379999999999</v>
       </c>
-      <c r="G31" s="8">
+      <c r="G32" s="8">
         <v>145.583</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1">
-      <c r="B32" s="9">
+    <row r="33" spans="2:7" hidden="1">
+      <c r="B33" s="9">
         <v>2023</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C33" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D33" s="11">
         <v>497.62700000000001</v>
       </c>
-      <c r="E32" s="11">
+      <c r="E33" s="11">
         <v>32910.921000000002</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F33" s="11">
         <v>4572.6980000000003</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>149.45699999999999</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1">
-      <c r="B33" s="5">
+    <row r="34" spans="2:7" hidden="1">
+      <c r="B34" s="5">
         <v>2023</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C34" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="7">
+      <c r="D34" s="7">
         <v>539.61699999999996</v>
       </c>
-      <c r="E33" s="7">
+      <c r="E34" s="7">
         <v>35421.288999999997</v>
       </c>
-      <c r="F33" s="7">
+      <c r="F34" s="7">
         <v>4746.9679999999998</v>
       </c>
-      <c r="G33" s="8">
+      <c r="G34" s="8">
         <v>172.00700000000001</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1">
-      <c r="B34" s="9">
+    <row r="35" spans="2:7" hidden="1">
+      <c r="B35" s="9">
         <v>2023</v>
       </c>
-      <c r="C34" s="10" t="s">
+      <c r="C35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="11">
+      <c r="D35" s="11">
         <v>464.71800000000002</v>
       </c>
-      <c r="E34" s="11">
+      <c r="E35" s="11">
         <v>35141.546999999999</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F35" s="11">
         <v>4672.5389999999998</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>148.74100000000001</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1">
-      <c r="B35" s="5">
+    <row r="36" spans="2:7" hidden="1">
+      <c r="B36" s="5">
         <v>2023</v>
       </c>
-      <c r="C35" s="6" t="s">
+      <c r="C36" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="7">
+      <c r="D36" s="7">
         <v>401.17399999999998</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E36" s="7">
         <v>31209.23</v>
       </c>
-      <c r="F35" s="7">
+      <c r="F36" s="7">
         <v>4142.9189999999999</v>
       </c>
-      <c r="G35" s="8">
+      <c r="G36" s="8">
         <v>129.12200000000001</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1">
-      <c r="B36" s="13">
+    <row r="37" spans="2:7" hidden="1">
+      <c r="B37" s="13">
         <v>2023</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C37" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="15">
+      <c r="D37" s="15">
         <v>441.50799999999998</v>
       </c>
-      <c r="E36" s="15">
+      <c r="E37" s="15">
         <v>34870.453000000001</v>
       </c>
-      <c r="F36" s="15">
+      <c r="F37" s="15">
         <v>4496.6840000000002</v>
       </c>
-      <c r="G36" s="16">
+      <c r="G37" s="16">
         <v>151.53899999999999</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1">
-      <c r="B37" s="5">
+    <row r="38" spans="2:7" hidden="1">
+      <c r="B38" s="5">
         <v>2022</v>
       </c>
-      <c r="C37" s="6" t="s">
+      <c r="C38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="7">
+      <c r="D38" s="7">
         <v>512.87099999999998</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E38" s="7">
         <v>38501.050000000003</v>
       </c>
-      <c r="F37" s="7">
+      <c r="F38" s="7">
         <v>4908.8</v>
       </c>
-      <c r="G37" s="8">
+      <c r="G38" s="8">
         <v>171.16</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1">
-      <c r="B38" s="9">
+    <row r="39" spans="2:7" hidden="1">
+      <c r="B39" s="9">
         <v>2022</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D39" s="11">
         <v>451.02</v>
       </c>
-      <c r="E38" s="11">
+      <c r="E39" s="11">
         <v>34154.199999999997</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F39" s="11">
         <v>4276.0029999999997</v>
       </c>
-      <c r="G38" s="12">
+      <c r="G39" s="12">
         <v>139.89699999999999</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1">
-      <c r="B39" s="5">
+    <row r="40" spans="2:7" hidden="1">
+      <c r="B40" s="5">
         <v>2022</v>
       </c>
-      <c r="C39" s="6" t="s">
+      <c r="C40" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="7">
+      <c r="D40" s="7">
         <v>439.971</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E40" s="7">
         <v>34450.745999999999</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F40" s="7">
         <v>4350.5069999999996</v>
       </c>
-      <c r="G39" s="8">
+      <c r="G40" s="8">
         <v>156.35300000000001</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1">
-      <c r="B40" s="9">
+    <row r="41" spans="2:7" hidden="1">
+      <c r="B41" s="9">
         <v>2022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D41" s="11">
         <v>424.685</v>
       </c>
-      <c r="E40" s="11">
+      <c r="E41" s="11">
         <v>32601.439999999999</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F41" s="11">
         <v>4145.3370000000004</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>177.417</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1">
-      <c r="B41" s="5">
+    <row r="42" spans="2:7" hidden="1">
+      <c r="B42" s="5">
         <v>2022</v>
       </c>
-      <c r="C41" s="6" t="s">
+      <c r="C42" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="7">
+      <c r="D42" s="7">
         <v>525.33500000000004</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E42" s="7">
         <v>35813.207999999999</v>
       </c>
-      <c r="F41" s="7">
+      <c r="F42" s="7">
         <v>4529.4679999999998</v>
       </c>
-      <c r="G41" s="8">
+      <c r="G42" s="8">
         <v>213.785</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1">
-      <c r="B42" s="9">
+    <row r="43" spans="2:7" hidden="1">
+      <c r="B43" s="9">
         <v>2022</v>
       </c>
-      <c r="C42" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D43" s="11">
         <v>523.85500000000002</v>
       </c>
-      <c r="E42" s="11">
+      <c r="E43" s="11">
         <v>35363.866999999998</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F43" s="11">
         <v>4441.1970000000001</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>209.011</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1">
-      <c r="B43" s="5">
+    <row r="44" spans="2:7" hidden="1">
+      <c r="B44" s="5">
         <v>2022</v>
       </c>
-      <c r="C43" s="6" t="s">
+      <c r="C44" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="7">
+      <c r="D44" s="7">
         <v>463.73399999999998</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E44" s="7">
         <v>32779.991999999998</v>
       </c>
-      <c r="F43" s="7">
+      <c r="F44" s="7">
         <v>4173.2569999999996</v>
       </c>
-      <c r="G43" s="8">
+      <c r="G44" s="8">
         <v>176.81700000000001</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1">
-      <c r="B44" s="9">
+    <row r="45" spans="2:7" hidden="1">
+      <c r="B45" s="9">
         <v>2022</v>
       </c>
-      <c r="C44" s="10" t="s">
+      <c r="C45" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="11">
+      <c r="D45" s="11">
         <v>483.18400000000003</v>
       </c>
-      <c r="E44" s="11">
+      <c r="E45" s="11">
         <v>34963.464</v>
       </c>
-      <c r="F44" s="11">
+      <c r="F45" s="11">
         <v>4469.723</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>181.625</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1">
-      <c r="B45" s="5">
+    <row r="46" spans="2:7" hidden="1">
+      <c r="B46" s="5">
         <v>2022</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C46" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="7">
+      <c r="D46" s="7">
         <v>521.03399999999999</v>
       </c>
-      <c r="E45" s="7">
+      <c r="E46" s="7">
         <v>36017.055999999997</v>
       </c>
-      <c r="F45" s="7">
+      <c r="F46" s="7">
         <v>4502.7659999999996</v>
       </c>
-      <c r="G45" s="8">
+      <c r="G46" s="8">
         <v>212.53299999999999</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1">
-      <c r="B46" s="9">
+    <row r="47" spans="2:7" hidden="1">
+      <c r="B47" s="9">
         <v>2022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="11">
+      <c r="D47" s="11">
         <v>456.17099999999999</v>
       </c>
-      <c r="E46" s="11">
+      <c r="E47" s="11">
         <v>34365.993999999999</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F47" s="11">
         <v>4352.1899999999996</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>184.49799999999999</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1">
-      <c r="B47" s="5">
+    <row r="48" spans="2:7" hidden="1">
+      <c r="B48" s="5">
         <v>2022</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C48" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="7">
+      <c r="D48" s="7">
         <v>381.66</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E48" s="7">
         <v>29630.498</v>
       </c>
-      <c r="F47" s="7">
+      <c r="F48" s="7">
         <v>3833.741</v>
       </c>
-      <c r="G47" s="8">
+      <c r="G48" s="8">
         <v>157.49</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1">
-      <c r="B48" s="13">
+    <row r="49" spans="2:7" hidden="1">
+      <c r="B49" s="13">
         <v>2022</v>
       </c>
-      <c r="C48" s="14" t="s">
+      <c r="C49" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="15">
+      <c r="D49" s="15">
         <v>426.37700000000001</v>
       </c>
-      <c r="E48" s="15">
+      <c r="E49" s="15">
         <v>31649.644</v>
       </c>
-      <c r="F48" s="15">
+      <c r="F49" s="15">
         <v>4223.5990000000002</v>
       </c>
-      <c r="G48" s="16">
+      <c r="G49" s="16">
         <v>180.733</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1">
-      <c r="B49" s="5">
+    <row r="50" spans="2:7" hidden="1">
+      <c r="B50" s="5">
         <v>2021</v>
       </c>
-      <c r="C49" s="6" t="s">
+      <c r="C50" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="7">
+      <c r="D50" s="7">
         <v>514.03599999999994</v>
       </c>
-      <c r="E49" s="7">
+      <c r="E50" s="7">
         <v>37201.106</v>
       </c>
-      <c r="F49" s="7">
+      <c r="F50" s="7">
         <v>4893.741</v>
       </c>
-      <c r="G49" s="8">
+      <c r="G50" s="8">
         <v>218.608</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1">
-      <c r="B50" s="9">
+    <row r="51" spans="2:7" hidden="1">
+      <c r="B51" s="9">
         <v>2021</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="C51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="11">
+      <c r="D51" s="11">
         <v>461.517</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E51" s="11">
         <v>32549.813999999998</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F51" s="11">
         <v>4190.9080000000004</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G51" s="12">
         <v>177.83799999999999</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1">
-      <c r="B51" s="5">
+    <row r="52" spans="2:7" hidden="1">
+      <c r="B52" s="5">
         <v>2021</v>
       </c>
-      <c r="C51" s="6" t="s">
+      <c r="C52" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="7">
+      <c r="D52" s="7">
         <v>455.21</v>
       </c>
-      <c r="E51" s="7">
+      <c r="E52" s="7">
         <v>32099.216</v>
       </c>
-      <c r="F51" s="7">
+      <c r="F52" s="7">
         <v>4045.069</v>
       </c>
-      <c r="G51" s="8">
+      <c r="G52" s="8">
         <v>176.30600000000001</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1">
-      <c r="B52" s="9">
+    <row r="53" spans="2:7" hidden="1">
+      <c r="B53" s="9">
         <v>2021</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="11">
+      <c r="D53" s="11">
         <v>408.52699999999999</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E53" s="11">
         <v>28687.858</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F53" s="11">
         <v>3746.69</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>163.22200000000001</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1">
-      <c r="B53" s="5">
+    <row r="54" spans="2:7" hidden="1">
+      <c r="B54" s="5">
         <v>2021</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C54" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="7">
+      <c r="D54" s="7">
         <v>469.08100000000002</v>
       </c>
-      <c r="E53" s="7">
+      <c r="E54" s="7">
         <v>30438.67</v>
       </c>
-      <c r="F53" s="7">
+      <c r="F54" s="7">
         <v>3892.3710000000001</v>
       </c>
-      <c r="G53" s="8">
+      <c r="G54" s="8">
         <v>180.34800000000001</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1">
-      <c r="B54" s="9">
+    <row r="55" spans="2:7" hidden="1">
+      <c r="B55" s="9">
         <v>2021</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C55" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D54" s="11">
+      <c r="D55" s="11">
         <v>524.84100000000001</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E55" s="11">
         <v>32172.151000000002</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F55" s="11">
         <v>4009.8470000000002</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>186.44900000000001</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1">
-      <c r="B55" s="5">
+    <row r="56" spans="2:7" hidden="1">
+      <c r="B56" s="5">
         <v>2021</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C56" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="7">
+      <c r="D56" s="7">
         <v>463.21800000000002</v>
       </c>
-      <c r="E55" s="7">
+      <c r="E56" s="7">
         <v>29616.303</v>
       </c>
-      <c r="F55" s="7">
+      <c r="F56" s="7">
         <v>3807.3029999999999</v>
       </c>
-      <c r="G55" s="8">
+      <c r="G56" s="8">
         <v>165.71799999999999</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1">
-      <c r="B56" s="9">
+    <row r="57" spans="2:7" hidden="1">
+      <c r="B57" s="9">
         <v>2021</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C57" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D57" s="11">
         <v>488.32</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E57" s="11">
         <v>30992.569</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F57" s="11">
         <v>4089.7649999999999</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>176.37200000000001</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1">
-      <c r="B57" s="5">
+    <row r="58" spans="2:7" hidden="1">
+      <c r="B58" s="5">
         <v>2021</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C58" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="7">
+      <c r="D58" s="7">
         <v>476.06900000000002</v>
       </c>
-      <c r="E57" s="7">
+      <c r="E58" s="7">
         <v>29808.262999999999</v>
       </c>
-      <c r="F57" s="7">
+      <c r="F58" s="7">
         <v>4068.723</v>
       </c>
-      <c r="G57" s="8">
+      <c r="G58" s="8">
         <v>178.23</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1">
-      <c r="B58" s="9">
+    <row r="59" spans="2:7" hidden="1">
+      <c r="B59" s="9">
         <v>2021</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="11">
+      <c r="D59" s="11">
         <v>474.25599999999997</v>
       </c>
-      <c r="E58" s="11">
+      <c r="E59" s="11">
         <v>30111.498</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F59" s="11">
         <v>4084.0520000000001</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>176.71700000000001</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1">
-      <c r="B59" s="5">
+    <row r="60" spans="2:7" hidden="1">
+      <c r="B60" s="5">
         <v>2021</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C60" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="7">
         <v>370.416</v>
       </c>
-      <c r="E59" s="7">
+      <c r="E60" s="7">
         <v>24717.083999999999</v>
       </c>
-      <c r="F59" s="7">
+      <c r="F60" s="7">
         <v>3351.7269999999999</v>
       </c>
-      <c r="G59" s="8">
+      <c r="G60" s="8">
         <v>146.04900000000001</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1">
-      <c r="B60" s="13">
+    <row r="61" spans="2:7" hidden="1">
+      <c r="B61" s="13">
         <v>2021</v>
       </c>
-      <c r="C60" s="14" t="s">
+      <c r="C61" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="15">
+      <c r="D61" s="15">
         <v>426.60599999999999</v>
       </c>
-      <c r="E60" s="15">
+      <c r="E61" s="15">
         <v>26926.621999999999</v>
       </c>
-      <c r="F60" s="15">
+      <c r="F61" s="15">
         <v>3749.8069999999998</v>
       </c>
-      <c r="G60" s="16">
+      <c r="G61" s="16">
         <v>164.072</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1">
-      <c r="B61" s="5">
+    <row r="62" spans="2:7" hidden="1">
+      <c r="B62" s="5">
         <v>2020</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="C62" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="7">
+      <c r="D62" s="7">
         <v>453.53300000000002</v>
       </c>
-      <c r="E61" s="7">
+      <c r="E62" s="7">
         <v>30609.962</v>
       </c>
-      <c r="F61" s="7">
+      <c r="F62" s="7">
         <v>3963.3319999999999</v>
       </c>
-      <c r="G61" s="8">
+      <c r="G62" s="8">
         <v>174.196</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1">
-      <c r="B62" s="9">
+    <row r="63" spans="2:7" hidden="1">
+      <c r="B63" s="9">
         <v>2020</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="C63" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="11">
+      <c r="D63" s="11">
         <v>436.66899999999998</v>
       </c>
-      <c r="E62" s="11">
+      <c r="E63" s="11">
         <v>27289.054</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F63" s="11">
         <v>3012.3870000000002</v>
       </c>
-      <c r="G62" s="12">
+      <c r="G63" s="12">
         <v>140.91200000000001</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1">
-      <c r="B63" s="5">
+    <row r="64" spans="2:7" hidden="1">
+      <c r="B64" s="5">
         <v>2020</v>
       </c>
-      <c r="C63" s="6" t="s">
+      <c r="C64" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="7">
+      <c r="D64" s="7">
         <v>442.13299999999998</v>
       </c>
-      <c r="E63" s="7">
+      <c r="E64" s="7">
         <v>25870.184000000001</v>
       </c>
-      <c r="F63" s="7">
+      <c r="F64" s="7">
         <v>3021.357</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G64" s="8">
         <v>146.08799999999999</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1">
-      <c r="B64" s="9">
+    <row r="65" spans="2:7" hidden="1">
+      <c r="B65" s="9">
         <v>2020</v>
       </c>
-      <c r="C64" s="10" t="s">
+      <c r="C65" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="11">
+      <c r="D65" s="11">
         <v>280.45699999999999</v>
       </c>
-      <c r="E64" s="11">
+      <c r="E65" s="11">
         <v>24713.252</v>
       </c>
-      <c r="F64" s="11">
+      <c r="F65" s="11">
         <v>2734.0430000000001</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>147.232</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1">
-      <c r="B65" s="5">
+    <row r="66" spans="2:7" hidden="1">
+      <c r="B66" s="5">
         <v>2020</v>
       </c>
-      <c r="C65" s="6" t="s">
+      <c r="C66" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="7">
+      <c r="D66" s="7">
         <v>283.22199999999998</v>
       </c>
-      <c r="E65" s="7">
+      <c r="E66" s="7">
         <v>25979.219000000001</v>
       </c>
-      <c r="F65" s="7">
+      <c r="F66" s="7">
         <v>2808.5569999999998</v>
       </c>
-      <c r="G65" s="8">
+      <c r="G66" s="8">
         <v>150.471</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1">
-      <c r="B66" s="9">
+    <row r="67" spans="2:7" hidden="1">
+      <c r="B67" s="9">
         <v>2020</v>
       </c>
-      <c r="C66" s="10" t="s">
+      <c r="C67" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D66" s="11">
+      <c r="D67" s="11">
         <v>269.73899999999998</v>
       </c>
-      <c r="E66" s="11">
+      <c r="E67" s="11">
         <v>25407.806</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F67" s="11">
         <v>2717.212</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>246.255</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1">
-      <c r="B67" s="5">
+    <row r="68" spans="2:7" hidden="1">
+      <c r="B68" s="5">
         <v>2020</v>
       </c>
-      <c r="C67" s="6" t="s">
+      <c r="C68" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="7">
+      <c r="D68" s="7">
         <v>223.602</v>
       </c>
-      <c r="E67" s="7">
+      <c r="E68" s="7">
         <v>21647.363000000001</v>
       </c>
-      <c r="F67" s="7">
+      <c r="F68" s="7">
         <v>2554.5659999999998</v>
       </c>
-      <c r="G67" s="8">
+      <c r="G68" s="8">
         <v>296.74700000000001</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1">
-      <c r="B68" s="9">
+    <row r="69" spans="2:7" hidden="1">
+      <c r="B69" s="9">
         <v>2020</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="C69" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="11">
+      <c r="D69" s="11">
         <v>219.328</v>
       </c>
-      <c r="E68" s="11">
+      <c r="E69" s="11">
         <v>18766.822</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F69" s="11">
         <v>2359.1</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>260.01499999999999</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1">
-      <c r="B69" s="5">
+    <row r="70" spans="2:7" hidden="1">
+      <c r="B70" s="5">
         <v>2020</v>
       </c>
-      <c r="C69" s="6" t="s">
+      <c r="C70" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="7">
+      <c r="D70" s="7">
         <v>200.2</v>
       </c>
-      <c r="E69" s="7">
+      <c r="E70" s="7">
         <v>18182.099999999999</v>
       </c>
-      <c r="F69" s="7">
+      <c r="F70" s="7">
         <v>2092.1</v>
       </c>
-      <c r="G69" s="8">
+      <c r="G70" s="8">
         <v>216.5</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1">
-      <c r="B70" s="9">
+    <row r="71" spans="2:7" hidden="1">
+      <c r="B71" s="9">
         <v>2020</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="C71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="11">
+      <c r="D71" s="11">
         <v>369.5</v>
       </c>
-      <c r="E70" s="11">
+      <c r="E71" s="11">
         <v>27845.9</v>
       </c>
-      <c r="F70" s="11">
+      <c r="F71" s="11">
         <v>3344</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>353.5</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1">
-      <c r="B71" s="5">
+    <row r="72" spans="2:7" hidden="1">
+      <c r="B72" s="5">
         <v>2020</v>
       </c>
-      <c r="C71" s="6" t="s">
+      <c r="C72" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="7">
+      <c r="D72" s="7">
         <v>373.7</v>
       </c>
-      <c r="E71" s="7">
+      <c r="E72" s="7">
         <v>29173.4</v>
       </c>
-      <c r="F71" s="7">
+      <c r="F72" s="7">
         <v>3658</v>
       </c>
-      <c r="G71" s="8">
+      <c r="G72" s="8">
         <v>373.1</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1">
-      <c r="B72" s="13">
+    <row r="73" spans="2:7" hidden="1">
+      <c r="B73" s="13">
         <v>2020</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C73" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="15">
+      <c r="D73" s="15">
         <v>433.4</v>
       </c>
-      <c r="E72" s="15">
+      <c r="E73" s="15">
         <v>31957</v>
       </c>
-      <c r="F72" s="15">
+      <c r="F73" s="15">
         <v>4056.2</v>
       </c>
-      <c r="G72" s="16">
+      <c r="G73" s="16">
         <v>401.6</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1">
-      <c r="B73" s="5">
+    <row r="74" spans="2:7" hidden="1">
+      <c r="B74" s="5">
         <v>2019</v>
       </c>
-      <c r="C73" s="6" t="s">
+      <c r="C74" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="7">
+      <c r="D74" s="7">
         <v>455.09300000000002</v>
       </c>
-      <c r="E73" s="7">
+      <c r="E74" s="7">
         <v>35082.798999999999</v>
       </c>
-      <c r="F73" s="7">
+      <c r="F74" s="7">
         <v>4535.5079999999998</v>
       </c>
-      <c r="G73" s="8">
+      <c r="G74" s="8">
         <v>418.029</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1">
-      <c r="B74" s="9">
+    <row r="75" spans="2:7" hidden="1">
+      <c r="B75" s="9">
         <v>2019</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="C75" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="11">
+      <c r="D75" s="11">
         <v>420.3</v>
       </c>
-      <c r="E74" s="11">
+      <c r="E75" s="11">
         <v>31255.3</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F75" s="11">
         <v>3947.5929999999998</v>
       </c>
-      <c r="G74" s="12">
+      <c r="G75" s="12">
         <v>371.54300000000001</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1">
-      <c r="B75" s="5">
+    <row r="76" spans="2:7" hidden="1">
+      <c r="B76" s="5">
         <v>2019</v>
       </c>
-      <c r="C75" s="6" t="s">
+      <c r="C76" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="7">
+      <c r="D76" s="7">
         <v>422.5</v>
       </c>
-      <c r="E75" s="7">
+      <c r="E76" s="7">
         <v>30483.200000000001</v>
       </c>
-      <c r="F75" s="7">
+      <c r="F76" s="7">
         <v>4041.7</v>
       </c>
-      <c r="G75" s="8">
+      <c r="G76" s="8">
         <v>372.6</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1">
-      <c r="B76" s="9">
+    <row r="77" spans="2:7" hidden="1">
+      <c r="B77" s="9">
         <v>2019</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="C77" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="11">
+      <c r="D77" s="11">
         <v>417.5</v>
       </c>
-      <c r="E76" s="11">
+      <c r="E77" s="11">
         <v>29611.8</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F77" s="11">
         <v>3780.9</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>350.9</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1">
-      <c r="B77" s="5">
+    <row r="78" spans="2:7" hidden="1">
+      <c r="B78" s="5">
         <v>2019</v>
       </c>
-      <c r="C77" s="6" t="s">
+      <c r="C78" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="7">
+      <c r="D78" s="7">
         <v>501.78800000000001</v>
       </c>
-      <c r="E77" s="7">
+      <c r="E78" s="7">
         <v>32359.448</v>
       </c>
-      <c r="F77" s="7">
+      <c r="F78" s="7">
         <v>4102.3819999999996</v>
       </c>
-      <c r="G77" s="8">
+      <c r="G78" s="8">
         <v>390.57499999999999</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1">
-      <c r="B78" s="9">
+    <row r="79" spans="2:7" hidden="1">
+      <c r="B79" s="9">
         <v>2019</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="C79" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D78" s="11">
+      <c r="D79" s="11">
         <v>550.20000000000005</v>
       </c>
-      <c r="E78" s="11">
+      <c r="E79" s="11">
         <v>31445</v>
       </c>
-      <c r="F78" s="11">
+      <c r="F79" s="11">
         <v>4176.5</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>387.9</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1">
-      <c r="B79" s="5">
+    <row r="80" spans="2:7" hidden="1">
+      <c r="B80" s="5">
         <v>2019</v>
       </c>
-      <c r="C79" s="6" t="s">
+      <c r="C80" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="7">
+      <c r="D80" s="7">
         <v>448.2</v>
       </c>
-      <c r="E79" s="7">
+      <c r="E80" s="7">
         <v>27655.7</v>
       </c>
-      <c r="F79" s="7">
+      <c r="F80" s="7">
         <v>3945.6</v>
       </c>
-      <c r="G79" s="8">
+      <c r="G80" s="8">
         <v>399.8</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1">
-      <c r="B80" s="9">
+    <row r="81" spans="2:8" hidden="1">
+      <c r="B81" s="9">
         <v>2019</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="C81" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="11">
+      <c r="D81" s="11">
         <v>465.8</v>
       </c>
-      <c r="E80" s="11">
+      <c r="E81" s="11">
         <v>29408.7</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F81" s="11">
         <v>4092.5</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>400</v>
       </c>
     </row>
-    <row r="81" spans="2:8" hidden="1">
-      <c r="B81" s="5">
+    <row r="82" spans="2:8" hidden="1">
+      <c r="B82" s="5">
         <v>2019</v>
       </c>
-      <c r="C81" s="6" t="s">
+      <c r="C82" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="7">
+      <c r="D82" s="7">
         <v>522.9</v>
       </c>
-      <c r="E81" s="7">
+      <c r="E82" s="7">
         <v>30692.5</v>
       </c>
-      <c r="F81" s="7">
+      <c r="F82" s="7">
         <v>4139.6000000000004</v>
       </c>
-      <c r="G81" s="8">
+      <c r="G82" s="8">
         <v>395.1</v>
       </c>
     </row>
-    <row r="82" spans="2:8" hidden="1">
-      <c r="B82" s="9">
+    <row r="83" spans="2:8" hidden="1">
+      <c r="B83" s="9">
         <v>2019</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="C83" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="11">
+      <c r="D83" s="11">
         <v>434.2</v>
       </c>
-      <c r="E82" s="11">
+      <c r="E83" s="11">
         <v>30420.3</v>
       </c>
-      <c r="F82" s="11">
+      <c r="F83" s="11">
         <v>4089</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>444.1</v>
       </c>
     </row>
-    <row r="83" spans="2:8" hidden="1">
-      <c r="B83" s="5">
+    <row r="84" spans="2:8" hidden="1">
+      <c r="B84" s="5">
         <v>2019</v>
       </c>
-      <c r="C83" s="6" t="s">
+      <c r="C84" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="7">
+      <c r="D84" s="7">
         <v>366.4</v>
       </c>
-      <c r="E83" s="7">
+      <c r="E84" s="7">
         <v>26751.4</v>
       </c>
-      <c r="F83" s="7">
+      <c r="F84" s="7">
         <v>3694.2</v>
       </c>
-      <c r="G83" s="8">
+      <c r="G84" s="8">
         <v>414.7</v>
       </c>
     </row>
-    <row r="84" spans="2:8" hidden="1">
-      <c r="B84" s="13">
+    <row r="85" spans="2:8" hidden="1">
+      <c r="B85" s="13">
         <v>2019</v>
       </c>
-      <c r="C84" s="14" t="s">
+      <c r="C85" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="15">
+      <c r="D85" s="15">
         <v>426</v>
       </c>
-      <c r="E84" s="15">
+      <c r="E85" s="15">
         <v>29892.9</v>
       </c>
-      <c r="F84" s="15">
+      <c r="F85" s="15">
         <v>4137.5</v>
       </c>
-      <c r="G84" s="16">
+      <c r="G85" s="16">
         <v>462.1</v>
       </c>
     </row>
-    <row r="85" spans="2:8" hidden="1">
-      <c r="B85" s="5">
+    <row r="86" spans="2:8" hidden="1">
+      <c r="B86" s="5">
         <v>2018</v>
       </c>
-      <c r="C85" s="6" t="s">
+      <c r="C86" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="7">
+      <c r="D86" s="7">
         <v>509.3</v>
       </c>
-      <c r="E85" s="7">
+      <c r="E86" s="7">
         <v>34085.699999999997</v>
       </c>
-      <c r="F85" s="7">
+      <c r="F86" s="7">
         <v>4452.2</v>
       </c>
-      <c r="G85" s="8">
+      <c r="G86" s="8">
         <v>482.7</v>
       </c>
     </row>
-    <row r="86" spans="2:8" hidden="1">
-      <c r="B86" s="9">
+    <row r="87" spans="2:8" hidden="1">
+      <c r="B87" s="9">
         <v>2018</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="C87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="11">
+      <c r="D87" s="11">
         <v>435.2</v>
       </c>
-      <c r="E86" s="11">
+      <c r="E87" s="11">
         <v>30873.7</v>
       </c>
-      <c r="F86" s="11">
+      <c r="F87" s="11">
         <v>3933.1</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>445.1</v>
       </c>
     </row>
-    <row r="87" spans="2:8" hidden="1">
-      <c r="B87" s="5">
+    <row r="88" spans="2:8" hidden="1">
+      <c r="B88" s="5">
         <v>2018</v>
       </c>
-      <c r="C87" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D87" s="7">
+      <c r="D88" s="7">
         <v>415.6</v>
       </c>
-      <c r="E87" s="7">
+      <c r="E88" s="7">
         <v>30548.6</v>
       </c>
-      <c r="F87" s="7">
+      <c r="F88" s="7">
         <v>3950.4</v>
       </c>
-      <c r="G87" s="8">
+      <c r="G88" s="8">
         <v>443.4</v>
       </c>
     </row>
-    <row r="88" spans="2:8" hidden="1">
-      <c r="B88" s="9">
+    <row r="89" spans="2:8" hidden="1">
+      <c r="B89" s="9">
         <v>2018</v>
       </c>
-      <c r="C88" s="10" t="s">
+      <c r="C89" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D88" s="11">
+      <c r="D89" s="11">
         <v>395.9</v>
       </c>
-      <c r="E88" s="11">
+      <c r="E89" s="11">
         <v>29707.4</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F89" s="11">
         <v>3773.4</v>
       </c>
-      <c r="G88" s="12">
+      <c r="G89" s="12">
         <v>417.7</v>
       </c>
     </row>
-    <row r="89" spans="2:8" hidden="1">
-      <c r="B89" s="5">
+    <row r="90" spans="2:8" hidden="1">
+      <c r="B90" s="5">
         <v>2018</v>
       </c>
-      <c r="C89" s="6" t="s">
+      <c r="C90" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D89" s="7">
+      <c r="D90" s="7">
         <v>491.1</v>
       </c>
-      <c r="E89" s="7">
+      <c r="E90" s="7">
         <v>32843.800000000003</v>
       </c>
-      <c r="F89" s="7">
+      <c r="F90" s="7">
         <v>4208</v>
       </c>
-      <c r="G89" s="8">
+      <c r="G90" s="8">
         <v>467.8</v>
       </c>
     </row>
-    <row r="90" spans="2:8" hidden="1">
-      <c r="B90" s="9">
+    <row r="91" spans="2:8" hidden="1">
+      <c r="B91" s="9">
         <v>2018</v>
       </c>
-      <c r="C90" s="10" t="s">
+      <c r="C91" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D90" s="11">
+      <c r="D91" s="11">
         <v>547.9</v>
       </c>
-      <c r="E90" s="11">
+      <c r="E91" s="11">
         <v>34437.199999999997</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F91" s="11">
         <v>4331</v>
       </c>
-      <c r="G90" s="12">
+      <c r="G91" s="12">
         <v>474.3</v>
       </c>
     </row>
-    <row r="91" spans="2:8" hidden="1">
-      <c r="B91" s="5">
+    <row r="92" spans="2:8" hidden="1">
+      <c r="B92" s="5">
         <v>2018</v>
       </c>
-      <c r="C91" s="6" t="s">
+      <c r="C92" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D91" s="7">
+      <c r="D92" s="7">
         <v>432.7</v>
       </c>
-      <c r="E91" s="7">
+      <c r="E92" s="7">
         <v>30803.9</v>
       </c>
-      <c r="F91" s="7">
+      <c r="F92" s="7">
         <v>4039.2</v>
       </c>
-      <c r="G91" s="8">
+      <c r="G92" s="8">
         <v>416.5</v>
       </c>
     </row>
-    <row r="92" spans="2:8" hidden="1">
-      <c r="B92" s="9">
+    <row r="93" spans="2:8" hidden="1">
+      <c r="B93" s="9">
         <v>2018</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C93" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D92" s="11">
+      <c r="D93" s="11">
         <v>436.5</v>
       </c>
-      <c r="E92" s="11">
+      <c r="E93" s="11">
         <v>32434.6</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F93" s="11">
         <v>4224</v>
       </c>
-      <c r="G92" s="12">
+      <c r="G93" s="12">
         <v>445.4</v>
       </c>
-      <c r="H92" s="1"/>
-    </row>
-    <row r="93" spans="2:8" hidden="1">
-      <c r="B93" s="5">
+      <c r="H93" s="1"/>
+    </row>
+    <row r="94" spans="2:8" hidden="1">
+      <c r="B94" s="5">
         <v>2018</v>
       </c>
-      <c r="C93" s="6" t="s">
+      <c r="C94" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="7">
+      <c r="D94" s="7">
         <v>477.7</v>
       </c>
-      <c r="E93" s="7">
+      <c r="E94" s="7">
         <v>32564.6</v>
       </c>
-      <c r="F93" s="7">
+      <c r="F94" s="7">
         <v>4185.6000000000004</v>
       </c>
-      <c r="G93" s="8">
+      <c r="G94" s="8">
         <v>438.9</v>
       </c>
     </row>
-    <row r="94" spans="2:8" hidden="1">
-      <c r="B94" s="9">
+    <row r="95" spans="2:8" hidden="1">
+      <c r="B95" s="9">
         <v>2018</v>
       </c>
-      <c r="C94" s="10" t="s">
+      <c r="C95" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="11">
+      <c r="D95" s="11">
         <v>466.7</v>
       </c>
-      <c r="E94" s="11">
+      <c r="E95" s="11">
         <v>34233.9</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F95" s="11">
         <v>4359.2</v>
       </c>
-      <c r="G94" s="12">
+      <c r="G95" s="12">
         <v>444.7</v>
       </c>
     </row>
-    <row r="95" spans="2:8" hidden="1">
-      <c r="B95" s="5">
+    <row r="96" spans="2:8" hidden="1">
+      <c r="B96" s="5">
         <v>2018</v>
       </c>
-      <c r="C95" s="6" t="s">
+      <c r="C96" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D95" s="7">
+      <c r="D96" s="7">
         <v>366.2</v>
       </c>
-      <c r="E95" s="7">
+      <c r="E96" s="7">
         <v>28790.1</v>
       </c>
-      <c r="F95" s="7">
+      <c r="F96" s="7">
         <v>3745.4</v>
       </c>
-      <c r="G95" s="8">
+      <c r="G96" s="8">
         <v>386.7</v>
       </c>
     </row>
-    <row r="96" spans="2:8" hidden="1">
-      <c r="B96" s="9">
+    <row r="97" spans="2:7" hidden="1">
+      <c r="B97" s="9">
         <v>2018</v>
       </c>
-      <c r="C96" s="10" t="s">
+      <c r="C97" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D96" s="11">
+      <c r="D97" s="11">
         <v>425.1</v>
       </c>
-      <c r="E96" s="11">
+      <c r="E97" s="11">
         <v>37208</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F97" s="11">
         <v>4173.7</v>
       </c>
-      <c r="G96" s="12">
+      <c r="G97" s="12">
         <v>418.2</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="98" spans="2:7">
       <c r="B98" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E98" s="1"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="1"/>
+        <v>24</v>
+      </c>
     </row>
     <row r="99" spans="2:7">
       <c r="B99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E99" s="1"/>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G99" s="17"/>
-    </row>
-    <row r="100" spans="2:7">
       <c r="G100" s="17"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="G101" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
